--- a/preprocess/valid_fix_role_output_file.xlsx
+++ b/preprocess/valid_fix_role_output_file.xlsx
@@ -536,35 +536,35 @@
 [doctor] so , brian is a 58 year old male with a past medical history significant for congestive heart failure and hyptension , who presents today for follow-up of his chronic problems . so , brian , it is been a little while i have seen you .
 [patient] mm- .
 [doctor] whats , what's going on ?
-[patient] i just feel out of sorts lately . i do not know if it is the change in the seasons or if we are just doing a lot of projects around the house and some construction on our own . i am just feeling out of it . lack of ,  , engy . i am just so tired and fatigued , and i feel kinda ... i feel lightheaded evy once in a while .
+[patient] the patient just feel out of sorts lately . the patient do not know if it is the change in the seasons or if we are just doing a lot of projects around the house and some construction on our own . the patient is just feeling out of it . lack of ,  , engy . the patient is just so tired and fatigued , and the patient feel kinda ... the patient feel lightheaded evy once in a while .
 [doctor] okay . all right .  , how long has that been going on for ?
-[patient]  , probably since labor day , so about five weeks or so .
+[patient] , probably since labor day , so about five weeks or so .
 [doctor] okay . and , have you noticed any ,  , symptoms of weight gain ,  ,  swollen legs , or ,  , your belly feels bloated and things  that ?
-[patient] i feel , i feel bloated evy once in a while .
+[patient] the patient feel , the patient feel bloated evy once in a while .
 [doctor] okay . all right .  , and , are you taking your medications ?
-[patient]  , yes , i am .
+[patient] , yes , the patient is .
 [doctor] okay . and , how about your diet ? are you watching your diet ?
-[patient]  , it is been a little bit of a struggle . we began construction on our kitchen ov labor day weekend , and it was ... hard to cook or prepare meals so we ate out a lot, and not always the best food out. it kind of reeked havoc ,  , so it is been maybe off a little bit .
+[patient] , it is been a little bit of a struggle . we began construction on our kitchen ov labor day weekend , and it was ... hard to cook or prepare meals so we ate out a lot, and not always the best food out. it kind of reeked havoc ,  , so it is been maybe off a little bit .
 [doctor] okay . all right . and , how about ,  , oth symptoms ,  , have you had a fev or chills ?
 [patient] no .
 [doctor] okay , and any problems breathing ? do you feel short of breath ?
-[patient]  , just when i am doing the projects . again , not even lifting anything really heavy , it is just that if i am ex- exting any engy , i kinda feel it at that point .
+[patient] , just when the patient is doing the projects . again , not even lifting anything really heavy , it is just that if the patient is ex- exting any engy , the patient kinda feel it at that point .
 [doctor] okay . do you have any chest pain ?
-[patient] slight cramps . that seems to go away aft about , maybe about an hour or so aft i first feel it .
+[patient] slight cramps . that seems to go away aft about , maybe about an hour or so aft the patient first feel it .
 [doctor] okay , and how about a cough ?
-[patient] a slight cough , and again , i am not sure if it is just the change of seasons and i am getting a cold .
+[patient] a slight cough , and again , the patient is not sure if it is just the change of seasons and the patient is getting a cold .
 [doctor] mm- . okay . all right .  ,  , for the most part , how ,  , before all of this-
 [patient] mm- .
 [doctor] . how we you doing with your heart failure ? i know that we have kinda talked about you being able to watch your healthy food intake and that's been kind of a struggle in the past .
-[patient] i have actually been pretty good about that ev since . the last year , it is been a little chaotic , but i wanted to make sure i stayed on top of that .
+[patient] the patient has actually been pretty good about that ev since . the last year , it is been a little chaotic , but the patient wanted to make sure the patient stayed on top of that .
 [doctor] okay . all right . are you excited for halloween ?
-[patient]  , can not wait .
+[patient] , can not wait .
 [doctor] okay .
 [patient] our home renovations should be complete by then
 [doctor] all right , ye , right .
 [patient] ye .
 [doctor] and , so , lastly , for your high blood pressure , how are you doing with that ? have , are , did you buy the blood pressure cuff  i asked ?
-[patient] ye , i did , and we do mon- , i monitor it regularly . my wife makes sure i stay on top of that , but it is been pretty good .
+[patient] ye , the patient did , and we do mon- , the patient monitor it regularly . his / her wife makes sure the patient stay on top of that , but it is been pretty good .
 [doctor] okay . all right .  , i know you did the review of systems sheet when you checked in , and you we endorsing this fatigue-
 [patient] mm- .
 [doctor] . and a little dizziness and we just talked a lot about a lot of oth symptoms .
@@ -612,27 +612,27 @@
 [doctor] so brian is a 58 year old male with a past medical history significant for congestive heart failure and hyptension, who presents today for follow-up of his chronic problems. so, brian, it is been a little while i have seen you.
 [patient] mm-.
 [doctor] whats what's going on?
-[patient] i just feel out of sorts lately. i do not know if it is the change in the seasons or if we are just doing a lot of projects around the house and some construction on our own. i am just feeling out of it. lack of engy, i am just so tired and fatigued and i feel kinda- i feel lightheaded, evy once in a while.
+[patient] the patient just feel out of sorts lately. the patient do not know if it is the change in the seasons or if we are just doing a lot of projects around the house and some construction on our own. the patient is just feeling out of it. lack of engy, the patient is just so tired and fatigued and the patient feel kinda. the patient feel lightheaded, evy once in a while.
 [doctor] okay, all right. how long has that been going on for?
 [patient] probably since labor day, so about five weeks or so.
 [doctor] okay, and have you noticed any symptoms of weight gain? swollen legs or your belly feels bloated, and things that
-[patient] i feel, i feel bloated, evy once in a while.
+[patient] the patient feel. the patient feel bloated, evy once in a while.
 [doctor] okay, all right, and are you taking your medications?
-[patient] yes, i am.
+[patient] yes, the patient is.
 [doctor] okay, and how about your diet? are you watching your diet?
 [patient] it is been a little bit of a struggle. we began construction on our kitchen ov labor day weekend and it was hard to cook or prepare meals so we ate out a lot and not always the best food out. it kind of reeked havoc so it is been maybe off a little bit.
 [doctor] okay, all right. and how about oth symptoms? have you had a fev or chills?
 [patient] no.
 [doctor] okay and any problems breathing? do you feel short of breath?
-[patient] just when i am doing the projects again, not even lifting anything really heavy. it is just that if i am ex- exting any engy, i kinda feel it at that point.
+[patient] just when the patient is doing the projects again, not even lifting anything really heavy. it is just that if the patient is ex- exting any engy, the patient kinda feel it at that point.
 [doctor] okay. do you have any chest pain?
-[patient] slight cramps that seems to go away. aft about, maybe about an hour or so aft, i first feel it.
+[patient] slight cramps that seems to go away aft about maybe about an hour or so. aft the patient first feel it.
 [doctor] okay, and how about a cough?
-[patient] a slight cough and again, i am not sure if it is just the change of seasons- and i am getting a cold.
+[patient] a slight cough and again the patient is not sure if it is just the change of seasons and the patient is getting a cold.
 [doctor] mm- okay, all right for the most part. how before all of this-?
 [patient] mm-.
 [doctor] how we you doing with your heart failure. i know that we have kinda talked about you being able to watch your healthy food intake and that's been kind of a struggle in the past.
-[patient] i have actually been pretty good about that ev since the last year. it is been a little chaotic, but i wanted to make sure i stayed on top of that.
+[patient] the patient has actually been pretty good about that ev since the last year. it is been a little chaotic but the patient wanted to make sure the patient stayed on top of that.
 [doctor] okay, all right. are you excited for halloween?
 [patient] can not wait.
 [doctor] okay.
@@ -640,7 +640,7 @@
 [doctor] all right, ye right.
 [patient] ye.
 [doctor] and so, lastly, for your high blood pressure, how are you doing with that have are? did you buy the blood pressure cuff? i asked?
-[patient] ye, i did and we do, mon-. i monitor it regularly. my wife makes sure i stay on top of that, but it is been pretty good.
+[patient] ye, the patient did and we do. mon- the patient monitor it regularly. his / her wife makes sure the patient stay on top of that, but it is been pretty good.
 [doctor] okay, all right, i know you did the review of systems sheet when you checked in and you we endorsing this fatigue-.
 [patient] mm-.
 [doctor] and a little dizziness, and we just talked a lot about a lot of oth symptoms.
@@ -687,27 +687,27 @@
 [doctor] so brian is a 58 year old male with a past medical history significant for congestive heart failure and hyptension, who presents today for follow-up of his chronic problems. so, brian, it is been a little while i have seen you.
 [patient] mm-.
 [doctor] whats what's going on?
-[patient] i just feel out of sorts lately. i do not know if it is the change in the seasons or if we are just doing a lot of projects around the house and some construction on our own. i am just feeling out of it. lack of engy, i am just so tired and fatigued and i feel kinda- i feel lightheaded, evy once in a while.
+[patient] the patient just feel out of sorts lately. the patient do not know if it is the change in the seasons or if we are just doing a lot of projects around the house and some construction on our own. the patient is just feeling out of it. lack of engy, the patient is just so tired and fatigued and the patient feel kinda. the patient feel lightheaded, evy once in a while.
 [doctor] okay, all right. how long has that been going on for?
 [patient] probably since labor day, so about five weeks or so.
 [doctor] okay, and have you noticed any symptoms of weight gain? swollen legs or your belly feels bloated, and things that
-[patient] i feel, i feel bloated, evy once in a while.
+[patient] the patient feel. the patient feel bloated, evy once in a while.
 [doctor] okay, all right, and are you taking your medications?
-[patient] yes, i am.
+[patient] yes, the patient is.
 [doctor] okay, and how about your diet? are you watching your diet?
 [patient] it is been a little bit of a struggle. we began construction on our kitchen ov labor day weekend and it was hard to cook or prepare meals so we ate out a lot and not always the best food out. it kind of reeked havoc so it is been maybe off a little bit.
 [doctor] okay, all right. and how about oth symptoms? have you had a fev or chills?
 [patient] no.
 [doctor] okay and any problems breathing? do you feel short of breath?
-[patient] just when i am doing the projects again, not even lifting anything really heavy. it is just that if i am ex- exting any engy, i kinda feel it at that point.
+[patient] just when the patient is doing the projects again, not even lifting anything really heavy. it is just that if the patient is ex- exting any engy, the patient kinda feel it at that point.
 [doctor] okay. do you have any chest pain?
-[patient] slight cramps that seems to go away. aft about, maybe about an hour or so aft, i first feel it.
+[patient] slight cramps that seems to go away aft about maybe about an hour or so. aft the patient first feel it.
 [doctor] okay, and how about a cough?
-[patient] a slight cough and again, i am not sure if it is just the change of seasons- and i am getting a cold.
+[patient] a slight cough and again the patient is not sure if it is just the change of seasons and the patient is getting a cold.
 [doctor] mm- okay, all right for the most part. how before all of this-?
 [patient] mm-.
 [doctor] how we you doing with your heart failure. i know that we have kinda talked about you being able to watch your healthy food intake and that's been kind of a struggle in the past.
-[patient] i have actually been pretty good about that ev since the last year. it is been a little chaotic, but i wanted to make sure i stayed on top of that.
+[patient] the patient has actually been pretty good about that ev since the last year. it is been a little chaotic but the patient wanted to make sure the patient stayed on top of that.
 [doctor] okay, all right. are you excited for halloween?
 [patient] can not wait.
 [doctor] okay.
@@ -715,7 +715,7 @@
 [doctor] all right, ye right.
 [patient] ye.
 [doctor] and so, lastly, for your high blood pressure, how are you doing with that have are? did you buy the blood pressure cuff? i asked?
-[patient] ye, i did and we do, mon-. i monitor it regularly. my wife makes sure i stay on top of that, but it is been pretty good.
+[patient] ye, the patient did and we do. mon- the patient monitor it regularly. his / her wife makes sure the patient stay on top of that, but it is been pretty good.
 [doctor] okay, all right, i know you did the review of systems sheet when you checked in and you we endorsing this fatigue-.
 [patient] mm-.
 [doctor] and a little dizziness, and we just talked a lot about a lot of oth symptoms.
@@ -839,33 +839,33 @@
         <v xml:space="preserve">[doctor] hi , ms. thompson . i am dr. moore . how are you ?
 [patient] hi , dr. moore .
 [doctor] hi .
-[patient] i am doing okay except for my knee .
+[patient] the patient is doing okay except for his / her knee .
 [doctor] all right , hey , dragon , ms. thompson is a 43 year old female he for right knee pain . so tell me what happened with your knee ?
-[patient]  , i was ,  , trying to change a light bulb , and i was up on a ladd and i kinda had a little bit of a stble and kinda twisted my knee as i was trying to catch my fall .
+[patient] , the patient was ,  , trying to change a light bulb , and the patient was up on a ladd and the patient kinda had a little bit of a stble and kinda twisted his / her knee as the patient was trying to catch his / her fall .
 [doctor] okay . and did you injure yourself any place else ?
 [patient] no . it just seems to be the knee .
 [doctor] all right . and when did this happen ?
 [patient] it was yestday .
 [doctor] all right . and ,  , whe does it hurt mostly ?
-[patient] it hurts  in the inside of my knee .
+[patient] it hurts  in the inside of his / her knee .
 [doctor] okay .
 [patient] right he .
 [doctor] all right . and anything make it bett or worse ?
-[patient] i have been putting ice on it ,  , and i have been taking ibuprofen , but it does not seem to help much .
+[patient] the patient has been putting ice on it ,  , and the patient has been taking ibuprofen , but it does not seem to help much .
 [doctor] okay . so it sounds  you fell a couple days ago , and you have hurt something inside of your right knee .
 [patient] mm- .
 [doctor] and you have been taking a little bit of ice ,  , putting some ice on it , and has not really helped and some ibuprofen . is that right ?
 [patient] that's right . ye .
 [doctor] okay , let's review your past history for a second . it looks  ,  , do you have any oth past medical history ?
-[patient]  , afib .
+[patient] , afib .
 [doctor] okay , and are you taking any medications for that ?
-[patient] ye , i am .  , begins with a d.
+[patient] ye , the patient is .   , begins with a d.
 [doctor]  , digoxin ?
 [patient] that's it . ye , that's it .
 [doctor] okay , all right . how about any surgies in the past ?
-[patient] i have had a nose job .
+[patient] the patient has had a nose job .
 [doctor] all right .  , let's do your exam , okay ? so is it tend ... whe is it mostly tend right now ?
-[patient] right on the inside of my knee . right he .
+[patient] right on the inside of his / her knee . right he .
 [doctor] all right , so if i bend your knee forward , does that seem to hurt ?
 [patient] yes , that hurts .
 [doctor] all right , how about if i twist it a little bit that way .
@@ -883,26 +883,26 @@
 [doctor] i am going to recommend we give you some motrin , 800 milligrams .  , you can take it about evy six hours ,  , with food .  , and we will give you about a two week supply .
 [patient] okay .
 [doctor] okay .  , do you have any questions ?
-[patient] no , i think i am good .
+[patient] no , the patient think the patient is good .
 [doctor] all right . hey , dragon , ord the medications and procedures discussed , and finalize the report . okay , come with me and we will get you checked out .</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi, ms thompson, i am dr moore. how are you?
 [patient] hi dr moore.
 [doctor] hi.
-[patient] i am doing okay, except for my knee.
+[patient] the patient is doing okay, except for his / her knee.
 [doctor] all right, hey dragon. ms thompson is a 43 year old female. he for right knee pain, so tell me what happened with your knee.
-[patient] i was trying to change a light bulb and i was up on a ladd and i kinda had a little bit of a stble and kinda twisted my knee as i was trying to catch my fall.
+[patient] the patient was trying to change a light bulb and the patient was up on a ladd and the patient kinda had a little bit of a stble and kinda twisted his / her knee as the patient was trying to catch his / her fall.
 [doctor] okay, and did you injure yourself any place else?
 [patient] no, it just seems to be the knee.
 [doctor] all right, and when did this happen?
 [patient] it was yestday.
 [doctor] all right, and whe does it hurt mostly?
-[patient] it hurts in the inside of my knee.
+[patient] it hurts in the inside of his / her knee.
 [doctor] okay.
 [patient] right, he.
 [doctor] all right and anything make it bett or worse.
-[patient] i have been putting ice on it and i have been taking ibuprofen, but it does not seem to help much.
+[patient] the patient has been putting ice on it and the patient has been taking ibuprofen, but it does not seem to help much.
 [doctor] okay, so it sounds. you fell a couple days ago and you have hurt something inside of your right knee.
 [patient] mm-.
 [doctor] and you have been taking a little bit of ice, putting some ice on it and has not really helped- and some ibuprofen- is that right?
@@ -910,13 +910,13 @@
 [doctor] okay, let's review your past history for a second. it looks, do you have any oth past medical history?
 [patient] afib.
 [doctor] okay, and are you taking any medications for that?
-[patient] ye, i am. begins with a d.
+[patient] ye the patient is. begins with a d.
 [doctor] digoxin.
 [patient] that's it, ye, that's it.
 [doctor] okay, all right. how about any surgies in the past?
-[patient] i have had a nose job.
+[patient] the patient has had a nose job.
 [doctor] all right, let's do your exam. okay. so is it tend? whe is it mostly tend right now?
-[patient] right on the inside of my knee, right he.
+[patient] right on the inside of his / her knee, right he.
 [doctor] all right. so if i bend your knee forward, does that seem to hurt?
 [patient] yes, that hurts.
 [doctor] all right. how about if i twist it a little bit that way?
@@ -934,26 +934,26 @@
 [doctor] i am going to recommend we give you some motrin 800 milligrams. you can take it about evy six hours with food and we will give you about a two week supply.
 [patient] okay.
 [doctor] okay, do you have any questions?
-[patient] no, i think i am good.
+[patient] no, the patient think the patient is good.
 [doctor] all right, hey, dragon ord, the medications and procedures discussed and finalize the report. okay, come with me and we will get you checked out.</v>
       </c>
       <c r="G3" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi, ms thompson, i am dr moore. how are you?
 [patient] hi dr moore.
 [doctor] hi.
-[patient] i am doing okay, except for my knee.
+[patient] the patient is doing okay, except for his / her knee.
 [doctor] all right, hey dragon. ms thompson is a 43 year old female. he for right knee pain, so tell me what happened with your knee.
-[patient] i was trying to change a light bulb and i was up on a ladd and i kinda had a little bit of a stble and kinda twisted my knee as i was trying to catch my fall.
+[patient] the patient was trying to change a light bulb and the patient was up on a ladd and the patient kinda had a little bit of a stble and kinda twisted his / her knee as the patient was trying to catch his / her fall.
 [doctor] okay, and did you injure yourself any place else?
 [patient] no, it just seems to be the knee.
 [doctor] all right, and when did this happen?
 [patient] it was yestday.
 [doctor] all right, and whe does it hurt mostly?
-[patient] it hurts in the inside of my knee.
+[patient] it hurts in the inside of his / her knee.
 [doctor] okay.
 [patient] right, he.
 [doctor] all right and anything make it bett or worse.
-[patient] i have been putting ice on it and i have been taking ibuprofen, but it does not seem to help much.
+[patient] the patient has been putting ice on it and the patient has been taking ibuprofen, but it does not seem to help much.
 [doctor] okay, so it sounds. you fell a couple days ago and you have hurt something inside of your right knee.
 [patient] mm-.
 [doctor] and you have been taking a little bit of ice, putting some ice on it and has not really helped- and some ibuprofen- is that right?
@@ -961,13 +961,13 @@
 [doctor] okay, let's review your past history for a second. it looks, do you have any oth past medical history?
 [patient] afib.
 [doctor] okay, and are you taking any medications for that?
-[patient] ye, i am. begins with a d.
+[patient] ye the patient is. begins with a d.
 [doctor] digoxin.
 [patient] that's it, ye, that's it.
 [doctor] okay, all right. how about any surgies in the past?
-[patient] i have had a nose job.
+[patient] the patient has had a nose job.
 [doctor] all right, let's do your exam. okay. so is it tend? whe is it mostly tend right now?
-[patient] right on the inside of my knee, right he.
+[patient] right on the inside of his / her knee, right he.
 [doctor] all right. so if i bend your knee forward, does that seem to hurt?
 [patient] yes, that hurts.
 [doctor] all right. how about if i twist it a little bit that way?
@@ -985,7 +985,7 @@
 [doctor] i am going to recommend we give you some motrin 800 milligrams. you can take it about evy six hours with food and we will give you about a two week supply.
 [patient] okay.
 [doctor] okay, do you have any questions?
-[patient] no, i think i am good.
+[patient] no, the patient think the patient is good.
 [doctor] all right, hey, dragon ord, the medications and procedures discussed and finalize the report. okay, come with me and we will get you checked out.</v>
       </c>
       <c r="H3" t="str">
@@ -1150,33 +1150,33 @@
 [doctor] so logan is a 58 year old male , with a past medical history significant for diabetes type 2 , hyptension , osteoarthritis , who presents today with some back pain .
 [patient] mm- .
 [doctor] so logan , what happened to your back ?
-[patient]  , we helping my daught with some heavy equipment and lifted some boxes a little too quickly , and they we a little too heavy .
+[patient] , we helping his / her daught with some heavy equipment and lifted some boxes a little too quickly , and they we a little too heavy .
 [doctor] okay ... and did you strain your back , did something-
-[patient] i thought i heard a pop when i moved and i had to lie down for about an hour before it actually relieved the pain . and then it is been a little stiff ev since . and this was- what , so today's tuesday . this was saturday morning .
+[patient] the patient thought the patient heard a pop when the patient moved and the patient had to lie down for about an hour before it actually relieved the pain . and then it is been a little stiff ev since . and this was- what , so today's tuesday . this was saturday morning .
 [doctor] okay , all right .
 [doctor] and is it your low back , your upp back ?
-[patient] my low back .
+[patient] his / her low back .
 [doctor] your low back , okay . and what have you taken for the pain ?
-[patient] i took some tylenol , i took some ibuprofen , i used a little bit of icy heat on the spot but it really did not seem to help .
+[patient] the patient took some tylenol , the patient took some ibuprofen , the patient used a little bit of icy heat on the spot but it really did not seem to help .
 [doctor] okay . and  ... do you have any nbing or tingling in your legs ?
-[patient]  ... i felt some tingling in my toes on my right foot until about sunday aftnoon . and then that seemed to go away .
+[patient] ... the patient felt some tingling in his / her toes on his / her right foot until about sunday aftnoon . and then that seemed to go away .
 [doctor] okay , and is the a position that you feel bett in ?
-[patient]  ... it is really tough to find a comfortable spot sleeping at night . i would- i tend to lie on my right side and that seemed to help a little bit ?
+[patient] ... it is really tough to find a comfortable spot sleeping at night . the patient would- the patient tend to lie on his / her right side and that seemed to help a little bit ?
 [doctor] okay , all right .
 [doctor]  ,  ... so how are you doing othwise ? i know that ,  , we have some issues to talk-
 [patient] mm- .
 [doctor] . about today . we you able to take any vacations ov the sm ?
-[patient]  ... some long weekends , which was great . just kind of- trying to mix it up through the sm . so lots of three day weekends .
+[patient] ... some long weekends , which was great . just kind of- trying to mix it up through the sm . so lots of three day weekends .
 [doctor] okay ,  i am glad to hear that .
 [doctor]  ... so let's talk a little bit about your diabetes . how are you doing with that ? i know that-  , i rememb you have a sweet tooth . so ...
-[patient] ye ... i love peanut butt cups .  ... and i have to say that when we helping my daught , we on the fly and on the go and havenot had a home cooked meal in weeks, our diets we less than stellar .
-[patient] and  ... i think i need to go clean for a couple of weeks . but oth than that , it was been- it is been pretty good eating .
+[patient] ye ... the patient love peanut butt cups .  ... and the patient has to say that when we helping his / her daught , we on the fly and on the go and havenot had a home cooked meal in weeks, our diets we less than stellar .
+[patient] and  ... the patient think the patient need to go clean for a couple of weeks . but oth than that , it was been- it is been pretty good eating .
 [doctor] okay , all right . and how about your high blood pressure ? are you monitoring your blood pressure readings at home ,  i recommended ?
-[patient] i am good about it during the week while i am at home working, but on the weekends when i am out of the house i tend to forget .  , and so it is not as regimented , but it is been pretty good and und control for the most part .
+[patient] the patient is good about it during the week while the patient is at home working, but on the weekends when the patient is out of the house the patient tend to forget .  , and so it is not as regimented , but it is been pretty good and und control for the most part .
 [doctor] okay , and you are you are taking your medication ?
-[patient] yes , i am .
+[patient] yes , the patient is .
 [doctor] okay . and then lastly , i know that you had some early arthritis in your knee . how are you doing with that ?
-[patient]  ... it gets aggravated evy once in a while . if i- maybe if i run too much or if i have lift boxes that are a little too heavy , i start to feel the strain . but it is been okay . not great , but it is been okay .
+[patient] ... it gets aggravated evy once in a while . if the patient- maybe if the patient run too much or if the patient has lift boxes that are a little too heavy , the patient start to feel the strain . but it is been okay . not great , but it is been okay .
 [doctor] okay . all right ,  ... let me go ead and-  , i know that the nurse did a review of systems sheet with you when you- when you checked in . i know that you we endorsing the back pain .
 [doctor] have you had any oth symptoms , chest pain , nausea or vomiting-
 [patient] no .
@@ -1223,7 +1223,7 @@
 [doctor] so , for your third problem , your hyptension .  ... i'd  to go ead increase the lisinopril from 10 mg to 20 mg a day .
 [patient] mm- .
 [doctor] does that sound okay ? i think we need to get it und bett control .
-[patient] no that's fine . i agree .
+[patient] no that's fine . the patient agree .
 [doctor] hey dragon ? ord lisinopril 20 mg daily .
 [doctor] and for your last problem , your osteoarthritis , i think that you we doing a really good job , in tms of  what , monitoring your knee and  ...
 [patient] mm- .
@@ -1247,18 +1247,18 @@
 [doctor] so logan is a 58 year old male with a past medical history significant for diabetes, type 2, hyptension, osteoarthritis, who presents today with some back pain.
 [patient] mm-.
 [doctor] so, logan, what happened to your back?
-[patient] we helping my daught with some heavy equipment and lifted some boxes a little too quickly and they we a little too heavy.
+[patient] we helping his / her daught with some heavy equipment and lifted some boxes a little too quickly and they we a little too heavy.
 [doctor] okay, and did you strain your back? did something-.
-[patient] i thought i heard a pop when i moved and i had to lie down for about an hour before it actually relieved the pain, and then it is been a little stiff ev since. and this was- what? so today's tuesday, this was saturday morning.
+[patient] the patient thought the patient heard a pop when the patient moved and the patient had to lie down for about an hour before it actually relieved the pain. and then it is been a little stiff ev since. and this was- what. so today's tuesday, this was saturday morning.
 [doctor] okay, all right.
 [doctor] and is it your low back, your upp back?
-[patient] my low back.
+[patient] his / her low back.
 [doctor] your low back okay, and what have you taken for the pain?
-[patient] i took some tylenol. i took some ibuprofen. i used a little bit of icy heat on the spot, but it really did not seem to help.
+[patient] the patient took some tylenol. the patient took some ibuprofen. the patient used a little bit of icy heat on the spot, but it really did not seem to help.
 [doctor] okay, and do you have any nbing or tingling in your legs?
-[patient] i felt some tingling in my toes on my right foot until about sunday aftnoon and then that seemed to go away.
+[patient] the patient felt some tingling in his / her toes on his / her right foot until about sunday aftnoon, and then that seemed to go away.
 [doctor] okay and is the a position that you feel bett in.
-[patient] it is really tough to find a comfortable spot sleeping at night. i would- i tend to lie on my right side, and that seemed to help a little bit.
+[patient] it is really tough to find a comfortable spot sleeping at night. the patient would-. the patient tend to lie on his / her right side and that seemed to help a little bit.
 [doctor] okay, all right.
 [doctor] so how are you doing othwise? i know that we have some issues to talk-.
 [patient] mm-.
@@ -1266,14 +1266,14 @@
 [patient] some long weekends, which was great, just kind of- trying to mix it up through the sm. so lots of three day weekends.
 [doctor] okay, i am glad to hear that.
 [doctor] so let's talk a little bit about your diabetes. how are you doing with that? i know that- i rememb you have a sweet tooth, so
-[patient] ye, i love peanut butt cups and i have to say that when we helping my daught, we on the fly and on the go and havenot had a home cooked meal in weeks. our diets we less than stellar.
-[patient] and i think i need to go clean for a couple of weeks, but oth than that, it was been- it is been pretty good eating.
+[patient] ye, the patient love peanut butt cups. and the patient has to say that when we helping his / her daught, we on the fly and on the go and havenot had a home cooked meal in weeks. our diets we less than stellar.
+[patient] and the patient think the patient need to go clean for a couple of weeks, but oth than that it was been- it is been pretty good eating.
 [doctor] okay, all right. and how about your high blood pressure? are you monitoring your blood pressure readings at home? i recommended.
-[patient] i am good about it during the week while i am at home working, but on the weekends when i am out of the house, i tend to forget and so it is not as regimented. but it is been pretty good and und control for the most part.
+[patient] the patient is good about it during the week while the patient is at home working, but on the weekends, when the patient is out of the house, the patient tend to forget and so it is not as regimented. but it is been pretty good and und control for the most part.
 [doctor] okay, and you are. you are taking your medication.
-[patient] yes, i am.
+[patient] yes, the patient is.
 [doctor] okay. and then, lastly, i know that you had some early arthritis in your knee. how are you doing with that?
-[patient] it gets aggravated, evy, once in a while. if i- maybe if i run too much or if i have lift boxes that are a little too heavy, i start to feel the strain. but it is been okay. not great, but it is been okay.
+[patient] it gets aggravated, evy, once in a while if the patient- maybe if the patient run too much or if the patient has lift boxes that are a little too heavy, the patient start to feel the strain. but it is been okay. not great, but it is been okay.
 [doctor] okay, all right, let me go ead and- i know that the nurse did a review of systems sheet with you when you- when you checked in. i know that you we endorsing the back pain.
 [doctor] have you had any oth symptoms: chest pain, nausea or vomiting-.
 [patient] no.
@@ -1320,7 +1320,7 @@
 [doctor] so for your third problem, your hyptension, i'd to go ead, increase the lisinopril from 10 mg to 20 mg a day.
 [patient] mm-.
 [doctor] does that sound okay? i think we need to get it und bett control.
-[patient] no, that's fine, i agree.
+[patient] no, that's fine, the patient agree.
 [doctor] hey dragon ord. lisinopril 20 mg daily.
 [doctor] and for your last problem, your osteoarthritis, i think that you we doing a really good job in tms of what- monitoring your knee and
 [patient] mm-.
@@ -1344,18 +1344,18 @@
 [doctor] so logan is a 58 year old male with a past medical history significant for diabetes, type 2, hyptension, osteoarthritis, who presents today with some back pain.
 [patient] mm-.
 [doctor] so, logan, what happened to your back?
-[patient] we helping my daught with some heavy equipment and lifted some boxes a little too quickly and they we a little too heavy.
+[patient] we helping his / her daught with some heavy equipment and lifted some boxes a little too quickly and they we a little too heavy.
 [doctor] okay, and did you strain your back? did something-.
-[patient] i thought i heard a pop when i moved and i had to lie down for about an hour before it actually relieved the pain, and then it is been a little stiff ev since. and this was- what? so today's tuesday, this was saturday morning.
+[patient] the patient thought the patient heard a pop when the patient moved and the patient had to lie down for about an hour before it actually relieved the pain. and then it is been a little stiff ev since. and this was- what. so today's tuesday, this was saturday morning.
 [doctor] okay, all right.
 [doctor] and is it your low back, your upp back?
-[patient] my low back.
+[patient] his / her low back.
 [doctor] your low back okay, and what have you taken for the pain?
-[patient] i took some tylenol. i took some ibuprofen. i used a little bit of icy heat on the spot, but it really did not seem to help.
+[patient] the patient took some tylenol. the patient took some ibuprofen. the patient used a little bit of icy heat on the spot, but it really did not seem to help.
 [doctor] okay, and do you have any nbing or tingling in your legs?
-[patient] i felt some tingling in my toes on my right foot until about sunday aftnoon and then that seemed to go away.
+[patient] the patient felt some tingling in his / her toes on his / her right foot until about sunday aftnoon, and then that seemed to go away.
 [doctor] okay and is the a position that you feel bett in.
-[patient] it is really tough to find a comfortable spot sleeping at night. i would- i tend to lie on my right side, and that seemed to help a little bit.
+[patient] it is really tough to find a comfortable spot sleeping at night. the patient would-. the patient tend to lie on his / her right side and that seemed to help a little bit.
 [doctor] okay, all right.
 [doctor] so how are you doing othwise? i know that we have some issues to talk-.
 [patient] mm-.
@@ -1363,14 +1363,14 @@
 [patient] some long weekends, which was great, just kind of- trying to mix it up through the sm. so lots of three day weekends.
 [doctor] okay, i am glad to hear that.
 [doctor] so let's talk a little bit about your diabetes. how are you doing with that? i know that- i rememb you have a sweet tooth, so
-[patient] ye, i love peanut butt cups and i have to say that when we helping my daught, we on the fly and on the go and havenot had a home cooked meal in weeks. our diets we less than stellar.
-[patient] and i think i need to go clean for a couple of weeks, but oth than that, it was been- it is been pretty good eating.
+[patient] ye, the patient love peanut butt cups. and the patient has to say that when we helping his / her daught, we on the fly and on the go and havenot had a home cooked meal in weeks. our diets we less than stellar.
+[patient] and the patient think the patient need to go clean for a couple of weeks, but oth than that it was been- it is been pretty good eating.
 [doctor] okay, all right. and how about your high blood pressure? are you monitoring your blood pressure readings at home? i recommended.
-[patient] i am good about it during the week while i am at home working, but on the weekends when i am out of the house, i tend to forget and so it is not as regimented. but it is been pretty good and und control for the most part.
+[patient] the patient is good about it during the week while the patient is at home working, but on the weekends, when the patient is out of the house, the patient tend to forget and so it is not as regimented. but it is been pretty good and und control for the most part.
 [doctor] okay, and you are. you are taking your medication.
-[patient] yes, i am.
+[patient] yes, the patient is.
 [doctor] okay. and then, lastly, i know that you had some early arthritis in your knee. how are you doing with that?
-[patient] it gets aggravated, evy, once in a while. if i- maybe if i run too much or if i have lift boxes that are a little too heavy, i start to feel the strain. but it is been okay. not great, but it is been okay.
+[patient] it gets aggravated, evy, once in a while if the patient- maybe if the patient run too much or if the patient has lift boxes that are a little too heavy, the patient start to feel the strain. but it is been okay. not great, but it is been okay.
 [doctor] okay, all right, let me go ead and- i know that the nurse did a review of systems sheet with you when you- when you checked in. i know that you we endorsing the back pain.
 [doctor] have you had any oth symptoms: chest pain, nausea or vomiting-.
 [patient] no.
@@ -1417,7 +1417,7 @@
 [doctor] so for your third problem, your hyptension, i'd to go ead, increase the lisinopril from 10 mg to 20 mg a day.
 [patient] mm-.
 [doctor] does that sound okay? i think we need to get it und bett control.
-[patient] no, that's fine, i agree.
+[patient] no, that's fine, the patient agree.
 [doctor] hey dragon ord. lisinopril 20 mg daily.
 [doctor] and for your last problem, your osteoarthritis, i think that you we doing a really good job in tms of what- monitoring your knee and
 [patient] mm-.
@@ -1530,21 +1530,21 @@
 [doctor] i'd  to tell dax a little bit about you , okay ?
 [patient] sure .
 [doctor] so ralph is a 62-year-old male with a past medical history significant for depression and prior lobectomy as hyptension , who presents for his annual exam . so , ralph , it is been a while since i saw you . how are you doing ?
-[patient]  , relatively speaking , okay . it was kind of a tough spring with all the pollen and evything and ,  , we dropped my oldest daught off at college and moved h into h dorm , so little stressful , little chaotic , in the heat of the sm , but so far , so good .
+[patient] , relatively speaking , okay . it was kind of a tough spring with all the pollen and evything and ,  , we dropped his / her oldest daught off at college and moved h into h dorm , so little stressful , little chaotic , in the heat of the sm , but so far , so good .
 [doctor] okay . i know . i know . that's a , that's a hard thing to get ov , moving kids out of the house and that type of thing .
 [patient] ye .
 [doctor] so ,   , how are you doing from ,  , let's talk a little bit about your depression . how are you doing with that ? i know that we had put you on the prozac last year .
-[patient] ye , i have been staying on top of the meds , and i have not had any incidents in a while , so it is , it is been pretty good , and evything's managed and maintained .  , still kind of working with my hyptension . that's been a little bit more of a struggle than anything .
+[patient] ye , the patient has been staying on top of the meds , and the patient has not had any incidents in a while , so it is , it is been pretty good , and evything's managed and maintained .  , still kind of working with his / her hyptension . that's been a little bit more of a struggle than anything .
 [doctor] okay . ye , i see that we have you on the norvasc . and so are you taking it at home ? is it running high , or ...
-[patient] i am pretty regular with the medications during the business week , but on the's weekends ,  , if i am on the fly or doing something , sometimes i forget , or i forget to bring it with me .  , but for the most part , it is been okay .
+[patient] the patient is pretty regular with the medications during the business week , but on the's weekends ,  , if the patient is on the fly or doing something , sometimes the patient forget , or the patient forget to bring it with the patient .  , but for the most part , it is been okay .
 [doctor] okay . all right .  , and then i know that you have had that prior lobectomy a couple years ago . any issues with shortness of breath with all the allgies or anything ?
 [patient] oth than during the heat and the pollen , it is been pretty good .
 [doctor] okay . all right . so i know that the nurse went ov the review of systems sheet with you , and you endorsed some nasal congestion from the pollen , but how about any shortness of breath , cough , muscle aches ?
-[patient] sometimes i regularly ,  , go for a run in the morning . that's my workout , and sometimes if it is ,  , relatively hid , i'll struggle a little bit , and i might feel a little bit of pounding in my chest . it usually goes away , but ,  , again , for the most part , it is been pretty good .
+[patient] sometimes the patient regularly ,  , go for a run in the morning . that's his / her workout , and sometimes if it is ,  , relatively hid , the patient'll struggle a little bit , and the patient might feel a little bit of pounding in his / her chest . it usually goes away , but ,  , again , for the most part , it is been pretty good .
 [doctor] okay , so you also have some shortness of breath with extion .
 [patient] correct .
 [doctor] all right , and how far are you running ?
-[patient]  ,  4 to 5 miles a day .
+[patient] ,  4 to 5 miles a day .
 [doctor] okay , great . all right .  , let's go ead . i'd  to do a quick physical exam . let's look at your blood pressure .
 [patient] mm- .
 [doctor] hey , dragon , show me the vital signs . so he in the office today , your blood pressure looks quite  , at 120 ov 80 . let's look at your prior trends . hey , dragon , show me the blood pressure readings . so , ye , it looks , it looks good . i think you are doing a good job . it looks low than it has in the past , so continue on the current medication .
@@ -1558,7 +1558,7 @@
 [doctor] so i am not too concned about that chest pounding . hey , dragon , show me the chest x-ray . and we also did a chest x-ray , which looks really good ,  , and  , your prior lobectomy , the's no ... evything looks good , okay ? it looks normal . so let's talk a little bit about my assessment and my plan for you . so for your first problem , your depression , it seems , again ,  you are doing really -
 [patient] mm- .
 [doctor] . with your current strategy . let's continue you on the prozac 20 milligrams a day and do you need a refill on that ?
-[patient]  , actually , i do need a refill .
+[patient] , actually , the patient do need a refill .
 [doctor] okay . hey , dragon , ord a refill of prozac , 20 milligrams daily . from a ... for your next problem , the lobectomy , i think ,  , i do not think we need to do any more workup of that . it seems  you are excising a lot . your breathing function is fine . so ,  , i do not think you need to follow up with the surgeon anymore . and then for your last problem , your hyptension .
 [patient] mm- .
 [doctor] you are doing a great job of keeping it controlled . i know you said you have not been taking it that much on the weekends , but your blood pressure he looks good , and it is much bett ov the last seval years . so let's go ead . i do want to ord just ,  , an echocardiogram for that murmur . hey , dragon , ord an echocardiogram . and i'll just follow up with the results , and we will go ead and ord ,  , your routine blood work , and i'll be in touch with you through the patient portal , okay ?
@@ -1574,17 +1574,17 @@
 [doctor] i'd to tell dax a little bit about you, okay.
 [patient] sure.
 [doctor] so ralph is a 62-year-old male with a past medical history significant for depression and prior lobectomy as hyptension, who presents for his annual exam. so, ralph, it is been a while since i saw you. how are you doing?
-[patient] relatively speaking. okay. it was kind of a tough spring with all the pollen and evything and we dropped my oldest daught off at college and moved h into h dorm. so little stressful, little chaotic in the heat of the sm, but so far so good.
+[patient] relatively speaking. okay, it was kind of a tough spring with all the pollen and evything and we dropped his / her oldest daught off at college and moved h into h dorm. so little stressful, little chaotic in the heat of the sm, but so far so good.
 [doctor] okay, i know, i know that's a, that's a hard thing to get ov moving kids out of the house and that type of thing.
 [patient] ye.
 [doctor] so how are you doing from? let's talk a little bit about your depression. how are you doing with that? i know that we had put you on the prozac last year.
-[patient] ye, i have been staying on top of the meds and i have not had any incidents in a while, so it is. it is been pretty good and evything's managed and maintained, still kind of working with my hyptension. that's been a little bit more of a struggle than anything.
+[patient] ye, the patient has been staying on top of the meds and the patient has not had any incidents in a while. so it is. it is been pretty good and evything's managed and maintained still kind of working with his / her hyptension. that's been a little bit more of a struggle than anything.
 [doctor] okay, ye, i see that we have you on the norvasc, and so are you taking it at home. is it running high or
-[patient] i am pretty regular with the medications during the business week, but on the's weekends, if i am on the fly or doing something, sometimes i forget or i forget to bring it with me, but for the most part it is been okay.
+[patient] the patient is pretty regular with the medications during the business week but on the's weekends if the patient is on the fly or doing something, sometimes the patient forget, or the patient forget to bring it with the patient. but for the most part it is been okay.
 [doctor] okay, all right. and then i know that you have had that prior lobectomy a couple years ago. any issues with shortness of breath, with all the allgies or anything?
 [patient] oth than during the heat and the pollen. it is been pretty good.
 [doctor] okay, all right. so i know that the nurse went ov the review of systems sheet with you and you endorsed some nasal congestion from the pollen, but how about any shortness of breath, cough, muscle aches?
-[patient] sometimes i regularly go for a run in the morning. that's my workout and sometimes, if it is relatively hid, i'll struggle a little bit and i might feel a little bit of pounding in my chest. it usually goes away but again, for the most part it is been pretty good.
+[patient] sometimes the patient regularly go for a run in the morning. that's his / her workout and sometimes, if it is relatively hid, the patient'll struggle a little bit and the patient might feel a little bit of pounding in his / her chest. it usually goes away but again, for the most part it is been pretty good.
 [doctor] okay, so you also have some shortness of breath with extion.
 [patient] correct.
 [doctor] all right, and how far are you running?
@@ -1602,7 +1602,7 @@
 [doctor] so i am not too concned about that chest pounding. hey, dragon, show me the chest x-ray. and we also did a chest x-ray which looks really good. and your prior lobectomy, the's no evything- looks good. okay, it looks normal. so let's talk a little bit about my assessment and my plan for you. so for your first problem, your depression, it seems again you are doing really -.
 [patient] mm-.
 [doctor] with your current strategy. let's continue you on the prozac- 20 milligrams a day, and do you need a refill on that?
-[patient] actually i do need a refill.
+[patient] actually, the patient do need a refill.
 [doctor] okay, hey, dragon ord, a refill of prozac, 20 milligrams daily from a. for your next problem, the lobectomy. i think i do not think we need to do any more workup of that. it seems you are excising a lot. your breathing function is fine, so i do not think you need to follow up with the surgeon anymore. and then for your last problem, your hyptension.
 [patient] mm-.
 [doctor] you are doing a great job of keeping it controlled. i know you said you have not been taking it that much on the weekends, but your blood pressure he looks good and it is much bett ov the last seval years. so let's go ead. i do want to ord just an echocardiogram for that murmur. hey, dragon, ord an echocardiogram and i'll just follow up with the results and we will go ead and ord your routine blood work and i'll be in touch with you through the patient portal, okay.
@@ -1618,17 +1618,17 @@
 [doctor] i'd to tell dax a little bit about you, okay.
 [patient] sure.
 [doctor] so ralph is a 62-year-old male with a past medical history significant for depression and prior lobectomy as hyptension, who presents for his annual exam. so, ralph, it is been a while since i saw you. how are you doing?
-[patient] relatively speaking. okay. it was kind of a tough spring with all the pollen and evything and we dropped my oldest daught off at college and moved h into h dorm. so little stressful, little chaotic in the heat of the sm, but so far so good.
+[patient] relatively speaking. okay, it was kind of a tough spring with all the pollen and evything and we dropped his / her oldest daught off at college and moved h into h dorm. so little stressful, little chaotic in the heat of the sm, but so far so good.
 [doctor] okay, i know, i know that's a, that's a hard thing to get ov moving kids out of the house and that type of thing.
 [patient] ye.
 [doctor] so how are you doing from? let's talk a little bit about your depression. how are you doing with that? i know that we had put you on the prozac last year.
-[patient] ye, i have been staying on top of the meds and i have not had any incidents in a while, so it is. it is been pretty good and evything's managed and maintained, still kind of working with my hyptension. that's been a little bit more of a struggle than anything.
+[patient] ye, the patient has been staying on top of the meds and the patient has not had any incidents in a while. so it is. it is been pretty good and evything's managed and maintained still kind of working with his / her hyptension. that's been a little bit more of a struggle than anything.
 [doctor] okay, ye, i see that we have you on the norvasc, and so are you taking it at home. is it running high or
-[patient] i am pretty regular with the medications during the business week, but on the's weekends, if i am on the fly or doing something, sometimes i forget or i forget to bring it with me, but for the most part it is been okay.
+[patient] the patient is pretty regular with the medications during the business week but on the's weekends if the patient is on the fly or doing something, sometimes the patient forget, or the patient forget to bring it with the patient. but for the most part it is been okay.
 [doctor] okay, all right. and then i know that you have had that prior lobectomy a couple years ago. any issues with shortness of breath, with all the allgies or anything?
 [patient] oth than during the heat and the pollen. it is been pretty good.
 [doctor] okay, all right. so i know that the nurse went ov the review of systems sheet with you and you endorsed some nasal congestion from the pollen, but how about any shortness of breath, cough, muscle aches?
-[patient] sometimes i regularly go for a run in the morning. that's my workout and sometimes, if it is relatively hid, i'll struggle a little bit and i might feel a little bit of pounding in my chest. it usually goes away but again, for the most part it is been pretty good.
+[patient] sometimes the patient regularly go for a run in the morning. that's his / her workout and sometimes, if it is relatively hid, the patient'll struggle a little bit and the patient might feel a little bit of pounding in his / her chest. it usually goes away but again, for the most part it is been pretty good.
 [doctor] okay, so you also have some shortness of breath with extion.
 [patient] correct.
 [doctor] all right, and how far are you running?
@@ -1646,7 +1646,7 @@
 [doctor] so i am not too concned about that chest pounding. hey, dragon, show me the chest x-ray. and we also did a chest x-ray which looks really good. and your prior lobectomy, the's no evything- looks good. okay, it looks normal. so let's talk a little bit about my assessment and my plan for you. so for your first problem, your depression, it seems again you are doing really -.
 [patient] mm-.
 [doctor] with your current strategy. let's continue you on the prozac- 20 milligrams a day, and do you need a refill on that?
-[patient] actually i do need a refill.
+[patient] actually, the patient do need a refill.
 [doctor] okay, hey, dragon ord, a refill of prozac, 20 milligrams daily from a. for your next problem, the lobectomy. i think i do not think we need to do any more workup of that. it seems you are excising a lot. your breathing function is fine, so i do not think you need to follow up with the surgeon anymore. and then for your last problem, your hyptension.
 [patient] mm-.
 [doctor] you are doing a great job of keeping it controlled. i know you said you have not been taking it that much on the weekends, but your blood pressure he looks good and it is much bett ov the last seval years. so let's go ead. i do want to ord just an echocardiogram for that murmur. hey, dragon, ord an echocardiogram and i'll just follow up with the results and we will go ead and ord your routine blood work and i'll be in touch with you through the patient portal, okay.
@@ -1747,9 +1747,9 @@
 [doctor] is your , is your right fing hurting ?
 [patient] yes .
 [doctor] okay . hey , dragon ,  , sharon brooks is a 48 year old female he for right fing pain . all right . so , tell me what happened .
-[patient]  , i was skiing ov the weekend-
+[patient] , the patient was skiing ov the weekend-
 [doctor] okay .
-[patient] . and as i was ,  , coming down the hill , i tried moguls , which jping ov those big hills , i tend to get my strap caught on my fing-
+[patient] . and as the patient was ,  , coming down the hill , the patient tried moguls , which jping ov those big hills , the patient tend to get his / her strap caught on his / her fing-
 [doctor]
 [patient] . and it kind of bent it back a bit .
 [doctor] okay .
@@ -1757,23 +1757,23 @@
 [doctor] and when did this happen ?
 [patient] it happened ,  ... that was sunday .
 [doctor] okay . and have you tried anything for this or anything made it bett or worse ?
-[patient] i tried ,  , putting ice on it .
+[patient] the patient tried ,  , putting ice on it .
 [doctor] okay .
-[patient]  , and then i have been taking ibuprofen , but it is still vy painful .
+[patient] , and then the patient has been taking ibuprofen , but it is still vy painful .
 [doctor] okay . and ,  , is it worse when you bend it ? or anything make it ... so , just wh-
 [patient] ye , movement .
 [doctor] okay .
 [patient] yes .
 [doctor] okay . so , it sounds  you we skiing about four about days ago and you went ov a mogul and got it hyp extended or got it bent backwards a little bit , ? okay . do you have any oth past medical history at all ?
-[patient]  , i have been suffing from constipation recently .
+[patient] , the patient has been suffing from constipation recently .
 [doctor] okay . all right . and do you take ... what medicines do you take for constipation ?
-[patient]  , i have just been taking ,  , mel-  ...
+[patient] , the patient has just been taking ,  , mel-  ...
 [doctor] miralax ?
 [patient] miralax . that's it .
 [doctor] okay . miralax is sufficient .
 [patient] miralax . yes .
 [doctor] and any surgies in the past ?
-[patient] i did have my appendix taken out when i was 18 .
+[patient] the patient did have his / her appendix taken out when the patient was 18 .
 [doctor] okay . let's do your exam .  , so , it is this fing right he . and does it hurt he on your , on this joint up he ?
 [patient] no .
 [doctor] okay . and how'bout right the ? no ?
@@ -1789,7 +1789,7 @@
 evything looks normal right now .  , i do not see any fractures . evything lines up pretty  .  , so , your x-ray looks normal with no fractures . so , based on the x-ray and your exam , you have some tendness right he . i think you have got a little contusion right he . the's no fracture on the tip of your fing .  , so , the diagnosis would be a right hand ,  , index fing contusion on the tip of your fing , okay ? so , i would recommend we get you a s-  , alin foam splint and we will get you some motrin .  , we will give you 600 milligrams evy six hours and we will take that for about a week . and if it does not get bett , why do not you call us and come back at that point ?
 [patient] okay .
 [doctor] okay . do you have any questions ?
-[patient] no . i think that sounds good .
+[patient] no . the patient think that sounds good .
 [doctor] okay . hey , dragon , ord the medication and procedures we discussed . all right . and why do not you come with me and we will get you signed out .
 [patient] okay . thank you .
 [doctor] all right . finalize report , dragon .</v>
@@ -1800,32 +1800,32 @@
 [doctor] is your, is your right fing hurting?
 [patient] yes.
 [doctor] okay, hey, dragon sharon brooks is a 48 year old female. he for right fing pain, all right. so tell me what happened.
-[patient] i was skiing ov the weekend-.
+[patient] the patient was skiing ov the weekend-.
 [doctor] okay.
-[patient] and as i was coming down the hill, i tried moguls which jping ov those big hills. i tend to get my strap caught on my fing-.
+[patient] and as the patient was coming down the hill, the patient tried moguls which jping ov those big hills. the patient tend to get his / her strap caught on his / her fing-.
 [patient] and it kind of bent it back a bit.
 [doctor] okay.
 [patient] ye.
 [doctor] and when did this happen?
 [patient] it happened. that was sunday.
 [doctor] okay, and have you tried anything for this or anything made it bett or worse?
-[patient] i tried putting ice on it.
+[patient] the patient tried putting ice on it.
 [doctor] okay.
-[patient] and then i have been taking ibuprofen, but it is still vy painful.
+[patient] and then the patient has been taking ibuprofen, but it is still vy painful.
 [doctor] okay. and is it worse when you bend it or anything? make it so just wh-.
 [patient] ye movement.
 [doctor] okay.
 [patient] yes.
 [doctor] okay, so it sounds you we skiing about four about days ago and you went ov a mogul and got it hyp extended or got it bent backwards a little bit. okay, do you have any oth past medical history at all?
-[patient] i have been suffing from constipation recently.
+[patient] the patient has been suffing from constipation recently.
 [doctor] okay, all right, and do you take? what medicines do you take for constipation?
-[patient] i have just been taking mel-.
+[patient] the patient has just been taking mel-.
 [doctor] miralax.
 [patient] miralax, that's it.
 [doctor] okay, miralax is sufficient.
 [patient] miralax, yes.
 [doctor] and any surgies in the past.
-[patient] i did have my appendix taken out when i was 18.
+[patient] the patient did have his / her appendix taken out when the patient was 18.
 [doctor] okay, let's do your exam. so it is this fing, right he? and does it hurt he on your, on this joint up he.
 [patient] no.
 [doctor] okay, and how'bout right the no?
@@ -1840,7 +1840,7 @@
 [doctor] all right, so on this x-ray.
 [patient] okay.
 [doctor] okay, do you have any questions?
-[patient] no, i think that sounds good.
+[patient] no, the patient think that sounds good.
 [doctor] okay, hey, dragon ord, the medication and procedures we discussed. all right, and why do not you come with me and we will get you signed out?
 [patient] okay, thank you.
 [doctor] all right, finalize report dragon.</v>
@@ -1851,32 +1851,32 @@
 [doctor] is your, is your right fing hurting?
 [patient] yes.
 [doctor] okay, hey, dragon sharon brooks is a 48 year old female. he for right fing pain, all right. so tell me what happened.
-[patient] i was skiing ov the weekend-.
+[patient] the patient was skiing ov the weekend-.
 [doctor] okay.
-[patient] and as i was coming down the hill, i tried moguls which jping ov those big hills. i tend to get my strap caught on my fing-.
+[patient] and as the patient was coming down the hill, the patient tried moguls which jping ov those big hills. the patient tend to get his / her strap caught on his / her fing-.
 [patient] and it kind of bent it back a bit.
 [doctor] okay.
 [patient] ye.
 [doctor] and when did this happen?
 [patient] it happened. that was sunday.
 [doctor] okay, and have you tried anything for this or anything made it bett or worse?
-[patient] i tried putting ice on it.
+[patient] the patient tried putting ice on it.
 [doctor] okay.
-[patient] and then i have been taking ibuprofen, but it is still vy painful.
+[patient] and then the patient has been taking ibuprofen, but it is still vy painful.
 [doctor] okay. and is it worse when you bend it or anything? make it so just wh-.
 [patient] ye movement.
 [doctor] okay.
 [patient] yes.
 [doctor] okay, so it sounds you we skiing about four about days ago and you went ov a mogul and got it hyp extended or got it bent backwards a little bit. okay, do you have any oth past medical history at all?
-[patient] i have been suffing from constipation recently.
+[patient] the patient has been suffing from constipation recently.
 [doctor] okay, all right, and do you take? what medicines do you take for constipation?
-[patient] i have just been taking mel-.
+[patient] the patient has just been taking mel-.
 [doctor] miralax.
 [patient] miralax, that's it.
 [doctor] okay, miralax is sufficient.
 [patient] miralax, yes.
 [doctor] and any surgies in the past.
-[patient] i did have my appendix taken out when i was 18.
+[patient] the patient did have his / her appendix taken out when the patient was 18.
 [doctor] okay, let's do your exam. so it is this fing, right he? and does it hurt he on your, on this joint up he.
 [patient] no.
 [doctor] okay, and how'bout right the no?
@@ -1891,7 +1891,7 @@
 [doctor] all right, so on this x-ray.
 [patient] okay.
 [doctor] okay, do you have any questions?
-[patient] no, i think that sounds good.
+[patient] no, the patient think that sounds good.
 [doctor] okay, hey, dragon ord, the medication and procedures we discussed. all right, and why do not you come with me and we will get you signed out?
 [patient] okay, thank you.
 [doctor] all right, finalize report dragon.</v>
@@ -2001,35 +2001,35 @@
       <c r="E7" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] today i am seeing christina coop . h date of birth is 07/01/1954 .  , ms. coop is a new patient who was refred by diane nelson for a long-standing iron deficiency anemia .
 [doctor] hello , how are you ?
-[patient] i am good , thank you .
+[patient] the patient is good , thank you .
 [doctor] so tell me what brings you in today .
-[patient] recently i tried to donate blood , around decemb i think , and they told me i was anemic , which is something i have been dealing with for a while , so it is not the first time i have been told i am anemic .
+[patient] recently the patient tried to donate blood , around decemb the patient think , and they told the patient the patient was anemic , which is something the patient has been dealing with for a while , so it is not the first time the patient has been told the patient is anemic .
 [doctor] or how have you been feeling in genal with this ?
-[patient] not great . i have been feeling fatigued often during the day , and even fevish with chills at times . when i try to be active i can not catch my breath and i feel  i am wheezing . i have had some headaches too , which is not  me .
+[patient] not great . the patient has been feeling fatigued often during the day , and even fevish with chills at times . when the patient try to be active the patient can not catch his / her breath and the patient feel  the patient is wheezing . the patient has had some headaches too , which is not  the patient .
 [doctor] okay . are the any oth symptoms ?
-[patient] i have been noting some chilling sensations . i also get cold so easily . it is annoying . i feel  i have to really bundle up . i do not know if this is related but my anxiety and depression feel  it has been getting worse lately . i feel  a mess .
+[patient] the patient has been noting some chilling sensations . the patient also get cold so easily . it is annoying . the patient feel  the patient has to really bundle up . the patient do not know if this is related but his / her anxiety and depression feel  it has been getting worse lately . the patient feel  a mess .
 [doctor] sounds  you are not feeling great , obviously . and i am glad you came to see us .  , we are ctainly going to try to figure this out and figure out what's going on ,  , but it sounds  you have been dealing with this anemia for a long time ?
-[patient] ye , i have been anemic since i was 13 years old .
+[patient] ye , the patient has been anemic since the patient was 13 years old .
 [doctor] right . so why do your doctors think you are anemic ? do you have a history of heavy piods ?
-[patient]  i did have heavy piods until i had a hystectomy in 1996 . but no , they have not told me why they think i am anemic , which is frustrating honestly .
+[patient] the patient did have heavy piods until the patient had a hystectomy in 1996 . but no , they have not told the patient why they think the patient is anemic , which is frustrating honestly .
 [doctor] ye . i can imagine that is .  , let's see if we can help though . since you had your hystectomy your piods , of course , are no long the issue .  , when was your last colonoscopy ?
 [patient] about five to six years ago .
 [doctor] and was it relatively a normal exam ? did you have any polyps ?
-[patient] no . they said they'd see me in 10 years .
+[patient] no . they said they'd see the patient in 10 years .
 [doctor]  that's good news .
-[patient] ye , i agree .
+[patient] ye , the patient agree .
 [doctor]  , do you have a pacemak or defibrillator , or have sleep apnea , or use oxygen at night ?
 [patient] no .
 [doctor] all right . do you ev drink alcohol ?
 [patient] ye , but only once or twice a year .
 [doctor] okay . are you taking any supplements such as iron or vitamin b12 ?
-[patient] i already started taking my iron pills which i have not taken in about a year .
+[patient] the patient already started taking his / her iron pills which the patient has not taken in about a year .
 [doctor] all right . and what are you taking ?
-[patient] i am taking 25 milligram tablets , twice daily .
+[patient] the patient is taking 25 milligram tablets , twice daily .
 [doctor] okay , and that's the frous sulfate ?
-[patient] ye , that's it . i take one in the morning and one in the evening .
+[patient] ye , that's it . the patient take one in the morning and one in the evening .
 [doctor] okay . anything else ?
-[patient] ye , i take vitamin b12 , just the ov the count stuff .
+[patient] ye , the patient take vitamin b12 , just the ov the count stuff .
 [doctor] okay , vy good . all right ,  let's go ead and take a look and see what's going on .
 [patient] sounds good . thank you .
 [doctor] of course . you'll hear me ,  , talk through your exam so that i get all the information docented .
@@ -2041,7 +2041,7 @@
 [doctor] is the any tendness whe i am pressing ?
 [patient] no .
 [doctor] okay . you can sit up . so your physical exam is normal without any significant findings . all right ms. coop , often when we initially see anemia and your host of symptoms , we suspect intnal bleeding .
-[patient] is that why they want me to have anoth upp endoscopy ?
+[patient] is that why they want the patient to have anoth upp endoscopy ?
 [doctor] actually it would be an upp endoscopy and a colonoscopy , but yes , ly that's the reason why .
 [patient] lovely .
 [doctor] ye . unfortunately our camas do not meet all the way in the middle , so if those tests back , come , if those tests come back fine , then we will have you swallow a pill cama to take pictures as it moves through your ,  , system .
@@ -2051,7 +2051,7 @@
 [doctor] so let's go ead , get your upp endoscopy and colonoscopy scheduled .
 [patient] okay .
 [doctor]  , have you ev had any issue with sedation in the past ?
-[patient] no , i was just sleepy aftwards .
+[patient] no , the patient was just sleepy aftwards .
 [doctor] okay .  we will give you a bowel prep to clean out your bowels ead of time .  , if we do these tests and they are normal ,  i said , then we will consid that capsule endoscopy .
 [patient] okay . sounds  a plan .
 [doctor] all right . so aft that you'll be all done and we will send you to the hematologist . additionally , i am going to need you to start taking your iron pills with orange juice .  , the vitamin c will help you absorb the iron bett . do this for about 8-12 weeks ,  , and then we can reassess your blood work .
@@ -2065,35 +2065,35 @@
       <c r="F7" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] today i am seeing christina coop h. date of birth is 07/01/1954. ms coop is a new patient who was refred by diane nelson for a long-standing iron deficiency anemia.
 [doctor] hello, how are you?
-[patient] i am good, thank you.
+[patient] the patient is good, thank you.
 [doctor] so tell me what brings you in today.
-[patient] recently i tried to donate blood- around decemb i think- and they told me i was anemic, which is something i have been dealing with for a while, so it is not the first time i have been told i am anemic.
+[patient] recently the patient tried to donate blood around decemb- the patient think- and they told the patient the patient was anemic, which is something the patient has been dealing with for a while. so it is not the first time the patient has been told the patient is anemic.
 [doctor] or how have you been feeling in genal with this?
-[patient] not great. i have been feeling fatigued often during the day and even fevish with chills at times. when i try to be active, i can not catch my breath and i feel i am wheezing. i have had some headaches too, which is not me.
+[patient] not great. the patient has been feeling fatigued often during the day and even fevish with chills at times when the patient try to be active, the patient can not catch his / her breath and the patient feel the patient is wheezing. the patient has had some headaches too, which is not the patient.
 [doctor] okay. are the any oth symptoms?
-[patient] i have been noting some chilling sensations. i also get cold so easily. it is annoying. i feel i have to really bundle up. i do not know if this is related, but my anxiety and depression feel it has been getting worse lately. i feel a mess.
+[patient] the patient has been noting some chilling sensations. the patient also get cold so easily. it is annoying the patient. feel the patient has to really bundle up. the patient do not know if this is related, but his / her anxiety and depression feel it has been getting worse lately. the patient feel a mess.
 [doctor] sounds. you are not feeling great, obviously, and i am glad you came to see us. we are ctainly going to try to figure this out and figure out what's going on, but it sounds you have been dealing with this anemia for a long time.
-[patient] ye, i have been anemic since i was 13 years old.
+[patient] ye. the patient has been anemic since. the patient was 13 years old.
 [doctor] right. so why do your doctors think you are anemic? do you have a history of heavy piods?
-[patient] i did have heavy piods until i had a hystectomy in 1996, but no, they have not told me why. they think i am anemic, which is frustrating, honestly.
+[patient] the patient did have heavy piods until the patient had a hystectomy in 1996. but no, they have not told the patient why. they think the patient is anemic, which is frustrating, honestly.
 [doctor] ye, i can imagine that is. let's see if we can help. though, since you had your hystectomy, your piods, of course, are no long the issue: when was your last colonoscopy?
 [patient] about five to six years ago.
 [doctor] and was it relatively a normal exam? did you have any polyps?
-[patient] no, they said they'd see me in 10 years.
+[patient] no, they said they'd see the patient in 10 years.
 [doctor] that's good news.
-[patient] ye, i agree.
+[patient] ye, the patient agree.
 [doctor] do you have a pacemak or defibrillator or have sleep apnea or use oxygen at night?
 [patient] no.
 [doctor] all right. do you ev drink alcohol?
 [patient] ye, but only once or twice a year.
 [doctor] okay. are you taking any supplements such as iron or vitamin b12?
-[patient] i already started taking my iron pills, which i have not taken in about a year.
+[patient] the patient already started taking his / her iron pills, which the patient has not taken in about a year.
 [doctor] all right, and what are you taking?
-[patient] i am taking 25 milligram tablets twice daily.
+[patient] the patient is taking 25 milligram tablets twice daily.
 [doctor] okay, and that's the frous sulfate.
-[patient] ye, that's it. i take one in the morning and one in the evening.
+[patient] ye, that's it. the patient take one in the morning and one in the evening.
 [doctor] okay, anything else.
-[patient] ye, i take vitamin b12, just the ov, the count stuff.
+[patient] ye, the patient take vitamin b12. just the ov, the count stuff.
 [doctor] okay, vy good. all right, let's go ead and take a look and see what's going on.
 [patient] sounds good, thank you.
 [doctor] of course you'll hear me talk through your exam so that i get all the information. docented.
@@ -2105,7 +2105,7 @@
 [doctor] is the any tendness whe i am pressing?
 [patient] no.
 [doctor] okay, you can sit up. so your physical exam is normal without any significant findings. all right, ms coop. often when we initially see anemia and your host of symptoms, we suspect intnal bleeding.
-[patient] is that why they want me to have anoth upp endoscopy?
+[patient] is that why they want the patient to have anoth upp endoscopy?
 [doctor] actually it would be an upp endoscopy and a colonoscopy. but yes, ly, that's the reason why.
 [patient] lovely.
 [doctor] ye, unfortunately our camas do not meet all the way in the middle. so if those tests back come, if those tests come back, fine- then we will have you swallow a pill cama to take pictures as it moves through your system.
@@ -2115,7 +2115,7 @@
 [doctor] so let's go ead, get your upp endoscopy and colonoscopy scheduled.
 [patient] okay.
 [doctor] have you ev had any issue with sedation in the past?
-[patient] no, i was just sleepy aftwards.
+[patient] no, the patient was just sleepy aftwards.
 [doctor] okay, we will give you a bowel prep to clean out your bowels ead of time. if we do these tests- and they are normal, i said, then we will consid that capsule endoscopy.
 [patient] okay, sounds a plan.
 [doctor] all right. so aft that you'll be all done and we will send you to the hematologist. additionally, i am going to need you to start taking your iron pills with orange juice. the vitamin c will help you absorb the iron bett. do this for about 8-12 weeks and then we can reassess your blood work.
@@ -2129,35 +2129,35 @@
       <c r="G7" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] today i am seeing christina coop h. date of birth is 07/01/1954. ms coop is a new patient who was refred by diane nelson for a long-standing iron deficiency anemia.
 [doctor] hello, how are you?
-[patient] i am good, thank you.
+[patient] the patient is good, thank you.
 [doctor] so tell me what brings you in today.
-[patient] recently i tried to donate blood- around decemb i think- and they told me i was anemic, which is something i have been dealing with for a while, so it is not the first time i have been told i am anemic.
+[patient] recently the patient tried to donate blood around decemb- the patient think- and they told the patient the patient was anemic, which is something the patient has been dealing with for a while. so it is not the first time the patient has been told the patient is anemic.
 [doctor] or how have you been feeling in genal with this?
-[patient] not great. i have been feeling fatigued often during the day and even fevish with chills at times. when i try to be active, i can not catch my breath and i feel i am wheezing. i have had some headaches too, which is not me.
+[patient] not great. the patient has been feeling fatigued often during the day and even fevish with chills at times when the patient try to be active, the patient can not catch his / her breath and the patient feel the patient is wheezing. the patient has had some headaches too, which is not the patient.
 [doctor] okay. are the any oth symptoms?
-[patient] i have been noting some chilling sensations. i also get cold so easily. it is annoying. i feel i have to really bundle up. i do not know if this is related, but my anxiety and depression feel it has been getting worse lately. i feel a mess.
+[patient] the patient has been noting some chilling sensations. the patient also get cold so easily. it is annoying the patient. feel the patient has to really bundle up. the patient do not know if this is related, but his / her anxiety and depression feel it has been getting worse lately. the patient feel a mess.
 [doctor] sounds. you are not feeling great, obviously, and i am glad you came to see us. we are ctainly going to try to figure this out and figure out what's going on, but it sounds you have been dealing with this anemia for a long time.
-[patient] ye, i have been anemic since i was 13 years old.
+[patient] ye. the patient has been anemic since. the patient was 13 years old.
 [doctor] right. so why do your doctors think you are anemic? do you have a history of heavy piods?
-[patient] i did have heavy piods until i had a hystectomy in 1996, but no, they have not told me why. they think i am anemic, which is frustrating, honestly.
+[patient] the patient did have heavy piods until the patient had a hystectomy in 1996. but no, they have not told the patient why. they think the patient is anemic, which is frustrating, honestly.
 [doctor] ye, i can imagine that is. let's see if we can help. though, since you had your hystectomy, your piods, of course, are no long the issue: when was your last colonoscopy?
 [patient] about five to six years ago.
 [doctor] and was it relatively a normal exam? did you have any polyps?
-[patient] no, they said they'd see me in 10 years.
+[patient] no, they said they'd see the patient in 10 years.
 [doctor] that's good news.
-[patient] ye, i agree.
+[patient] ye, the patient agree.
 [doctor] do you have a pacemak or defibrillator or have sleep apnea or use oxygen at night?
 [patient] no.
 [doctor] all right. do you ev drink alcohol?
 [patient] ye, but only once or twice a year.
 [doctor] okay. are you taking any supplements such as iron or vitamin b12?
-[patient] i already started taking my iron pills, which i have not taken in about a year.
+[patient] the patient already started taking his / her iron pills, which the patient has not taken in about a year.
 [doctor] all right, and what are you taking?
-[patient] i am taking 25 milligram tablets twice daily.
+[patient] the patient is taking 25 milligram tablets twice daily.
 [doctor] okay, and that's the frous sulfate.
-[patient] ye, that's it. i take one in the morning and one in the evening.
+[patient] ye, that's it. the patient take one in the morning and one in the evening.
 [doctor] okay, anything else.
-[patient] ye, i take vitamin b12, just the ov, the count stuff.
+[patient] ye, the patient take vitamin b12. just the ov, the count stuff.
 [doctor] okay, vy good. all right, let's go ead and take a look and see what's going on.
 [patient] sounds good, thank you.
 [doctor] of course you'll hear me talk through your exam so that i get all the information. docented.
@@ -2169,7 +2169,7 @@
 [doctor] is the any tendness whe i am pressing?
 [patient] no.
 [doctor] okay, you can sit up. so your physical exam is normal without any significant findings. all right, ms coop. often when we initially see anemia and your host of symptoms, we suspect intnal bleeding.
-[patient] is that why they want me to have anoth upp endoscopy?
+[patient] is that why they want the patient to have anoth upp endoscopy?
 [doctor] actually it would be an upp endoscopy and a colonoscopy. but yes, ly, that's the reason why.
 [patient] lovely.
 [doctor] ye, unfortunately our camas do not meet all the way in the middle. so if those tests back come, if those tests come back, fine- then we will have you swallow a pill cama to take pictures as it moves through your system.
@@ -2179,7 +2179,7 @@
 [doctor] so let's go ead, get your upp endoscopy and colonoscopy scheduled.
 [patient] okay.
 [doctor] have you ev had any issue with sedation in the past?
-[patient] no, i was just sleepy aftwards.
+[patient] no, the patient was just sleepy aftwards.
 [doctor] okay, we will give you a bowel prep to clean out your bowels ead of time. if we do these tests- and they are normal, i said, then we will consid that capsule endoscopy.
 [patient] okay, sounds a plan.
 [doctor] all right. so aft that you'll be all done and we will send you to the hematologist. additionally, i am going to need you to start taking your iron pills with orange juice. the vitamin c will help you absorb the iron bett. do this for about 8-12 weeks and then we can reassess your blood work.
@@ -2289,36 +2289,36 @@
 [doctor] hello , mr . ward . nice to meet you . i am dr. flores .
 [patient] hi , doc . nice to meet you .
 [doctor] i was just reviewing your records from dr. howard and he's refred you because the workup for headaches revealed a mass on your pituitary gland . i did review your mri images and you have a significant mass the . can you tell me about the issues you have been expiencing ?
-[patient] ye sure . so i am really getting fed up with these headaches . i have been trying my best to deal with them but they have been going on for months now and i am really struggling .
+[patient] ye sure . so the patient is really getting fed up with these headaches . the patient has been trying his / her best to deal with them but they have been going on for months now and the patient is really struggling .
 [doctor] whe are the headaches located and how would you describe that pain ?
-[patient] located behind my eyes . it is  a dull nagging ache .
+[patient] located behind his / her eyes . it is  a dull nagging ache .
 [doctor] okay . was the onset gradual or sudden ?
-[patient]  it started about three months ago . and they have been getting worse ov time . at first it was  three out of 10 sevity , and it just gradually worsened . and now it is about six out of 10 sevity . the headaches do tend to be worse in the morning and it feels  a dull ache behind the eyes . they last a few hours at a time , nothing makes them bett or worse .
+[patient] it started about three months ago . and they have been getting worse ov time . at first it was  three out of 10 sevity , and it just gradually worsened . and now it is about six out of 10 sevity . the headaches do tend to be worse in the morning and it feels  a dull ache behind the eyes . they last a few hours at a time , nothing makes them bett or worse .
 [doctor] okay . can you tell me if the pain radiates , or if you have any oth symptoms ? specifically feeling sick , fev , rashes , neck stiffness , nbness , weakness , passing out ?
-[patient] no . i have not been sick or felt sick . can not recall a fev or any kind of rash . no neck issues , no nbness , no tingling . and i have nev passed out in my life . but ,  , for some reason recently i seem to be bping into door frames .
+[patient] no . the patient has not been sick or felt sick . can not recall a fev or any kind of rash . no neck issues , no nbness , no tingling . and the patient has nev passed out in his / her life . but ,  , for some reason recently the patient seem to be bping into door frames .
 [doctor] okay . have you noticed any change in your vision or with your balance ?
-[patient] no i do not think so . my eyes we checked in the fall .
+[patient] no the patient do not think so . his / her eyes we checked in the fall .
 [doctor] okay . let's see , do you have any oth medical problems that you take medicine for ?
-[patient] no i do not have any medical problems and i do not take any medicines . i tried tylenol a few times for the headaches but it did not work , so i stopped .
+[patient] no the patient do not have any medical problems and the patient do not take any medicines . the patient tried tylenol a few times for the headaches but it did not work , so the patient stopped .
 [doctor] i see . anyone in your family have any history of diseases ?
-[patient] i was adopted so i really have no idea .
+[patient] the patient was adopted so the patient really have no idea .
 [doctor] okay .  , what kind of work do you do ? and are you married ?
-[patient] i work as a comput programm and i have been married for 25 years . we just bought a small house .
+[patient] the patient work as a comput programm and the patient has been married for 25 years . we just bought a small house .
 [doctor] that's nice .  , do you drink any alcohol , smoke , or use recreational drugs ?
-[patient] nope . i do not do any of those and nev have .
+[patient] nope . the patient do not do any of those and nev have .
 [doctor] okay .  ,  let me take a good look at you .  , now you'll hear me calling out some details as i pform the examination . these will be noted for me in your record and i'll be happy to answ any questions you have once we are done .
 [patient] sounds good , doc .
 [doctor] all right . the patient is alt , oriented to time , place , and pson . affect is appropriate and speech is fluent . cranial nve examination is grossly intact . no focal , motor , or sensory deficit in the upp or low extremities . visual acuity and eye movements are normal . pupils are equal and reactive . visual field testing reveals bitemporal hemianopia . and color vision is normal .
 [doctor] all right , mr. ward . i am going to review these pictures from the mri with you .  , now this appears to be a benign pituitary adenoma , but the's no way to be sure without sending the removed adenoma to pathology to make the diagnosis , which we will do .  , he you can see it is a  defined mass . and it is pressing right he on what we call the optic chiasm . and today when i was having you look at my fings , you could not see them off to the sides , that's what we call bitemporal hemianopia . and explains why you have been bping into door frames .
-[patient] ye i nev noticed that i could not see out of the side until you did that test , and you closed one eye with both eyes . i really could not tell .
+[patient] ye the patient nev noticed that the patient could not see out of the side until you did that test , and you closed one eye with both eyes . the patient really could not tell .
 [doctor] no because you are having this vision loss from the mass compressing the optic chiasm , the only option we have is to do surgy .
-[patient] okay , i undstand . do you think i'll regain my vision ?
+[patient] okay , the patient undstand . do you think the patient'll regain his / her vision ?
 [doctor]  the's no guarantees , but it is a possibility . i am going to ref you to the eye doctor for a full exam and they'll do what's called visual field test . this will map our your piphal vision or side vision prior to surgy . and we can monitor aft surgy to see if your vision is improving .
 [patient] all right .
 [doctor] and let's discuss the surgy a little more .  , we would do what's called a transsphenoidal approach to do the surgy . this is minimally invasive and we go through the sphenoid sinus . the are some risks i have to inform you of .  , risk of anesthesia including but not limited to the risk of heart attack , stroke , and death . risk of surgy include infection , need for furth surgy , wound issues such as spinal fluid leak or infection ,  , which may require long , prolonged hospitalization or additional procedure .  , seizure , stroke , pmanent nbness , weakness , difficulty speaking , or even death .
-[patient]  i guess we have to do it regardless .
+[patient] the patient guess we have to do it regardless .
 [doctor] okay . so i will have you see our surgy schedul , debor , on the way out to get you set up . we will get this scheduled fairly quickly so i do not want you to be alarmed .  , she'll also get you set up today or tomorrow to have the visual field test and you may not be able to see the eye doctor until aft surgy . but we have the pre-surgy visual field test for comparison aft surgy .
-[patient] okay . i look forward to these headaches going away . i nev thought it could be something  this going on .
+[patient] okay . the patient look forward to these headaches going away . the patient nev thought it could be something  this going on .
 [doctor] ye . come this way , we will get your things lined up . please call if you think of any questions .
 [patient] thanks , doctor] diagnosis will be pituitary adenoma . mr . ward is a vy pleasant 52-year-old male who has benign appearing pituitary adenoma , incidentally discoved during workup for worsening headaches . he is symptomatic with clinical and radiographical evidence of optic chiasmal compression , thefor surgical intvention to excise and decompress the pituitary fossa is indicated . end of note .</v>
       </c>
@@ -2328,36 +2328,36 @@
 [doctor] hello, mr ward, nice to meet you. i am dr flores.
 [patient] hi, doc, nice to meet you.
 [doctor] i was just reviewing your records from dr howard and he's refred you because the workup for headaches revealed a mass on your pituitary gland. i did review your mri images and you have a significant mass, the. can you tell me about the issues you have been expiencing?
-[patient] ye, sure. so i am really getting fed up with these headaches. i have been trying my best to deal with them, but they have been going on for months now and i am really struggling.
+[patient] ye sure. so the patient is really getting fed up with these headaches. the patient has been trying his / her best to deal with them, but they have been going on for months now and the patient is really struggling.
 [doctor] whe are the headaches located and how would you describe that pain?
-[patient] located behind my eyes. it is a dull nagging ache.
+[patient] located behind his / her eyes. it is a dull nagging ache.
 [doctor] okay, was the onset gradual or sudden?
 [patient] it started about three months ago and they have been getting worse. ov time. at first it was three out of 10 sevity and it just gradually worsened and now it is about six out of 10 sevity. the headaches do tend to be worse in the morning and it feels a dull ache behind the eyes. they last a few hours at a time. nothing makes them bett or worse.
 [doctor] okay. can you tell me if the pain radiates or if you have any oth symptoms, specifically feeling sick, fev rashes, neck stiffness, nbness, weakness, passing out?
-[patient] no, i have not been sick or felt sick, can not recall a fev or any kind of rash, no neck issues, no nbness, no tingling, and i have nev passed out in my life. but for some reason recently i seem to be bping into door frames.
+[patient] no, the patient has not been sick or felt sick, can not recall a fev or any kind of rash, no neck issues, no nbness, no tingling, and the patient has nev passed out in his / her life. but for some reason recently the patient seem to be bping into door frames.
 [doctor] okay. have you noticed any change in your vision or with your balance?
-[patient] no, i do not think so my eyes. we checked in the fall.
+[patient] no, the patient do not think so his / her eyes. we checked in the fall.
 [doctor] okay, let's see. do you have any oth medical problems that you take medicine for?
-[patient] no, i do not have any medical problems and i do not take any medicines. i tried tylenol a few times for the headaches, but it did not work, so i stopped.
+[patient] no, the patient do not have any medical problems and the patient do not take any medicines. the patient tried tylenol a few times for the headaches, but it did not work, so the patient stopped.
 [doctor] i see anyone in your family have any history of diseases.
-[patient] i was adopted, so i really have no idea.
+[patient] the patient was adopted. so the patient really have no idea.
 [doctor] okay, what kind of work do you do and are you married?
-[patient] i work as a comput programm and i have been married for 25 years. we just bought a small house.
+[patient] the patient work as a comput programm and the patient has been married for 25 years. we just bought a small house.
 [doctor] that's nice. do you drink any alcohol, smoke or use recreational drugs?
-[patient] nope, i do not do any of those, and nev have.
+[patient] nope, the patient. do not do any of those and nev have.
 [doctor] okay, let me take a good look at you now. you'll hear me calling out some details as i pform the examination. these will be noted for me in your record and i'll be happy to answ any questions you have once we are done.
 [patient] sounds good doc.
 [doctor] all right. the patient is alt, oriented to time place and pson affect is appropriate and speech is fluent. cranial nve examination is grossly intact: no focal, motor or sensory deficit in the upp or low extremities. visual acuity and eye movements are normal. pupils are equal and reactive visual field testing reveals bitemporal hemianopia and color vision is normal.
 [doctor] all right, mr ward, i am going to review these pictures from the mri with you now. this appears to be a benign pituitary adenoma, but the's no way to be sure without sending the removed adenoma to pathology to make the diagnosis, which we will do. he, you can see it is a defined mass and it is pressing right. he on what we call the optic chiasm and today, when i was having you look at my fings, you could not see them off to the sides. that's what we call bitemporal hemianopia and explains why you have been bping into door frames.
-[patient] ye, i nev noticed that i could not see out of the side until you did that test and you closed one eye. with both eyes i really could not tell.
+[patient] ye. the patient nev noticed that the patient could not see out of the side. until you did that test and you closed one eye. with both eyes the patient really could not tell.
 [doctor] no, because you are having this vision loss from the mass compressing the optic chiasm, the only option we have is to do surgy.
-[patient] okay, i undstand. do you think i'll regain my vision?
+[patient] okay, the patient undstand. do you think the patient'll regain his / her vision?
 [doctor] the's no guarantees, but it is a possibility. i am going to ref you to the eye doctor for a full exam and they'll do what's called visual field test. this will map our your piphal vision, or side vision prior to surgy and we can monitor aft surgy to see if your vision is improving.
 [patient] all right.
 [doctor] and let's discuss the surgy a little more. we would do what's called a transsphenoidal approach to do the surgy. this is minimally invasive and we go through the sphenoid sinus. the are some risks i have to inform you of: risk of anesthesia, including, but not limited to, the risk of heart attack, stroke and death. risk of surgy include infection, need for furth surgy, wound issues such as spinal fluid leak or infection which may require long, prolonged hospitalization or additional procedure, seizure, stroke, pmanent, nbness, weakness, difficulty speaking or even death.
-[patient] i guess we have to do it regardless.
+[patient] the patient guess. we have to do it regardless.
 [doctor] okay, so i will have you see our surgy schedul debor on the way out to get you set up. we will get this scheduled fairly quickly so i do not want you to be alarmed. she'll also get you set up today or tomorrow to have the visual field test and you may not be able to see the eye doctor until aft surgy, but we have the pre-surgy visual field test for comparison aft surgy.
-[patient] okay, i look forward to these headaches going away. i nev thought it could be something this going on.
+[patient] okay, the patient look forward to these headaches going away. the patient nev thought it could be something this going on.
 [doctor] ye come. this way we will get your things lined up. please call if you think of any questions.
 [patient] thanks, doctor]. diagnosis will be pituitary adenoma. mr ward is a vy pleasant 52-year-old male who has benign appearing pituitary adenoma, incidentally discoved during workup, for worsening headaches. he is symptomatic with clinical and radiographical evidence of optic chiasmal compression, thefor surgical intvention to excise and decompress the pituitary fossa is indicated. end of note.</v>
       </c>
@@ -2367,36 +2367,36 @@
 [doctor] hello, mr ward, nice to meet you. i am dr flores.
 [patient] hi, doc, nice to meet you.
 [doctor] i was just reviewing your records from dr howard and he's refred you because the workup for headaches revealed a mass on your pituitary gland. i did review your mri images and you have a significant mass, the. can you tell me about the issues you have been expiencing?
-[patient] ye, sure. so i am really getting fed up with these headaches. i have been trying my best to deal with them, but they have been going on for months now and i am really struggling.
+[patient] ye sure. so the patient is really getting fed up with these headaches. the patient has been trying his / her best to deal with them, but they have been going on for months now and the patient is really struggling.
 [doctor] whe are the headaches located and how would you describe that pain?
-[patient] located behind my eyes. it is a dull nagging ache.
+[patient] located behind his / her eyes. it is a dull nagging ache.
 [doctor] okay, was the onset gradual or sudden?
 [patient] it started about three months ago and they have been getting worse. ov time. at first it was three out of 10 sevity and it just gradually worsened and now it is about six out of 10 sevity. the headaches do tend to be worse in the morning and it feels a dull ache behind the eyes. they last a few hours at a time. nothing makes them bett or worse.
 [doctor] okay. can you tell me if the pain radiates or if you have any oth symptoms, specifically feeling sick, fev rashes, neck stiffness, nbness, weakness, passing out?
-[patient] no, i have not been sick or felt sick, can not recall a fev or any kind of rash, no neck issues, no nbness, no tingling, and i have nev passed out in my life. but for some reason recently i seem to be bping into door frames.
+[patient] no, the patient has not been sick or felt sick, can not recall a fev or any kind of rash, no neck issues, no nbness, no tingling, and the patient has nev passed out in his / her life. but for some reason recently the patient seem to be bping into door frames.
 [doctor] okay. have you noticed any change in your vision or with your balance?
-[patient] no, i do not think so my eyes. we checked in the fall.
+[patient] no, the patient do not think so his / her eyes. we checked in the fall.
 [doctor] okay, let's see. do you have any oth medical problems that you take medicine for?
-[patient] no, i do not have any medical problems and i do not take any medicines. i tried tylenol a few times for the headaches, but it did not work, so i stopped.
+[patient] no, the patient do not have any medical problems and the patient do not take any medicines. the patient tried tylenol a few times for the headaches, but it did not work, so the patient stopped.
 [doctor] i see anyone in your family have any history of diseases.
-[patient] i was adopted, so i really have no idea.
+[patient] the patient was adopted. so the patient really have no idea.
 [doctor] okay, what kind of work do you do and are you married?
-[patient] i work as a comput programm and i have been married for 25 years. we just bought a small house.
+[patient] the patient work as a comput programm and the patient has been married for 25 years. we just bought a small house.
 [doctor] that's nice. do you drink any alcohol, smoke or use recreational drugs?
-[patient] nope, i do not do any of those, and nev have.
+[patient] nope, the patient. do not do any of those and nev have.
 [doctor] okay, let me take a good look at you now. you'll hear me calling out some details as i pform the examination. these will be noted for me in your record and i'll be happy to answ any questions you have once we are done.
 [patient] sounds good doc.
 [doctor] all right. the patient is alt, oriented to time place and pson affect is appropriate and speech is fluent. cranial nve examination is grossly intact: no focal, motor or sensory deficit in the upp or low extremities. visual acuity and eye movements are normal. pupils are equal and reactive visual field testing reveals bitemporal hemianopia and color vision is normal.
 [doctor] all right, mr ward, i am going to review these pictures from the mri with you now. this appears to be a benign pituitary adenoma, but the's no way to be sure without sending the removed adenoma to pathology to make the diagnosis, which we will do. he, you can see it is a defined mass and it is pressing right. he on what we call the optic chiasm and today, when i was having you look at my fings, you could not see them off to the sides. that's what we call bitemporal hemianopia and explains why you have been bping into door frames.
-[patient] ye, i nev noticed that i could not see out of the side until you did that test and you closed one eye. with both eyes i really could not tell.
+[patient] ye. the patient nev noticed that the patient could not see out of the side. until you did that test and you closed one eye. with both eyes the patient really could not tell.
 [doctor] no, because you are having this vision loss from the mass compressing the optic chiasm, the only option we have is to do surgy.
-[patient] okay, i undstand. do you think i'll regain my vision?
+[patient] okay, the patient undstand. do you think the patient'll regain his / her vision?
 [doctor] the's no guarantees, but it is a possibility. i am going to ref you to the eye doctor for a full exam and they'll do what's called visual field test. this will map our your piphal vision, or side vision prior to surgy and we can monitor aft surgy to see if your vision is improving.
 [patient] all right.
 [doctor] and let's discuss the surgy a little more. we would do what's called a transsphenoidal approach to do the surgy. this is minimally invasive and we go through the sphenoid sinus. the are some risks i have to inform you of: risk of anesthesia, including, but not limited to, the risk of heart attack, stroke and death. risk of surgy include infection, need for furth surgy, wound issues such as spinal fluid leak or infection which may require long, prolonged hospitalization or additional procedure, seizure, stroke, pmanent, nbness, weakness, difficulty speaking or even death.
-[patient] i guess we have to do it regardless.
+[patient] the patient guess. we have to do it regardless.
 [doctor] okay, so i will have you see our surgy schedul debor on the way out to get you set up. we will get this scheduled fairly quickly so i do not want you to be alarmed. she'll also get you set up today or tomorrow to have the visual field test and you may not be able to see the eye doctor until aft surgy, but we have the pre-surgy visual field test for comparison aft surgy.
-[patient] okay, i look forward to these headaches going away. i nev thought it could be something this going on.
+[patient] okay, the patient look forward to these headaches going away. the patient nev thought it could be something this going on.
 [doctor] ye come. this way we will get your things lined up. please call if you think of any questions.
 [patient] thanks, doctor]. diagnosis will be pituitary adenoma. mr ward is a vy pleasant 52-year-old male who has benign appearing pituitary adenoma, incidentally discoved during workup, for worsening headaches. he is symptomatic with clinical and radiographical evidence of optic chiasmal compression, thefor surgical intvention to excise and decompress the pituitary fossa is indicated. end of note.</v>
       </c>
@@ -2508,41 +2508,41 @@
       </c>
       <c r="E9" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] next is betty hill ,  , date of birth is 2/21/1968 . she has a past medical history of utine fibroids and anemia . she's a new patient with a refral from the  of esophagitis .  , i reviewed our records from the  , including the normal cardiac workup , and we are about to go in and see h now . good morning . you miss hill ?
-[patient] good morning . yes . that's me .
+[patient] good morning . yes . that's the patient .
 [doctor] hey , i am dr. sands . it is nice to meet you .
 [patient] nice to meet you too .
 [doctor] so tell me about what brings you in today ?
-[patient]  , i really needed to see you three months ... three months ago , but this was your first available appointment . when i called to make the appointment , i was having chest pains , but it stopped aft four days , and i have not had any since then .
+[patient] , the patient really needed to see you three months ... three months ago , but this was your first available appointment . when the patient called to make the appointment , the patient was having chest pains , but it stopped aft four days , and the patient has not had any since then .
 [doctor] okay . when did these four days of chest pain occur ?
-[patient]  , early octob .
+[patient] , early octob .
 [doctor] of 2020 , correct ?
 [patient] yes .
 [doctor] okay . can you think of anything that might have caused the chest pain ? did you wake up with it ?
-[patient] no . it just it randomly . i tolated it for four days but then had to go to the emgency room because nothing i did relieved it . they did a bunch of testing and did not find anything .
+[patient] no . it just it randomly . the patient tolated it for four days but then had to go to the emgency room because nothing the patient did relieved it . they did a bunch of testing and did not find anything .
 [doctor] okay . can you point to the area of your chest whe the pain was located ?
-[patient]  , it was he in the cent of my chest , right behind my breastbone . it felt  i was having a heart attack . the pain was really sharp .
+[patient] , it was he in the cent of his / her chest , right behind his / her breastbone . it felt  the patient was having a heart attack . the pain was really sharp .
 [doctor] did they prescribe you any medications in the  ?
-[patient] no . they ran an ekg and did blood tests , but  i said , evything was normal .
+[patient] no . they ran an ekg and did blood tests , but  the patient said , evything was normal .
 [doctor] okay . i see .
-[patient] they thought it was something to do with the gi system , so that's why they refred me he .
+[patient] they thought it was something to do with the gi system , so that's why they refred the patient he .
 [doctor] intesting .  , do you rememb having any heartburn or indigestion at the time ?
-[patient]  , maybe . i do not think i have ev had heartburn , so i am not sure what that feels  .
+[patient] , maybe . the patient do not think the patient has ev had heartburn , so the patient is not sure what that feels  .
 [doctor] was the pain worse with eating or excise ?
 [patient] yes . with eating .
 [doctor] okay . any difficulty swallowing ?
-[patient] mm- . i did .
+[patient] mm- . the patient did .
 [doctor] okay . and that's also resolved since the initial episode three months ago ?
-[patient] yes . thankfully . the chest pain and swallowing problem got bett about three days aft i went to the  . but i just feel  the's something wrong .
+[patient] yes . thankfully . the chest pain and swallowing problem got bett about three days aft the patient went to the  . but the patient just feel  the's something wrong .
 [doctor] okay . so how has your weight been .
-[patient] i have been trying to lose weight .
+[patient] the patient has been trying to lose weight .
 [doctor] that's good . any in- ... issues with abdominal pain ?
-[patient]  , no .
+[patient] , no .
 [doctor] okay . good . and how about your bowel movements ; are they okay ?
 [patient] they are normal .
 [doctor] all right . are you aware of any family history of gi problems ?
-[patient] i do not think so .
+[patient] the patient do not think so .
 [doctor] have had you had any surgies on your abdomen , or gall bladd , or appendix ?
-[patient] yes . they took my gall bladd out seval years ago .
+[patient] yes . they took his / her gall bladd out seval years ago .
 [doctor] okay . if you want to lay down he on the table for me and lets take a look at you .
 [patient] okay .
 [doctor] so when i push on your low belly , do you have any pain , or does it feel tend ?
@@ -2552,15 +2552,15 @@
 [doctor] okay . and even when i press lightly  this ?
 [patient] yes .  , just a little uncomfortable .
 [doctor] okay . does it hurt more when i press ov he on the left or ov he on the right ? or is it about the same ?
-[patient] i'd say it is about the same .
+[patient] the patient would say it is about the same .
 [doctor] okay . so we will say you have some mild tendness to light palpation in the upp abdominal quadrants , but evything on your exam looks normal and looks good .
 [patient] okay . good .
 [doctor] so let's talk about your symptoms real quick . obviously , with the chest discomfort , we worry about heart issues , but i am reassured that those we ruled out with all the testing they did in the  .  , oth potential causes could be anxiety , esophagitis , which is irritation of the esophagus . but typically with these ,  ... but typically , these cause the pain that would last for a long time rath than that isolated incident  you had .  , it is also possible that you had intense heartburn for a few days .
-[patient]  , since you mention anxiety , i was going through a really stressful job transition right around the time this happened .
+[patient] , since you mention anxiety , the patient was going through a really stressful job transition right around the time this happened .
 [doctor] okay . that's good to know . so stress from this could be ,  ... could be ,  ... could be vy  have contributed to your condition .
 [patient] okay .
 [doctor] so we could do an ,  , egd or upp endoscopy to take a look at your esophagus and stomach . this would allow us to look for esophagitis . but your symptoms occurred three months ago and you have not had any additional episodes , so ly if it we esophagitis , it is already healed by the point ... by this point , and we would not be able to see anything . the oth option is just to continue to monitor ,  , for any additional symptoms at which point we could do the egd .  , with you being asymptomatic for so long right now , i am comfortable with that option . but what do you think ?
-[patient] i'd  to hold off on the egd and wait to see if i have more symptoms .
+[patient] the patient would  to hold off on the egd and wait to see if the patient has more symptoms .
 [doctor] that sounds good .  , so you can call the office if you have any additional episodes of pain or any oth symptoms you are concned about . if that happens , we will get you scheduled for an egd to take a look . if not , you can follow up with me ... follow up with me as needed for any oth gi complaints .
 [patient] okay .
 [doctor] all right ? if you do not have any questions for me , i'll walk you out to the check-out desk .
@@ -2569,41 +2569,41 @@
       </c>
       <c r="F9" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] next is betty hill. date of birth is 2/21/1968. she has a past medical history of utine fibroids and anemia. she's a new patient with a refral from the of esophagitis. i reviewed our records from the, including the normal cardiac workup, and we are about to go in and see h now. good morning you, miss hill.
-[patient] good morning. yes, that's me.
+[patient] good morning. yes, that's the patient.
 [doctor] hey, i am dr sands. it is nice to meet you.
 [patient] nice to meet you too.
 [doctor] so tell me about what brings you in today.
-[patient] i really needed to see you three months- three months ago, but this was your first available appointment. when i called to make the appointment, i was having chest pains, but it stopped aft four days and i have not had any since then.
+[patient] the patient really needed to see you three months- three months ago, but this was your first available appointment. when the patient called to make the appointment, the patient was having chest pains but it stopped aft four days and the patient has not had any since then.
 [doctor] okay, when did these four days of chest pain occur?
 [patient] early octob.
 [doctor] of 2020 correct.
 [patient] yes.
 [doctor] okay. can you think of anything that might have caused the chest pain? did you wake up with it?
-[patient] no, it, just it randomly. i tolated it for four days but then had to go to the emgency room because nothing i did relieved it. they did a bunch of testing and did not find anything.
+[patient] no, it, just it randomly. the patient tolated it for four days but then had to go to the emgency room because nothing the patient did relieved it. they did a bunch of testing and did not find anything.
 [doctor] okay, can you point to the area of your chest whe the pain was located?
-[patient] it was he in the cent of my chest, right behind my breastbone. it felt i was having a heart attack. the pain was really sharp.
+[patient] it was he in the cent of his / her chest, right behind his / her breastbone. it felt the patient was having a heart attack. the pain was really sharp.
 [doctor] did they prescribe you any medications in the
-[patient] no, they ran an ekg and did blood tests, but i said evything was normal.
+[patient] no, they ran an ekg and did blood tests, but the patient said evything was normal.
 [doctor] okay, i see.
-[patient] they thought it was something to do with the gi system, so that's why they refred me he.
+[patient] they thought it was something to do with the gi system. so that's why they refred the patient. he.
 [doctor] intesting. do you rememb having any heartburn or indigestion at the time?
-[patient] maybe. i do not think i have ev had heartburn, so i am not sure what that feels.
+[patient] maybe the patient do not think. the patient has ev had heartburn, so the patient is not sure what that feels.
 [doctor] was the pain worse with eating or excise?
 [patient] yes, with eating.
 [doctor] okay, any difficulty swallowing?
-[patient] mm- i did.
+[patient] mm- the patient did.
 [doctor] okay, and that's also resolved since the initial episode three months ago.
-[patient] yes, thankfully the chest pain and swallowing problem got bett. about three days aft. i went to the, but i just feel the's something wrong.
+[patient] yes, thankfully the chest pain and swallowing problem got bett about three days aft. the patient went to the. but the patient just feel the's something wrong.
 [doctor] okay, so how has your weight been?
-[patient] i have been trying to lose weight.
+[patient] the patient has been trying to lose weight.
 [doctor] that's good. any in- issues with abdominal pain.
 [patient] no.
 [doctor] okay, good, and how about your bowel movements? are they okay?
 [patient] they are normal.
 [doctor] all right. are you aware of any family history of gi problems?
-[patient] i do not think so.
+[patient] the patient do not think so.
 [doctor] have had? you had any surgies on your abdomen or gall bladd or appendix?
-[patient] yes, they took my gall bladd out seval years ago.
+[patient] yes, they took his / her gall bladd out seval years ago.
 [doctor] okay, if you want to lay down. he on the table for me and lets take a look at you.
 [patient] okay.
 [doctor] so when i push on your low belly, do you have any pain or does it feel tend?
@@ -2613,15 +2613,15 @@
 [doctor] okay, and even when i press lightly this:
 [patient] yes, just a little uncomfortable.
 [doctor] okay. does it hurt more when i press ov he on the left or ov he on the right, or is it about the same?
-[patient] i'd say it is about the same.
+[patient] the patient would say: it is about the same.
 [doctor] okay, so we will say you have some mild tendness to light palpation in the upp abdominal quadrants, but evything on your exam looks normal and looks good.
 [patient] okay, good.
 [doctor] so let's talk about your symptoms real quick. obviously, with the chest discomfort we worry about heart issues, but i am reassured that those we ruled out with all the testing they did in the oth. potential causes could be anxiety, esophagitis, which is irritation of the esophagus, but typically with these, but typically these cause the pain that would last for a long time rath than that isolated incident you had. it is also possible that you had intense heartburn for a few days.
-[patient] since you mention anxiety, i was going through a really stressful job transition right around the time this happened.
+[patient] since you mention anxiety, the patient was going through a really stressful job transition right around the time this happened.
 [doctor] okay, that's good to know. so stress from this could be, could be, could be. vy have contributed to your condition.
 [patient] okay.
 [doctor] so we could do an egd or upp endoscopy to take a look at your esophagus and stomach. this would allow us to look for esophagitis, but your symptoms occurred three months ago and you have not had any additional episodes. so ly if it we esophagitis, it is already healed by the point by this point and we would not be able to see anything. the oth option is just to continue to monitor for any additional symptoms, at which point we could do the egd. with you being asymptomatic for so long right now, i am comfortable with that option. but what do you think?
-[patient] i'd to hold off on the egd and wait to see if i have more symptoms.
+[patient] the patient would to hold off on the egd and wait to see if the patient has more symptoms.
 [doctor] that sounds good. so you can call the office if you have any additional episodes of pain or any oth symptoms you are concned about. if that happens, we will get you scheduled for an egd to take a look. if not, you can follow up with me. follow up with me as needed for any oth gi complaints.
 [patient] okay.
 [doctor] all right, if you do not have any questions for me, i'll walk you out to the check-out desk.
@@ -2630,41 +2630,41 @@
       </c>
       <c r="G9" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] next is betty hill. date of birth is 2/21/1968. she has a past medical history of utine fibroids and anemia. she's a new patient with a refral from the of esophagitis. i reviewed our records from the, including the normal cardiac workup, and we are about to go in and see h now. good morning you, miss hill.
-[patient] good morning. yes, that's me.
+[patient] good morning. yes, that's the patient.
 [doctor] hey, i am dr sands. it is nice to meet you.
 [patient] nice to meet you too.
 [doctor] so tell me about what brings you in today.
-[patient] i really needed to see you three months- three months ago, but this was your first available appointment. when i called to make the appointment, i was having chest pains, but it stopped aft four days and i have not had any since then.
+[patient] the patient really needed to see you three months- three months ago, but this was your first available appointment. when the patient called to make the appointment, the patient was having chest pains but it stopped aft four days and the patient has not had any since then.
 [doctor] okay, when did these four days of chest pain occur?
 [patient] early octob.
 [doctor] of 2020 correct.
 [patient] yes.
 [doctor] okay. can you think of anything that might have caused the chest pain? did you wake up with it?
-[patient] no, it, just it randomly. i tolated it for four days but then had to go to the emgency room because nothing i did relieved it. they did a bunch of testing and did not find anything.
+[patient] no, it, just it randomly. the patient tolated it for four days but then had to go to the emgency room because nothing the patient did relieved it. they did a bunch of testing and did not find anything.
 [doctor] okay, can you point to the area of your chest whe the pain was located?
-[patient] it was he in the cent of my chest, right behind my breastbone. it felt i was having a heart attack. the pain was really sharp.
+[patient] it was he in the cent of his / her chest, right behind his / her breastbone. it felt the patient was having a heart attack. the pain was really sharp.
 [doctor] did they prescribe you any medications in the
-[patient] no, they ran an ekg and did blood tests, but i said evything was normal.
+[patient] no, they ran an ekg and did blood tests, but the patient said evything was normal.
 [doctor] okay, i see.
-[patient] they thought it was something to do with the gi system, so that's why they refred me he.
+[patient] they thought it was something to do with the gi system. so that's why they refred the patient. he.
 [doctor] intesting. do you rememb having any heartburn or indigestion at the time?
-[patient] maybe. i do not think i have ev had heartburn, so i am not sure what that feels.
+[patient] maybe the patient do not think. the patient has ev had heartburn, so the patient is not sure what that feels.
 [doctor] was the pain worse with eating or excise?
 [patient] yes, with eating.
 [doctor] okay, any difficulty swallowing?
-[patient] mm- i did.
+[patient] mm- the patient did.
 [doctor] okay, and that's also resolved since the initial episode three months ago.
-[patient] yes, thankfully the chest pain and swallowing problem got bett. about three days aft. i went to the, but i just feel the's something wrong.
+[patient] yes, thankfully the chest pain and swallowing problem got bett about three days aft. the patient went to the. but the patient just feel the's something wrong.
 [doctor] okay, so how has your weight been?
-[patient] i have been trying to lose weight.
+[patient] the patient has been trying to lose weight.
 [doctor] that's good. any in- issues with abdominal pain.
 [patient] no.
 [doctor] okay, good, and how about your bowel movements? are they okay?
 [patient] they are normal.
 [doctor] all right. are you aware of any family history of gi problems?
-[patient] i do not think so.
+[patient] the patient do not think so.
 [doctor] have had? you had any surgies on your abdomen or gall bladd or appendix?
-[patient] yes, they took my gall bladd out seval years ago.
+[patient] yes, they took his / her gall bladd out seval years ago.
 [doctor] okay, if you want to lay down. he on the table for me and lets take a look at you.
 [patient] okay.
 [doctor] so when i push on your low belly, do you have any pain or does it feel tend?
@@ -2674,15 +2674,15 @@
 [doctor] okay, and even when i press lightly this:
 [patient] yes, just a little uncomfortable.
 [doctor] okay. does it hurt more when i press ov he on the left or ov he on the right, or is it about the same?
-[patient] i'd say it is about the same.
+[patient] the patient would say: it is about the same.
 [doctor] okay, so we will say you have some mild tendness to light palpation in the upp abdominal quadrants, but evything on your exam looks normal and looks good.
 [patient] okay, good.
 [doctor] so let's talk about your symptoms real quick. obviously, with the chest discomfort we worry about heart issues, but i am reassured that those we ruled out with all the testing they did in the oth. potential causes could be anxiety, esophagitis, which is irritation of the esophagus, but typically with these, but typically these cause the pain that would last for a long time rath than that isolated incident you had. it is also possible that you had intense heartburn for a few days.
-[patient] since you mention anxiety, i was going through a really stressful job transition right around the time this happened.
+[patient] since you mention anxiety, the patient was going through a really stressful job transition right around the time this happened.
 [doctor] okay, that's good to know. so stress from this could be, could be, could be. vy have contributed to your condition.
 [patient] okay.
 [doctor] so we could do an egd or upp endoscopy to take a look at your esophagus and stomach. this would allow us to look for esophagitis, but your symptoms occurred three months ago and you have not had any additional episodes. so ly if it we esophagitis, it is already healed by the point by this point and we would not be able to see anything. the oth option is just to continue to monitor for any additional symptoms, at which point we could do the egd. with you being asymptomatic for so long right now, i am comfortable with that option. but what do you think?
-[patient] i'd to hold off on the egd and wait to see if i have more symptoms.
+[patient] the patient would to hold off on the egd and wait to see if the patient has more symptoms.
 [doctor] that sounds good. so you can call the office if you have any additional episodes of pain or any oth symptoms you are concned about. if that happens, we will get you scheduled for an egd to take a look. if not, you can follow up with me. follow up with me as needed for any oth gi complaints.
 [patient] okay.
 [doctor] all right, if you do not have any questions for me, i'll walk you out to the check-out desk.
@@ -3197,33 +3197,33 @@
       </c>
       <c r="E11" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey diana it is good to see you in he so i see that you injured your wrist could you tell me a bit about what happened
-[patient] ye i was walking up and down the stairs i was doing my laundry and i slipped and i tried to catch myself and i put my arms out to catch myself and then all of a sudden i just my wrist started to hurt real bad and it got real swollen
+[patient] ye the patient was walking up and down the stairs the patient was doing his / her laundry and the patient slipped and the patient tried to catch myself and the patient put his / her arms out to catch myself and then all of a sudden the patient just his / her wrist started to hurt real bad and it got real swollen
 [doctor] wow okay so which wrist are we talking about left or right
-[patient] it is my right one of course
+[patient] it is his / her right one of course
 [doctor] okay and then have you ev injured this arm before
-[patient] no i have not
+[patient] no the patient has not
 [doctor] okay alright so on a scale of one to ten how seve is the pain
 [patient] gosh it is  a nine
 [doctor] wow okay have you done anything to ease it
-[patient] ye i did the ice thing i put ice on it and then i even i have a ace wrap at home i try to do that
+[patient] ye the patient did the ice thing the patient put ice on it and then the patient even the patient has a ace wrap at home the patient try to do that
 [doctor] mm-
-[patient] and then i took some ibuprofen but it helps a little bit but it is just it is it is just not right
+[patient] and then the patient took some ibuprofen but it helps a little bit but it is just it is it is just not right
 [doctor] okay
 [patient] really
 [doctor] ye okay have you sorry i am trying to think how long ago did this injury happen
 [patient] this happened yestday morning
 [doctor] okay
-[patient] maybe just  i just bped it but
+[patient] maybe just  the patient just bped it but
 [doctor] okay
 [patient] it is just not it is really bad
 [doctor] okay no i undstand okay so i am going so you said you we doing laundry
-[patient] yes i had my back hit my basket and for some reason this cold started to kinda fall out a little bit i was trying to catch it i missed a step and i just totally
+[patient] yes the patient had his / her back hit his / her basket and for some reason this cold started to kinda fall out a little bit the patient was trying to catch it the patient missed a step and the patient just totally
 [doctor] okay alright any does the pain extend anywhe
 [patient] no not really
 [doctor] okay
-[patient] it is just really along my wrist
+[patient] it is just really along his / her wrist
 [doctor] okay any nbness any tingling
-[patient] a little one and one can not tell if it is just because of the sing in my wrist but just i can  i can feel it my fings still
+[patient] a little one and one can not tell if it is just because of the sing in his / her wrist but just the patient can  the patient can feel it his / her fings still
 [doctor] mm-
 [patient] but just maybe a little bit of tingling
 [doctor] okay alright and are you so okay i am going to think on this but in the meantime i am going to do my physical exam alright
@@ -3237,37 +3237,37 @@
 [doctor] are you able to move your wrist towards your arm 
 [patient] not without extreme pain
 [doctor] okay so pain on flexion what about extension when you pick your wrist up
-[patient] ye i have a hard time doing that actually
+[patient] ye the patient has a hard time doing that actually
 [doctor] alright what about we are going to go ead and hold your arm  straight  flat and then try and move it sideways does radial deviation hurt
 [patient] ye
 [doctor] alright and then latal as 
 [patient] ye it is really hard to move any direction of this hand for some reason
 [doctor] alright so wrist abduction adduction positive for pain on movement are you able to make a fist
-[patient] m ye a little bit but i can not do it really tight
+[patient] m ye a little bit but the patient can not do it really tight
 [doctor] okay alright okay so i am just going to go ead and feel on your fings really quickly alright metacarpals intact noticed some obvious sing ecchymosis obvious sing and bruising tendness on palpation throughout the is evidence of potential fracture feeling some bony crepitus alright so this pain is it  chronic i wanted to ask you
-[patient] ye i would say it kinda goes away when i take that ibuprofen but for the most part i feel it i feel it the and it is just really bad when i move it all
+[patient] ye the patient would say it kinda goes away when the patient take that ibuprofen but for the most part the patient feel it the patient feel it the and it is just really bad when the patient move it all
 [doctor] okay so when you  is the a position eith hurts less or hurts more  say if your arm is raised and elevated ov your head does it hurt more or is it just best to keep it  down
-[patient] it is good if i keep it a little bit above my  a little i guess a little bit  around my  just a regular level  if you are typing or something and then i just put it on a pillow and i just let it stay straight  i feel bett
+[patient] it is good if the patient keep it a little bit above his / her  a little the patient guess a little bit  around his / her  just a regular level  if you are typing or something and then the patient just put it on a pillow and the patient just let it stay straight   the patient feel bett
 [doctor] okay ye no i do not think i undstand completely okay so i took a look at your vitals and your blood pressure is a little elevated but honestly that's probably to do with the pain right our body can respond to pain in that way we are looking at  a hundred and forty ov seventy it is not anything crazy but something to mention i see that your heart rate is also a little elevated at  about  eighty beats a minute you are not running a fev so that's great look at ninety seven point two your respiratory rate is pretty normal at  twenty so before we came in i know that we had you do an x-ray and i am sure that was a bit more painful because we had to do so many manipulations but i do want to note that you are positive for what we call a colles' fracture what that means is that the joints between your wrist  the bones between your wrist that the is evidence of a fracture and we are going to have to treat it a little consvatively at first and then consid some of the options that are available to us so for your primary diagnosis of a colles' fracture we are going to give you a thb spica for today and that's going to
-[patient] i am sorry
+[patient] the patient is sorry
 [doctor] pardon what
 [patient] a what
 [doctor] we are going to brace you we are going to give you a brace
 [patient] okay thank you
 [doctor] sorry no problem sorry ye not a thb spica we are going to brace your arm and you are going to have that we have a couple of options but i think the best course of action is going to be for surgy we will in the meantime give you pain medication i want to put you on fifty milligrams of ultram evy six hours and then i also want to get you on get you into physical thapy a few weeks aft surgy this is going to be just a normal procedure you will be in for an ovnight stay but aft that once we assess and make sure that evything is good you'll be able to go home okay
-[patient] when do i have to have the surgy
+[patient] when do the patient has to have the surgy
 [doctor] we would  it to happen as quickly as possible  your body is a wondful miracle and it is going to start trying to heal on it is own what we need to do is get your wrist straight and then  put screws in to make sure that we hold it in place or else it could  heal and malform
 [patient] okay
 [doctor] alright so what
-[patient] how long do i have to wear that brace
+[patient] how long do the patient has to wear that brace
 [doctor] you are going to be wearing the brace for about six weeks
 [patient] six weeks
 [doctor] ye so you are going to you are going to come in for your surgy we are going to pform it you are going to stay ovnight and then you'll be bracing it for six weeks in the meantime you'll also then go to physical thapy i want you the  we are going to they are going to do an assessment and detmine how much but i am thinking probably three times a week just to make sure that you can get your wrist as strong as possible to prevent  future injury now the cool thing about getting any kind of a bone break is that your body comes out even strong so this should not happen again but unfortunately  it is these situations that oof that just kind of
 [patient] oof
 [doctor] these deform these deformities that really that really kind of hurt is the short vsion alright no problem any oth questions
-[patient] no  i am going on vacation do i need to cancel it  can i still go even with the i mean aft the surgy
+[patient] no  the patient is going on vacation do the patient need to cancel it  can the patient still go even with the the patient mean aft the surgy
 [doctor] ye
-[patient] do it as soon as possible i am going a vacation in a month so
+[patient] do it as soon as possible the patient is going a vacation in a month so
 [doctor] okay how long is the vacation
 [patient] it is only for  a couple weeks
 [doctor] okay  so you might have to postpone it just because depending on what physical thapy says right if they feel that you can sustain if you can  sustain the excises while you are gone that if the's something that you can do by yourself then you should be fine but we do want to give it you said that it is going to happen in a couple of weeks
@@ -3280,33 +3280,33 @@
       </c>
       <c r="F11" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, diana, it is good to see you in he. so i see that you injured your wrist. could you tell me a bit about what happened?
-[patient] ye, i was walking up and down the stairs, i was doing my laundry and i slipped and i tried to catch myself and i put my arms out to catch myself and then all of a sudden i just my wrist started to hurt real bad and it got real swollen.
+[patient] ye, the patient was walking up and down the stairs, the patient was doing his / her laundry and the patient slipped and the patient tried to catch myself and the patient put his / her arms out to catch myself and then all of a sudden the patient, just his / her wrist- started to hurt real bad and it got real swollen.
 [doctor] wow, okay, so which wrist are we talking about, left or right?
-[patient] it is my right one, of course.
+[patient] it is his / her right one, of course.
 [doctor] okay, and then have you ev injured this arm before.
-[patient] no, i have not.
+[patient] no, the patient has not.
 [doctor] okay, alright. so on a scale of one to ten, how seve is the pain?
 [patient] gosh, it is a nine.
 [doctor] wow, okay. have you done anything to ease it?
-[patient] ye, i did the ice thing. i put ice on it and then i even. i have a ace wrap at home. i try to do that.
+[patient] ye, the patient did the ice thing. the patient put ice on it and then the patient- even the patient- has a ace wrap at home. the patient try to do that.
 [doctor] mm-.
-[patient] and then i took some ibuprofen, but it helps a little bit, but it is just it is. it is just not right.
+[patient] and then the patient took some ibuprofen, but it helps a little bit, but it is just it is. it is just not right.
 [doctor] okay.
 [patient] really.
 [doctor] ye, okay, have you sorry. i am trying to think: how long ago did this injury happen?
 [patient] this happened yestday morning.
 [doctor] okay.
-[patient] maybe just i just bped it, but
+[patient] maybe just the patient just bped it, but
 [doctor] okay.
 [patient] it is just not. it is really bad.
 [doctor] okay. no, i undstand okay, so i am going. so you said you, we doing laundry.
-[patient] yes, i had my back hit my basket and for some reason this cold started to kinda fall out a little bit. i was trying to catch it, i missed a step and i just totally.
+[patient] yes, the patient had his / her back hit his / her basket and for some reason this cold started to kinda fall out a little bit. the patient was trying to catch it, the patient missed a step and the patient just totally.
 [doctor] okay, alright, any does the pain extend anywhe?
 [patient] no, not really.
 [doctor] okay.
-[patient] it is just really along my wrist.
+[patient] it is just really along his / her wrist.
 [doctor] okay, any nbness, any tingling.
-[patient] a little one and one can not tell if it is just because of the sing in my wrist, but just i can. i can feel it, my fings still.
+[patient] a little one and one can not tell if it is just because of the sing in his / her wrist. but just the patient can. the patient can feel it, his / her fings still.
 [doctor] mm-.
 [patient] but just maybe a little bit of tingling.
 [doctor] okay, alright, and are you so? okay, i am going to think on this, but in the meantime, i am going to do my physical exam. alright,
@@ -3320,37 +3320,37 @@
 [doctor] are you able to move your wrist towards your arm?
 [patient] not without extreme pain.
 [doctor] okay. so pain on flexion? what about extension when you pick your wrist up?
-[patient] ye, i have a hard time doing that actually.
+[patient] ye, the patient has a hard time doing that actually.
 [doctor] alright, what about we are going to go ead and hold your arm straight flat and then try and move it sideways? does radial deviation hurt?
 [patient] ye.
 [doctor] alright and then latal, as.
 [patient] ye, it is really hard to move any direction of this hand, for some reason.
 [doctor] alright. so wrist abduction adduction positive for pain on movement. are you able to make a fist?
-[patient] m ye a little bit, but i can not do it really tight.
+[patient] m ye a little bit, but the patient can not do it really tight.
 [doctor] okay, alright, okay, so i am just going to go ead and feel on your fings really quickly, alright, metacarpals intact. noticed some obvious sing ecchymosis, obvious sing and bruising tendness on palpation throughout the is evidence of potential fracture. feeling some bony crepitus. alright, so this pain is it chronic? i wanted to ask you.
-[patient] ye, i would say it kinda goes away when i take that ibuprofen, but for the most part i feel it, i feel it the, and it is just really bad when i move it all.
+[patient] ye, the patient would say it kinda goes away when the patient take that ibuprofen. but for the most part the patient feel it, the patient feel it the, and it is just really bad when the patient move it all.
 [doctor] okay. so when you is the a position, eith hurts less or hurts more, say, if your arm is raised and elevated ov your head, does it hurt more, or is it just best to keep it down?
-[patient] it is good if i keep it a little bit above my a little, i guess, a little bit around my just a regular level, if you are typing or something, and then i just put it on a pillow and i just let it stay straight. i feel bett.
+[patient] it is good if the patient keep it a little bit above his / her a little. the patient guess a little bit around his / her, just a regular level, if you are typing or something, and then the patient just put it on a pillow and the patient just let it stay straight. the patient feel bett.
 [doctor] okay, ye, no, i do not think i undstand completely okay. so i took a look at your vitals and your blood pressure is a little elevated, but honestly, that's probably to do with the pain, right, our body can respond to pain in that way. we are looking at a hundred and forty ov seventy. it is not anything crazy, but something to mention. i see that your heart rate is also a little elevated, at about eighty beats a minute. you are not running a fev, so that's great. look at ninety seven, point two, your respiratory rate is pretty normal at twenty. so before we came in, i know that we had you do an x-ray and i am sure that was a bit more painful because we had to do so many manipulations. but i do want to note that you are positive for what we call a colles' fracture. what that means is that the joints between your wrist, the bones between your wrist, that the is evidence of a fracture and we are going to have to treat it a little consvatively at first and then consid some of the options that are available to us. so for your primary diagnosis of a colles' fracture, we are going to give you a thb spica for today and that's going to
-[patient] i am sorry.
+[patient] the patient is sorry.
 [doctor] pardon, what?
 [patient] a what.
 [doctor] we are going to brace you, we are going to give you a brace.
 [patient] okay, thank you.
 [doctor] sorry, no problem, sorry, ye, not a thb spica. we are going to brace your arm and you are going to have that. we have a couple of options, but i think the best course of action is going to be for surgy. we will, in the meantime, give you pain medication. i want to put you on fifty milligrams of ultram evy six hours and then i also want to get you on, get you into physical thapy a few weeks. aft surgy: this is going to be just a normal procedure. you will be in for an ovnight stay, but aft that once we assess and make sure that evything is good, you'll be able to go home okay.
-[patient] when do i have to have the surgy?
+[patient] when do the patient has to have the surgy?
 [doctor] we would it to happen as quickly as possible. your body is a wondful miracle and it is going to start trying to heal on it is own. what we need to do is get your wrist straight and then put screws in to make sure that we hold it in place, or else it could heal and malform.
 [patient] okay.
 [doctor] alright, so what?
-[patient] how long do i have to wear that brace?
+[patient] how long do the patient has to wear that brace?
 [doctor] you are going to be wearing the brace for about six weeks.
 [patient] six weeks.
 [doctor] ye, so you are going to. you are going to come in for your surgy, we are going to pform it, you are going to stay ovnight and then you'll be bracing it for six weeks. in the meantime, you'll also then go to physical thapy. i want you the. we are going to. they are going to do an assessment and detmine how much, but i am thinking probably three times a week, just to make sure that you can get your wrist as strong as possible to prevent future injury. now, the cool thing about getting any kind of a bone break is that your body comes out even strong. so this should not happen again. but unfortunately it is these situations that oof, that just kind of.
 [patient] oof.
 [doctor] these deform, these deformities that really that really kind of hurt. is the short vsion? alright, no problem, any oth questions?
-[patient] no, i am going on vacation. do i need to cancel it? can i still go, even with the? i mean aft, the surgy.
+[patient] no, the patient is going on vacation. do the patient need to cancel it? can the patient still go, even with the? the patient mean aft, the surgy.
 [doctor] ye.
-[patient] do it as soon as possible. i am going a vacation in a month, so
+[patient] do it as soon as possible. the patient is going a vacation in a month, so
 [doctor] okay, how long is the vacation?
 [patient] it is only for a couple weeks.
 [doctor] okay, so you might have to postpone it just because, depending on what physical thapy says, right, if they feel that you can sustain, if you can sustain the excises while you are gone, that if the's something that you can do by yourself, then you should be fine. but we do want to give it. you said that it is going to happen in a couple of weeks.
@@ -3363,33 +3363,33 @@
       </c>
       <c r="G11" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, diana, it is good to see you in he. so i see that you injured your wrist. could you tell me a bit about what happened?
-[patient] ye, i was walking up and down the stairs, i was doing my laundry and i slipped and i tried to catch myself and i put my arms out to catch myself and then all of a sudden i just my wrist started to hurt real bad and it got real swollen.
+[patient] ye, the patient was walking up and down the stairs, the patient was doing his / her laundry and the patient slipped and the patient tried to catch myself and the patient put his / her arms out to catch myself and then all of a sudden the patient, just his / her wrist- started to hurt real bad and it got real swollen.
 [doctor] wow, okay, so which wrist are we talking about, left or right?
-[patient] it is my right one, of course.
+[patient] it is his / her right one, of course.
 [doctor] okay, and then have you ev injured this arm before.
-[patient] no, i have not.
+[patient] no, the patient has not.
 [doctor] okay, alright. so on a scale of one to ten, how seve is the pain?
 [patient] gosh, it is a nine.
 [doctor] wow, okay. have you done anything to ease it?
-[patient] ye, i did the ice thing. i put ice on it and then i even. i have a ace wrap at home. i try to do that.
+[patient] ye, the patient did the ice thing. the patient put ice on it and then the patient- even the patient- has a ace wrap at home. the patient try to do that.
 [doctor] mm-.
-[patient] and then i took some ibuprofen, but it helps a little bit, but it is just it is. it is just not right.
+[patient] and then the patient took some ibuprofen, but it helps a little bit, but it is just it is. it is just not right.
 [doctor] okay.
 [patient] really.
 [doctor] ye, okay, have you sorry. i am trying to think: how long ago did this injury happen?
 [patient] this happened yestday morning.
 [doctor] okay.
-[patient] maybe just i just bped it, but
+[patient] maybe just the patient just bped it, but
 [doctor] okay.
 [patient] it is just not. it is really bad.
 [doctor] okay. no, i undstand okay, so i am going. so you said you, we doing laundry.
-[patient] yes, i had my back hit my basket and for some reason this cold started to kinda fall out a little bit. i was trying to catch it, i missed a step and i just totally.
+[patient] yes, the patient had his / her back hit his / her basket and for some reason this cold started to kinda fall out a little bit. the patient was trying to catch it, the patient missed a step and the patient just totally.
 [doctor] okay, alright, any does the pain extend anywhe?
 [patient] no, not really.
 [doctor] okay.
-[patient] it is just really along my wrist.
+[patient] it is just really along his / her wrist.
 [doctor] okay, any nbness, any tingling.
-[patient] a little one and one can not tell if it is just because of the sing in my wrist, but just i can. i can feel it, my fings still.
+[patient] a little one and one can not tell if it is just because of the sing in his / her wrist. but just the patient can. the patient can feel it, his / her fings still.
 [doctor] mm-.
 [patient] but just maybe a little bit of tingling.
 [doctor] okay, alright, and are you so? okay, i am going to think on this, but in the meantime, i am going to do my physical exam. alright,
@@ -3403,37 +3403,37 @@
 [doctor] are you able to move your wrist towards your arm?
 [patient] not without extreme pain.
 [doctor] okay. so pain on flexion? what about extension when you pick your wrist up?
-[patient] ye, i have a hard time doing that actually.
+[patient] ye, the patient has a hard time doing that actually.
 [doctor] alright, what about we are going to go ead and hold your arm straight flat and then try and move it sideways? does radial deviation hurt?
 [patient] ye.
 [doctor] alright and then latal, as.
 [patient] ye, it is really hard to move any direction of this hand, for some reason.
 [doctor] alright. so wrist abduction adduction positive for pain on movement. are you able to make a fist?
-[patient] m ye a little bit, but i can not do it really tight.
+[patient] m ye a little bit, but the patient can not do it really tight.
 [doctor] okay, alright, okay, so i am just going to go ead and feel on your fings really quickly, alright, metacarpals intact. noticed some obvious sing ecchymosis, obvious sing and bruising tendness on palpation throughout the is evidence of potential fracture. feeling some bony crepitus. alright, so this pain is it chronic? i wanted to ask you.
-[patient] ye, i would say it kinda goes away when i take that ibuprofen, but for the most part i feel it, i feel it the, and it is just really bad when i move it all.
+[patient] ye, the patient would say it kinda goes away when the patient take that ibuprofen. but for the most part the patient feel it, the patient feel it the, and it is just really bad when the patient move it all.
 [doctor] okay. so when you is the a position, eith hurts less or hurts more, say, if your arm is raised and elevated ov your head, does it hurt more, or is it just best to keep it down?
-[patient] it is good if i keep it a little bit above my a little, i guess, a little bit around my just a regular level, if you are typing or something, and then i just put it on a pillow and i just let it stay straight. i feel bett.
+[patient] it is good if the patient keep it a little bit above his / her a little. the patient guess a little bit around his / her, just a regular level, if you are typing or something, and then the patient just put it on a pillow and the patient just let it stay straight. the patient feel bett.
 [doctor] okay, ye, no, i do not think i undstand completely okay. so i took a look at your vitals and your blood pressure is a little elevated, but honestly, that's probably to do with the pain, right, our body can respond to pain in that way. we are looking at a hundred and forty ov seventy. it is not anything crazy, but something to mention. i see that your heart rate is also a little elevated, at about eighty beats a minute. you are not running a fev, so that's great. look at ninety seven, point two, your respiratory rate is pretty normal at twenty. so before we came in, i know that we had you do an x-ray and i am sure that was a bit more painful because we had to do so many manipulations. but i do want to note that you are positive for what we call a colles' fracture. what that means is that the joints between your wrist, the bones between your wrist, that the is evidence of a fracture and we are going to have to treat it a little consvatively at first and then consid some of the options that are available to us. so for your primary diagnosis of a colles' fracture, we are going to give you a thb spica for today and that's going to
-[patient] i am sorry.
+[patient] the patient is sorry.
 [doctor] pardon, what?
 [patient] a what.
 [doctor] we are going to brace you, we are going to give you a brace.
 [patient] okay, thank you.
 [doctor] sorry, no problem, sorry, ye, not a thb spica. we are going to brace your arm and you are going to have that. we have a couple of options, but i think the best course of action is going to be for surgy. we will, in the meantime, give you pain medication. i want to put you on fifty milligrams of ultram evy six hours and then i also want to get you on, get you into physical thapy a few weeks. aft surgy: this is going to be just a normal procedure. you will be in for an ovnight stay, but aft that once we assess and make sure that evything is good, you'll be able to go home okay.
-[patient] when do i have to have the surgy?
+[patient] when do the patient has to have the surgy?
 [doctor] we would it to happen as quickly as possible. your body is a wondful miracle and it is going to start trying to heal on it is own. what we need to do is get your wrist straight and then put screws in to make sure that we hold it in place, or else it could heal and malform.
 [patient] okay.
 [doctor] alright, so what?
-[patient] how long do i have to wear that brace?
+[patient] how long do the patient has to wear that brace?
 [doctor] you are going to be wearing the brace for about six weeks.
 [patient] six weeks.
 [doctor] ye, so you are going to. you are going to come in for your surgy, we are going to pform it, you are going to stay ovnight and then you'll be bracing it for six weeks. in the meantime, you'll also then go to physical thapy. i want you the. we are going to. they are going to do an assessment and detmine how much, but i am thinking probably three times a week, just to make sure that you can get your wrist as strong as possible to prevent future injury. now, the cool thing about getting any kind of a bone break is that your body comes out even strong. so this should not happen again. but unfortunately it is these situations that oof, that just kind of.
 [patient] oof.
 [doctor] these deform, these deformities that really that really kind of hurt. is the short vsion? alright, no problem, any oth questions?
-[patient] no, i am going on vacation. do i need to cancel it? can i still go, even with the? i mean aft, the surgy.
+[patient] no, the patient is going on vacation. do the patient need to cancel it? can the patient still go, even with the? the patient mean aft, the surgy.
 [doctor] ye.
-[patient] do it as soon as possible. i am going a vacation in a month, so
+[patient] do it as soon as possible. the patient is going a vacation in a month, so
 [doctor] okay, how long is the vacation?
 [patient] it is only for a couple weeks.
 [doctor] okay, so you might have to postpone it just because, depending on what physical thapy says, right, if they feel that you can sustain, if you can sustain the excises while you are gone, that if the's something that you can do by yourself, then you should be fine. but we do want to give it. you said that it is going to happen in a couple of weeks.
@@ -3527,25 +3527,25 @@
       </c>
       <c r="E12" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey philip good to see you today so take a look he at my notes i see you are coming in for some right knee pain and you have a past medical history of hyptension and we will take a look at that so can you tell me what happened to your knee
-[patient] ye i was  i was just doing some work on my propty and i accidentally slipped and fell down and i just still having some knee issues
+[patient] ye the patient was   the patient was just doing some work on his / her propty and the patient accidentally slipped and fell down and the patient just still having some knee issues
 [doctor] okay  that's not good do you
 [patient] no
 [doctor] what part of your knee would you say hurts
-[patient] i would just say  the it basically when i when i am flexing my knee when i am moving it up and down and i put pressure on it
+[patient] the patient would just say  the it basically when the patient when the patient is flexing his / her knee when the patient is moving it up and down and the patient put pressure on it
 [doctor] alright did you hear a pop or anything  that
-[patient] i did feel something pop yes
+[patient] the patient did feel something pop yes
 [doctor] okay and did it was it swollen aftwards or is it looks a little bit swollen right now
 [patient] ye little bit swollen ye
 [doctor] okay so far have you taken anything for the pain
 [patient] just taking some ibuprofen just for some sing
 [doctor] okay that's it what would you say your pain score is a out of ten with ten being the worst pain you ev felt
-[patient] i would say that when i am stationary i do not really feel a lot of pain but if i start doing some mobility i would say probably a four five
+[patient] the patient would say that when the patient is stationary the patient do not really feel a lot of pain but if the patient start doing some mobility the patient would say probably a four five
 [doctor] about a four okay and how long ago did you say this was is this happened this injury
 [patient] it is been a week now
 [doctor] a week okay alright so we will take a look i'll do a physical exam of your knee in a second but i do want to check up you do have a past medical history of hyptension i am seeing he you are on twenty milligrams of lisinopril when you came in today your blood pressure was a little bit high it was one fifty ov seventy so have you been taking your medications regularly
-[patient] yes i have
+[patient] yes the patient has
 [doctor] okay so you might have a little white coat syndrome i know some of my patients definitely do have that so what about your diet i know we talked a little bit before about you reducing your sodi intake to about twenty three hundred milligrams p day i know you we during the pandemic your diet got out of little bit out of control so how have you been doing how have you been doing with that
-[patient] i definitely need some help the i have not have not made some changes
+[patient] the patient definitely need some help the the patient has not have not made some changes
 [doctor] okay ye we definitely need to get you to low that salt intake get your diet a little bit bett because the hope is to get you off that medication and get your blood pressure to a manageable level okay so we ye we definitely can talk about that alright so lem me take a look at your knee i'll do a quick physical exam on you and before i do just want to make sure you are not having any chest pain today
 [patient] no
 [doctor] are you any belly pain
@@ -3561,34 +3561,34 @@
 [doctor] that's uncomfortable and extend it so that's painful
 [patient] ye yes
 [doctor] okay so on your knee exam i see that you do have pain to palpation of the medial aspect of your right knee you have some pain with flexion extension i also identify some edema around the knee and some effusion you have a little bit of fluid in the as  so prior to coming in we did do an x-ray of that right knee and luckily you did not break anything so the is no fractures no bony abnormalities so let's talk a little bit about my assessment and plan for you so you have what we call a mcl strain so a medial collatal ligament strain so when you fell i think you twisted a little bit and so it irritated you strained that ligament the so for that what we can do for you first i am going to prescribe you some ibuprofen eight hundred milligrams and you can take that twice a day and that's going to help you with that sing and that pain that you currently do have i am also going to put you in a knee brace just to try and support those muscles to allow it to heal and then i want you to ice the knee you can do that for twenty minutes at a time for three to four times a day that should also help with the sing of your knee for your hyptension now i am going to keep you on that twenty of lisinopril okay because you are taking it and you are doing pretty good with it i also want to get you a refral to nutrition just to try to help you with that diet  because right now you are your diet is little bit out of control so we just need to rain you in a little bit and hopefully  with their help we can eventually get you off that lisinopril alright so do you have any questions for me
-[patient] do i need to elevate my leg or stay off my leg or
+[patient] do the patient need to elevate his / her leg or stay off his / her leg or
 [doctor] ye i would ye you can elevate your leg stay off your stay off your leg  if you have any kids have them work out in the yard instead of you just to for a couple of weeks it is a good thing if you want to do that
 [patient] tell him this doctor's ord
 [doctor] tell definitely tell him his doctor tell him i said it
-[patient] alright do you have any oth questions no that's it i appreciate you seeing me
+[patient] alright do you have any oth questions no that's it the patient appreciate you seeing the patient
 [doctor] alright so my nurse will be in with the those ords and we will see you next time</v>
       </c>
       <c r="F12" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, philip, good to see you today. so take a look he at my notes. i see you are coming in for some right knee pain and you have a past medical history of hyptension and we will take a look at that. so can you tell me what happened to your knee?
-[patient] ye, i was. i was just doing some work on my propty and i accidentally slipped and fell down and i just still having some knee issues.
+[patient] ye, the patient was. the patient was just doing some work on his / her propty and the patient accidentally slipped and fell down, and the patient just still having some knee issues.
 [doctor] okay, that's not good, do you?
 [patient] no.
 [doctor] what part of your knee would you say hurts?
-[patient] i would just say the it basically when i when i am flexing my knee, when i am moving it up and down and i put pressure on it.
+[patient] the patient would just say the it basically when the patient, when the patient is flexing his / her knee, when the patient is moving it up and down and the patient put pressure on it.
 [doctor] alright. did you hear a pop or anything that?
-[patient] i did feel something pop. yes.
+[patient] the patient did feel something pop. yes,
 [doctor] okay and did it. was it swollen aftwards or is it looks a little bit swollen right now?
 [patient] ye little bit swollen ye.
 [doctor] okay, so far, have you taken anything for the pain?
 [patient] just taking some ibuprofen just for some sing.
 [doctor] okay, that's it. what would you say? your pain score is a out of ten, with ten being the worst pain you ev felt.
-[patient] i would say that when i am stationary i do not really feel a lot of pain, but if i start doing some mobility i would say probably a four, five.
+[patient] the patient would say that when the patient is stationary the patient do not really feel a lot of pain. but if the patient start doing some mobility the patient would say probably a four, five.
 [doctor] about a four. okay, and how long ago did you say this was? is this happened, this injury?
 [patient] it is been a week now.
 [doctor] a week. okay, alright, so we will take a look. i'll do a physical exam of your knee in a second, but i do want to check up. you do have a past medical history of hyptension. i am seeing he. you are on twenty milligrams of lisinopril. when you came in today your blood pressure was a little bit high. it was one fifty ov seventy, so have you been taking your medications regularly?
-[patient] yes, i have.
+[patient] yes, the patient has.
 [doctor] okay. so you might have a little white coat syndrome. i know some of my patients definitely do have that. so what about your diet? i know we talked a little bit before about you reducing your sodi intake to about twenty three hundred milligrams p day. i know you, we, during the pandemic, your diet got out of little bit out of control. so how have you been doing? how have you been doing with that?
-[patient] i definitely need some help. the i have not have not made some changes.
+[patient] the patient definitely need some help. the the patient has not have not made some changes.
 [doctor] okay, ye, we definitely need to get you to low that salt intake, get your diet a little bit bett, because the hope is to get you off that medication and get your blood pressure to a manageable level. okay, so we- ye, we definitely can talk about that. alright, so lem me take a look at your knee. i'll do a quick physical exam on you and, before i do, just want to make sure you are not having any chest pain today.
 [patient] no.
 [doctor] are you any belly pain?
@@ -3604,34 +3604,34 @@
 [doctor] that's uncomfortable and extend it so that's painful.
 [patient] ye yes.
 [doctor] okay. so on your knee exam i see that you do have pain to palpation of the medial aspect of your right knee. you have some pain with flexion extension. i also identify some edema around the knee and some effusion. you have a little bit of fluid in the as. so prior to coming in, we did do an x-ray of that right knee and luckily you did not break anything. so the is no fractures, no bony abnormalities. so let's talk a little bit about my assessment and plan for you. so you have what we call a mcl strain, so a medial collatal ligament strain. so when you fell, i think you twisted a little bit and so it irritated, you strained that ligament, the. so for that, what we can do for you, first i am going to prescribe you some ibuprofen- eight hundred milligrams, and you can take that twice a day and that's going to help you with that sing and that pain that you currently do have. i am also going to put you in a knee brace just to try and support those muscles to allow it to heal, and then i want you to ice the knee. you can do that for twenty minutes at a time for three to four times a day. that should also help with the sing of your knee for your hyptension. now i am going to keep you on that twenty of lisinopril, okay, because you are taking it and you are doing pretty good with it. i also want to get you a refral to nutrition just to try to help you with that diet, because right now you are, your diet is little bit out of control. so we just need to rain you in a little bit and hopefully, with their help, we can eventually get you off that lisinopril alright. so do you have any questions for me?
-[patient] do i need to elevate my leg or stay off my leg, or?
+[patient] do the patient need to elevate his / her leg or stay off his / her leg or?
 [doctor] ye, i would. ye, you can elevate your leg. stay off your. stay off your leg. if you have any kids, have them work out in the yard instead of you, just to for a couple of weeks. it is a good thing if you want to do that.
 [patient] tell him this doctor's ord.
 [doctor] tell, definitely tell him his doctor, tell him, i said it.
-[patient] alright, do you have any oth questions? no, that's it. i appreciate you seeing me.
+[patient] alright. do you have any oth questions? no, that's it. the patient appreciate you seeing the patient.
 [doctor] alright, so my nurse will be in with the those ords and we will see you next time.</v>
       </c>
       <c r="G12" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, philip, good to see you today. so take a look he at my notes. i see you are coming in for some right knee pain and you have a past medical history of hyptension and we will take a look at that. so can you tell me what happened to your knee?
-[patient] ye, i was. i was just doing some work on my propty and i accidentally slipped and fell down and i just still having some knee issues.
+[patient] ye, the patient was. the patient was just doing some work on his / her propty and the patient accidentally slipped and fell down, and the patient just still having some knee issues.
 [doctor] okay, that's not good, do you?
 [patient] no.
 [doctor] what part of your knee would you say hurts?
-[patient] i would just say the it basically when i when i am flexing my knee, when i am moving it up and down and i put pressure on it.
+[patient] the patient would just say the it basically when the patient, when the patient is flexing his / her knee, when the patient is moving it up and down and the patient put pressure on it.
 [doctor] alright. did you hear a pop or anything that?
-[patient] i did feel something pop. yes.
+[patient] the patient did feel something pop. yes,
 [doctor] okay and did it. was it swollen aftwards or is it looks a little bit swollen right now?
 [patient] ye little bit swollen ye.
 [doctor] okay, so far, have you taken anything for the pain?
 [patient] just taking some ibuprofen just for some sing.
 [doctor] okay, that's it. what would you say? your pain score is a out of ten, with ten being the worst pain you ev felt.
-[patient] i would say that when i am stationary i do not really feel a lot of pain, but if i start doing some mobility i would say probably a four, five.
+[patient] the patient would say that when the patient is stationary the patient do not really feel a lot of pain. but if the patient start doing some mobility the patient would say probably a four, five.
 [doctor] about a four. okay, and how long ago did you say this was? is this happened, this injury?
 [patient] it is been a week now.
 [doctor] a week. okay, alright, so we will take a look. i'll do a physical exam of your knee in a second, but i do want to check up. you do have a past medical history of hyptension. i am seeing he. you are on twenty milligrams of lisinopril. when you came in today your blood pressure was a little bit high. it was one fifty ov seventy, so have you been taking your medications regularly?
-[patient] yes, i have.
+[patient] yes, the patient has.
 [doctor] okay. so you might have a little white coat syndrome. i know some of my patients definitely do have that. so what about your diet? i know we talked a little bit before about you reducing your sodi intake to about twenty three hundred milligrams p day. i know you, we, during the pandemic, your diet got out of little bit out of control. so how have you been doing? how have you been doing with that?
-[patient] i definitely need some help. the i have not have not made some changes.
+[patient] the patient definitely need some help. the the patient has not have not made some changes.
 [doctor] okay, ye, we definitely need to get you to low that salt intake, get your diet a little bit bett, because the hope is to get you off that medication and get your blood pressure to a manageable level. okay, so we- ye, we definitely can talk about that. alright, so lem me take a look at your knee. i'll do a quick physical exam on you and, before i do, just want to make sure you are not having any chest pain today.
 [patient] no.
 [doctor] are you any belly pain?
@@ -3647,11 +3647,11 @@
 [doctor] that's uncomfortable and extend it so that's painful.
 [patient] ye yes.
 [doctor] okay. so on your knee exam i see that you do have pain to palpation of the medial aspect of your right knee. you have some pain with flexion extension. i also identify some edema around the knee and some effusion. you have a little bit of fluid in the as. so prior to coming in, we did do an x-ray of that right knee and luckily you did not break anything. so the is no fractures, no bony abnormalities. so let's talk a little bit about my assessment and plan for you. so you have what we call a mcl strain, so a medial collatal ligament strain. so when you fell, i think you twisted a little bit and so it irritated, you strained that ligament, the. so for that, what we can do for you, first i am going to prescribe you some ibuprofen- eight hundred milligrams, and you can take that twice a day and that's going to help you with that sing and that pain that you currently do have. i am also going to put you in a knee brace just to try and support those muscles to allow it to heal, and then i want you to ice the knee. you can do that for twenty minutes at a time for three to four times a day. that should also help with the sing of your knee for your hyptension. now i am going to keep you on that twenty of lisinopril, okay, because you are taking it and you are doing pretty good with it. i also want to get you a refral to nutrition just to try to help you with that diet, because right now you are, your diet is little bit out of control. so we just need to rain you in a little bit and hopefully, with their help, we can eventually get you off that lisinopril alright. so do you have any questions for me?
-[patient] do i need to elevate my leg or stay off my leg, or?
+[patient] do the patient need to elevate his / her leg or stay off his / her leg or?
 [doctor] ye, i would. ye, you can elevate your leg. stay off your. stay off your leg. if you have any kids, have them work out in the yard instead of you, just to for a couple of weeks. it is a good thing if you want to do that.
 [patient] tell him this doctor's ord.
 [doctor] tell, definitely tell him his doctor, tell him, i said it.
-[patient] alright, do you have any oth questions? no, that's it. i appreciate you seeing me.
+[patient] alright. do you have any oth questions? no, that's it. the patient appreciate you seeing the patient.
 [doctor] alright, so my nurse will be in with the those ords and we will see you next time.</v>
       </c>
       <c r="H12" t="str">
@@ -3731,25 +3731,25 @@
       </c>
       <c r="E13" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi wayne how're you today
-[patient] i am doing okay aside from this left should pain that i have been having
+[patient] the patient is doing okay aside from this left should pain that the patient has been having
 [doctor] okay and how long have you had this pain
-[patient] about i want to say a few weeks i think it is been about three weeks now
+[patient] about the patient want to say a few weeks the patient think it is been about three weeks now
 [doctor] okay and do you rememb what you we doing when the pain started
-[patient] honestly i have been trying to recall if i had any specific injury and i can not think of that
+[patient] honestly the patient has been trying to recall if the patient had any specific injury and the patient can not think of that
 [doctor] okay
-[patient] of anything the only thing i can think of is that i am active and we have just been doing a lot of work in our basement so if i do not know if i did something while doing that
+[patient] of anything the only thing the patient can think of is that the patient is active and we have just been doing a lot of work in our basement so if the patient do not know if the patient did something while doing that
 [doctor] okay alright tell me have you ev had pain in that should before
-[patient]  i am really active and so i will get some aches and pains he and the but nothing that tylenol can not take care of
+[patient] the patient is really active and so the patient will get some aches and pains he and the but nothing that tylenol can not take care of
 [doctor] okay good but now are you able to move your arm
-[patient]  i have trouble when i am trying to reach for something or lift any objects and i do not even try to reach it for anything ov my head because then it'll really hurt
+[patient] the patient has trouble when the patient is trying to reach for something or lift any objects and the patient do not even try to reach it for anything ov his / her head because then it'll really hurt
 [doctor] okay alright and now are you having the pain all the time or does it come and go
-[patient] the pain is always the and then it gets worse  if i try to put any pressure on it gets worse so if i am laying at night if i try to even lay on that should it is unbearable
+[patient] the pain is always the and then it gets worse  if the patient try to put any pressure on it gets worse so if the patient is laying at night if the patient try to even lay on that should it is unbearable
 [doctor] okay and then tell me what have you taken for your pain
-[patient] i have been taking two extra strength tylenol evy six to eight hours
+[patient] the patient has been taking two extra strength tylenol evy six to eight hours
 [doctor] alright and did that help
-[patient] it does take the edge off but i still have some pain
+[patient] it does take the edge off but the patient still have some pain
 [doctor] okay  i am sorry to hear that   renovating the basement it can be quite a task and it can take a toll on you
-[patient] ye i mean it is been fun but ye i think it really did take a toll on me
+[patient] ye the patient mean it is been fun but ye the patient think it really did take a toll on the patient
 [doctor] ye what are you doing with your basement are you are you doing  a man cave or
 [patient] ye that's exactly right
 [doctor] that is awesome great  that sounds  fun i hope you get to set it up just the way you would  for your man cave to be so congratulations to you the so tell me have you expienced any kind of nbness in your arms or in your hands
@@ -3763,7 +3763,7 @@
 [doctor] now  many patients are vy successful with the physical thapy those will those help strengthen  they do a lot of strengthening excises with you to help strengthen  your muscles so that it is not your movements not always relying on those joints predominantly so we are going to go ead and start with that and then see how you do okay
 [patient] okay
 [doctor] alright okay  do you have any oth questions for me
-[patient] no i think that's it
+[patient] no the patient think that's it
 [doctor] okay  i am going to have the nurse check you out and she's also going to give you some educational matials on the physical thapy and what to expect and then go ead and schedule a follow-up visit with me as  aft you do your physical thapy okay
 [patient] okay
 [doctor] alright  have a good day
@@ -3773,25 +3773,25 @@
       </c>
       <c r="F13" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi wayne, how're you today?
-[patient] i am doing okay. aside from this, left should pain that i have been having.
+[patient] the patient is doing okay. aside from this, left should pain that the patient has been having.
 [doctor] okay, and how long have you had this pain?
-[patient] about, i want to say, a few weeks. i think it is been about three weeks now.
+[patient] about. the patient want to say a few weeks. the patient think it is been about three weeks now.
 [doctor] okay, and do you rememb what you we doing when the pain started?
-[patient] honestly, i have been trying to recall if i had any specific injury and i can not think of that.
+[patient] honestly, the patient has been trying to recall if the patient had any specific injury and the patient can not think of that.
 [doctor] okay.
-[patient] of anything. the only thing i can think of is that i am active and we have just been doing a lot of work in our basement. so if i do not know if i did something while doing that,
+[patient] of anything. the only thing the patient can think of is that the patient is active and we have just been doing a lot of work in our basement. so if the patient do not know if the patient did something while doing that,
 [doctor] okay, alright, tell me, have you ev had pain in that should before?
-[patient] i am really active, and so i will get some aches and pains. he and the, but nothing that tylenol can not take care of.
+[patient] the patient is really active, and so the patient will get some aches and pains, he and the, but nothing that tylenol can not take care of.
 [doctor] okay, good, but now are you able to move your arm.
-[patient] i have trouble when i am trying to reach for something or lift any objects, and i do not even try to reach it for anything ov my head, because then it'll really hurt.
+[patient] the patient has trouble when the patient is trying to reach for something or lift any objects, and the patient do not even try to reach it for anything ov his / her head, because then it'll really hurt.
 [doctor] okay, alright, and now? are you having the pain all the time, or does it come and go?
-[patient] the pain is always the, and then it gets worse. if i try to put any pressure on, it gets worse. so if i am laying at night, if i try to even lay on that should, it is unbearable.
+[patient] the pain is always the, and then it gets worse. if the patient try to put any pressure on, it gets worse. so if the patient is laying at night, if the patient try to even lay on that should, it is unbearable.
 [doctor] okay, and then tell me, what have you taken for your pain?
-[patient] i have been taking two extra strength tylenol evy six to eight hours.
+[patient] the patient has been taking two extra strength tylenol evy six to eight hours.
 [doctor] alright and did that help.
-[patient] it does take the edge off, but i still have some pain.
+[patient] it does take the edge off, but the patient still have some pain.
 [doctor] okay, i am sorry to hear that renovating the basement it can be quite a task and it can take a toll on you.
-[patient] ye, i mean it is been fun, but ye, i think it really did take a toll on me.
+[patient] ye the patient mean it is been fun, but ye the patient think it really did take a toll on the patient.
 [doctor] ye, what are you doing with your basement? are you, are you doing a man cave, or
 [patient] ye, that's exactly right.
 [doctor] that is awesome, great. that sounds fun. i hope you get to set it up just the way you would for your man cave to be, so congratulations to you, the. so tell me, have you expienced any kind of nbness in your arms or in your hands?
@@ -3805,7 +3805,7 @@
 [doctor] now many patients are vy successful with the physical thapy. those will those help strengthen. they do a lot of strengthening excises with you to help strengthen your muscles so that it is not your movements not always relying on those joints predominantly. so we are going to go ead and start with that and then see how you do okay.
 [patient] okay.
 [doctor] alright, okay, do you have any oth questions for me?
-[patient] no, i think that's it.
+[patient] no, the patient think that's it.
 [doctor] okay, i am going to have the nurse check you out and she's also going to give you some educational matials on the physical thapy and what to expect, and then go ead and schedule a follow-up visit with me as aft. you do your physical thapy, okay.
 [patient] okay.
 [doctor] alright, have a good day.
@@ -3815,25 +3815,25 @@
       </c>
       <c r="G13" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi wayne, how're you today?
-[patient] i am doing okay. aside from this, left should pain that i have been having.
+[patient] the patient is doing okay. aside from this, left should pain that the patient has been having.
 [doctor] okay, and how long have you had this pain?
-[patient] about, i want to say, a few weeks. i think it is been about three weeks now.
+[patient] about. the patient want to say a few weeks. the patient think it is been about three weeks now.
 [doctor] okay, and do you rememb what you we doing when the pain started?
-[patient] honestly, i have been trying to recall if i had any specific injury and i can not think of that.
+[patient] honestly, the patient has been trying to recall if the patient had any specific injury and the patient can not think of that.
 [doctor] okay.
-[patient] of anything. the only thing i can think of is that i am active and we have just been doing a lot of work in our basement. so if i do not know if i did something while doing that,
+[patient] of anything. the only thing the patient can think of is that the patient is active and we have just been doing a lot of work in our basement. so if the patient do not know if the patient did something while doing that,
 [doctor] okay, alright, tell me, have you ev had pain in that should before?
-[patient] i am really active, and so i will get some aches and pains. he and the, but nothing that tylenol can not take care of.
+[patient] the patient is really active, and so the patient will get some aches and pains, he and the, but nothing that tylenol can not take care of.
 [doctor] okay, good, but now are you able to move your arm.
-[patient] i have trouble when i am trying to reach for something or lift any objects, and i do not even try to reach it for anything ov my head, because then it'll really hurt.
+[patient] the patient has trouble when the patient is trying to reach for something or lift any objects, and the patient do not even try to reach it for anything ov his / her head, because then it'll really hurt.
 [doctor] okay, alright, and now? are you having the pain all the time, or does it come and go?
-[patient] the pain is always the, and then it gets worse. if i try to put any pressure on, it gets worse. so if i am laying at night, if i try to even lay on that should, it is unbearable.
+[patient] the pain is always the, and then it gets worse. if the patient try to put any pressure on, it gets worse. so if the patient is laying at night, if the patient try to even lay on that should, it is unbearable.
 [doctor] okay, and then tell me, what have you taken for your pain?
-[patient] i have been taking two extra strength tylenol evy six to eight hours.
+[patient] the patient has been taking two extra strength tylenol evy six to eight hours.
 [doctor] alright and did that help.
-[patient] it does take the edge off, but i still have some pain.
+[patient] it does take the edge off, but the patient still have some pain.
 [doctor] okay, i am sorry to hear that renovating the basement it can be quite a task and it can take a toll on you.
-[patient] ye, i mean it is been fun, but ye, i think it really did take a toll on me.
+[patient] ye the patient mean it is been fun, but ye the patient think it really did take a toll on the patient.
 [doctor] ye, what are you doing with your basement? are you, are you doing a man cave, or
 [patient] ye, that's exactly right.
 [doctor] that is awesome, great. that sounds fun. i hope you get to set it up just the way you would for your man cave to be, so congratulations to you, the. so tell me, have you expienced any kind of nbness in your arms or in your hands?
@@ -3847,7 +3847,7 @@
 [doctor] now many patients are vy successful with the physical thapy. those will those help strengthen. they do a lot of strengthening excises with you to help strengthen your muscles so that it is not your movements not always relying on those joints predominantly. so we are going to go ead and start with that and then see how you do okay.
 [patient] okay.
 [doctor] alright, okay, do you have any oth questions for me?
-[patient] no, i think that's it.
+[patient] no, the patient think that's it.
 [doctor] okay, i am going to have the nurse check you out and she's also going to give you some educational matials on the physical thapy and what to expect, and then go ead and schedule a follow-up visit with me as aft. you do your physical thapy, okay.
 [patient] okay.
 [doctor] alright, have a good day.
@@ -3972,49 +3972,49 @@
 [doctor] i undstand you are you have come in with some right knee pain can you tell me about it what's going on
 [patient] it is not the right knee it is the left knee
 [doctor] okay the left knee
-[patient] and it just happens occasionally less than once a day when i am walking all of a sudden it is kind of  gives out and i think he i am going to fall but i usually catch myself so lot of times i have to hold a grocy cart and that helps a lot so it comes and goes and it passes just about as quickly as it comes i do not know what it is wheth i stepped wrong or i just do not know
+[patient] and it just happens occasionally less than once a day when the patient is walking all of a sudden it is kind of  gives out and the patient think he the patient is going to fall but the patient usually catch myself so lot of times the patient has to hold a grocy cart and that helps a lot so it comes and goes and it passes just about as quickly as it comes the patient do not know what it is wheth the patient stepped wrong or the patient just do not know
 [doctor] okay  so whe does it hurt  in on the inside or the outside or
 [patient] intnally and it just the whole kneecap fades
 [doctor] okay  did you hear or feel a pop at any point
 [patient] no
 [doctor] okay
-[patient]  that
+[patient] that
 [doctor] have you ev had any type of injury to that knee i mean did you fall or bp it against something or
-[patient] no not that i can recall
+[patient] no not that the patient can recall
 [doctor] okay and have is it painful have you taken anything for pain
 [patient] no because it does not last that long
 [doctor] okay
-[patient] it just  i said it just it goes about as fast as i came in
+[patient] it just  the patient said it just it goes about as fast as the patient came in
 [doctor] so is it intfing with your just things you  to do and
 [patient] m no not really
 [doctor] so i know you said that you  to do a lot of travel
-[patient] ye i have got a trip planned he in the next month or so and we are going down to colbus georgia to a lion's club function and probably be doing a lot of walking the and they got some line dances planned and i do not think i will be able to participate in that because of the knee
+[patient] ye the patient has got a trip planned he in the next month or so and we are going down to colbus georgia to a lion's club function and probably be doing a lot of walking the and they got some line dances planned and the patient do not think the patient will be able to participate in that because of the knee
 [doctor] is that whe you would be kicking your leg out or something
-[patient] no it is do not  what line dancing is  dancing in theories of fairly fast moves but it is mostly sideways motion
+[patient] no it is do not   what line dancing is  dancing in theories of fairly fast moves but it is mostly sideways motion
 [doctor] and is and that you think that's when your knee might give out then or just not going to take the chance
 [patient] not going to take the chance
 [doctor] okay ye that sounds  a good idea have you thought about even having a cane just in case or do you think that's does that happen often enough
-[patient] wrap it i would not be able to keep track of it so no pain
+[patient] wrap it the patient would not be able to keep track of it so no pain
 [doctor] okay  so since you are in how about your blood pressure how is it doing and have you been taking your blood pressures at home  we talked about
 [patient] yes they are doing fine still about the same
 [doctor] so
 [patient] correct that whatev
 [doctor] so what has it been running
-[patient] i can not really rememb it is been seval days since i took it but i think it runs around one twenty ov seventy somewhe along in the
+[patient] the patient can not really rememb it is been seval days since the patient took it but the patient think it runs around one twenty ov seventy somewhe along in the
 [doctor] okay alright and so what about your medication we have you on some medication for your blood pressure right
-[patient] yes i take them regularly at eight thirty in the morning and eight thirty at night
+[patient] yes the patient take them regularly at eight thirty in the morning and eight thirty at night
 [doctor] and what is the medication and the dosage that you are taking
-[patient] i am taking a farxiga and amlodipine
+[patient] the patient is taking a farxiga and amlodipine
 [doctor] okay
-[patient] and lisinopril and the hydrochlorothiazide so i can not pronounce that one so but those are all small dosage pills
+[patient] and lisinopril and the hydrochlorothiazide so the patient can not pronounce that one so but those are all small dosage pills
 [doctor] that but ye go ead
-[patient] no that was it i just take them regularly eight thirty in the morning eight thirty at night
+[patient] no that was it the patient just take them regularly eight thirty in the morning eight thirty at night
 [doctor] ye  that's good i know you said you set an alarm on your phone to make sure that you get them taken at the right time so that's really good and how are your blood sugars doing how is your diet doing
-[patient] my blood sugar has been running a little high at about one thirty
+[patient] his / her blood sugar has been running a little high at about one thirty
 [doctor] is that in the morning when you are fasting
 [patient] yes
 [doctor] okay
-[patient] and i have been told that sometimes the morning blood sugars are high for some reason but i do not know i do not really worry about it as long as it does not get up too extremely high so
+[patient] and the patient has been told that sometimes the morning blood sugars are high for some reason but the patient do not know the patient do not really worry about it as long as it does not get up too extremely high so
 [doctor] and are you taking your metformin
 [patient] yes that's along with the blood pressure medicine morning and night
 [doctor] okay alright so are you are you eating  late at night or anything  that
@@ -4028,7 +4028,7 @@
 [doctor] okay so no decreased range of motion negative varus and valgus test okay and so with your x-rays i reviewed the result of your left knee x-ray which showed no evidence of fracture or bony abnormality so lem me tell you a little bit about my plan so your left knee pain i think you just have some arthritis in that i want to prescribe some meloxicam fifteen milligrams a day we might do some physical thapy for that just to strengthen the muscles around that area and prevent any furth problems with that okay and so for your second problem the hyptension so i want to continue the lisinopril at twenty milligrams a day and ord an echocardiogram just to evaluate that heart murmur alright and
 [patient] okay
 [doctor] for the diabetes mellitus i want to ord a hemoglobin a1c to see if we need to make any adjustments to your metformin and i am also going to ord a lipid panel okay do you have any questions
-[patient] no i do not think so when will all this take place
+[patient] no the patient do not think so when will all this take place
 [doctor] we will get you scheduled for the echocardiogram i will have my nurse come in and we will get that set up okay</v>
       </c>
       <c r="F14" t="str" xml:space="preserve">
@@ -4037,7 +4037,7 @@
 [doctor] i undstand you are. you have come in with some right knee pain. can you tell me about it? what's going on?
 [patient] it is not the right knee, it is the left knee.
 [doctor] okay, the left knee.
-[patient] and it just happens occasionally, less than once a day, when i am walking, all of a sudden it is kind of gives out and i think he i am going to fall. but i usually catch myself. so lot of times i have to hold a grocy cart and that helps a lot. so it comes and goes and it passes just about as quickly as it comes. i do not know what it is, wheth i stepped wrong or i just do not know.
+[patient] and it just happens occasionally- less than once a day- when the patient is walking all of a sudden it is kind of gives out and the patient think he, the patient, is going to fall. but the patient usually catch myself. so lot of times the patient has to hold a grocy cart and that helps a lot. so it comes and goes and it passes just about as quickly. as it comes the patient do not know what it is. wheth the patient stepped wrong or the patient just do not know.
 [doctor] okay. so whe does it hurt in on the inside or the outside, or?
 [patient] intnally and it just the whole kneecap fades.
 [doctor] okay. did you hear or feel a pop at any point?
@@ -4045,41 +4045,41 @@
 [doctor] okay.
 [patient] that.
 [doctor] have you ev had any type of injury to that knee? i mean, did you fall or bp it against something, or
-[patient] no, not that i can recall.
+[patient] no, not that the patient can recall.
 [doctor] okay and have. is it painful? have you taken anything for pain?
 [patient] no, because it does not last that long.
 [doctor] okay.
-[patient] it just, i said it just. it goes about as fast as i came in.
+[patient] it just. the patient said it just. it goes about as fast as the patient came in.
 [doctor] so is it intfing with your just things you to do and
 [patient] m. no, not really.
 [doctor] so i know you said that you to do a lot of travel.
-[patient] ye, i have got a trip planned he in the next month or so and we are going down to colbus, georgia, to a lion's club function and probably be doing a lot of walking the and they got some line dances planned and i do not think i will be able to participate in that because of the knee.
+[patient] ye, the patient has got a trip planned. he in the next month or so and we are going down to colbus, georgia, to a lion's club function and probably be doing a lot of walking the and they got some line dances planned and the patient do not think the patient will be able to participate in that because of the knee.
 [doctor] is that whe you would be kicking your leg out, or something?
 [patient] no, it is, do not. what line dancing is dancing in theories of fairly fast moves, but it is mostly sideways motion.
 [doctor] and is, and that you think that's when your knee might give out, then, or just not going to take the chance?
 [patient] not going to take the chance.
 [doctor] okay, ye, that sounds a good idea. have you thought about even having a cane, just in case, or do you think that's? does that happen often enough?
-[patient] wrap it. i would not be able to keep track of it, so no pain.
+[patient] wrap it. the patient would not be able to keep track of it, so no pain.
 [doctor] okay, so, since you are in, how about your blood pressure? how is it doing, and have you been taking your blood pressures at home? we talked about
 [patient] yes, they are doing fine. still about the same.
 [doctor] so.
 [patient] correct that whatev.
 [doctor] so what has it been running?
-[patient] i can not really rememb. it is been seval days since i took it, but i think it runs around one twenty ov seventy somewhe along in the.
+[patient] the patient can not really rememb. it is been seval days since the patient took it, but the patient think it runs around one twenty ov seventy somewhe along in the.
 [doctor] okay, alright, and so what about your medication? we have you on some medication for your blood pressure, right?
-[patient] yes, i take them regularly at eight thirty in the morning and eight thirty at night.
+[patient] yes, the patient take them regularly at eight thirty in the morning and eight thirty at night.
 [doctor] and what is the medication and the dosage that you are taking?
-[patient] i am taking a farxiga and amlodipine.
+[patient] the patient is taking a farxiga and amlodipine.
 [doctor] okay.
-[patient] and lisinopril and the hydrochlorothiazide, so i can not pronounce that one. so, but those are all small dosage pills.
+[patient] and lisinopril and the hydrochlorothiazide, so the patient can not pronounce that one. so, but those are all small dosage pills.
 [doctor] that, but ye go ead.
-[patient] no, that was it. i just take them regularly, eight thirty in the morning, eight thirty at night.
+[patient] no, that was it. the patient just take them regularly, eight thirty in the morning, eight thirty at night.
 [doctor] ye, that's good. i know you said you set an alarm on your phone to make sure that you get them taken at the right time, so that's really good. and how are your blood sugars doing? how is your diet doing?
-[patient] my blood sugar has been running a little high at about one thirty.
+[patient] his / her blood sugar has been running a little high at about one thirty.
 [doctor] is that in the morning, when you are fasting?
 [patient] yes.
 [doctor] okay.
-[patient] and i have been told that sometimes the morning blood sugars are high for some reason, but i do not know. i do not really worry about it as long as it does not get up too extremely high. so
+[patient] and the patient has been told that sometimes the morning blood sugars are high for some reason, but the patient do not know. the patient do not really worry about it as long as it does not get up too extremely high. so
 [doctor] and are you taking your metformin?
 [patient] yes, that's along with the blood pressure medicine, morning and night.
 [doctor] okay, alright, so are you? are you eating late at night or anything that?
@@ -4093,7 +4093,7 @@
 [doctor] okay. so no decreased range of motion, negative varus and valgus test. okay, and so with your x-rays. i reviewed the result of your left knee x-ray, which showed no evidence of fracture or bony abnormality. so lem me tell you a little bit about my plan. so your left knee pain- i think you just have some arthritis in that. i want to prescribe some meloxicam, fifteen milligrams a day. we might do some physical thapy for that, just to strengthen the muscles around that area and prevent any furth problems with that. okay, and so for your second problem, the hyptension. so i want to continue the lisinopril at twenty milligrams a day and ord an echocardiogram just to evaluate that heart murmur. alright, and
 [patient] okay.
 [doctor] for the diabetes mellitus. i want to ord a hemoglobin a1c to see if we need to make any adjustments to your metformin, and i am also going to ord a lipid panel. okay, do you have any questions?
-[patient] no, i do not think so. when will all this take place?
+[patient] no, the patient do not think so. when will all this take place?
 [doctor] we will get you scheduled for the echocardiogram. i will have my nurse come in and we will get that set up okay.</v>
       </c>
       <c r="G14" t="str" xml:space="preserve">
@@ -4102,7 +4102,7 @@
 [doctor] i undstand you are. you have come in with some right knee pain. can you tell me about it? what's going on?
 [patient] it is not the right knee, it is the left knee.
 [doctor] okay, the left knee.
-[patient] and it just happens occasionally, less than once a day, when i am walking, all of a sudden it is kind of gives out and i think he i am going to fall. but i usually catch myself. so lot of times i have to hold a grocy cart and that helps a lot. so it comes and goes and it passes just about as quickly as it comes. i do not know what it is, wheth i stepped wrong or i just do not know.
+[patient] and it just happens occasionally- less than once a day- when the patient is walking all of a sudden it is kind of gives out and the patient think he, the patient, is going to fall. but the patient usually catch myself. so lot of times the patient has to hold a grocy cart and that helps a lot. so it comes and goes and it passes just about as quickly. as it comes the patient do not know what it is. wheth the patient stepped wrong or the patient just do not know.
 [doctor] okay. so whe does it hurt in on the inside or the outside, or?
 [patient] intnally and it just the whole kneecap fades.
 [doctor] okay. did you hear or feel a pop at any point?
@@ -4110,41 +4110,41 @@
 [doctor] okay.
 [patient] that.
 [doctor] have you ev had any type of injury to that knee? i mean, did you fall or bp it against something, or
-[patient] no, not that i can recall.
+[patient] no, not that the patient can recall.
 [doctor] okay and have. is it painful? have you taken anything for pain?
 [patient] no, because it does not last that long.
 [doctor] okay.
-[patient] it just, i said it just. it goes about as fast as i came in.
+[patient] it just. the patient said it just. it goes about as fast as the patient came in.
 [doctor] so is it intfing with your just things you to do and
 [patient] m. no, not really.
 [doctor] so i know you said that you to do a lot of travel.
-[patient] ye, i have got a trip planned he in the next month or so and we are going down to colbus, georgia, to a lion's club function and probably be doing a lot of walking the and they got some line dances planned and i do not think i will be able to participate in that because of the knee.
+[patient] ye, the patient has got a trip planned. he in the next month or so and we are going down to colbus, georgia, to a lion's club function and probably be doing a lot of walking the and they got some line dances planned and the patient do not think the patient will be able to participate in that because of the knee.
 [doctor] is that whe you would be kicking your leg out, or something?
 [patient] no, it is, do not. what line dancing is dancing in theories of fairly fast moves, but it is mostly sideways motion.
 [doctor] and is, and that you think that's when your knee might give out, then, or just not going to take the chance?
 [patient] not going to take the chance.
 [doctor] okay, ye, that sounds a good idea. have you thought about even having a cane, just in case, or do you think that's? does that happen often enough?
-[patient] wrap it. i would not be able to keep track of it, so no pain.
+[patient] wrap it. the patient would not be able to keep track of it, so no pain.
 [doctor] okay, so, since you are in, how about your blood pressure? how is it doing, and have you been taking your blood pressures at home? we talked about
 [patient] yes, they are doing fine. still about the same.
 [doctor] so.
 [patient] correct that whatev.
 [doctor] so what has it been running?
-[patient] i can not really rememb. it is been seval days since i took it, but i think it runs around one twenty ov seventy somewhe along in the.
+[patient] the patient can not really rememb. it is been seval days since the patient took it, but the patient think it runs around one twenty ov seventy somewhe along in the.
 [doctor] okay, alright, and so what about your medication? we have you on some medication for your blood pressure, right?
-[patient] yes, i take them regularly at eight thirty in the morning and eight thirty at night.
+[patient] yes, the patient take them regularly at eight thirty in the morning and eight thirty at night.
 [doctor] and what is the medication and the dosage that you are taking?
-[patient] i am taking a farxiga and amlodipine.
+[patient] the patient is taking a farxiga and amlodipine.
 [doctor] okay.
-[patient] and lisinopril and the hydrochlorothiazide, so i can not pronounce that one. so, but those are all small dosage pills.
+[patient] and lisinopril and the hydrochlorothiazide, so the patient can not pronounce that one. so, but those are all small dosage pills.
 [doctor] that, but ye go ead.
-[patient] no, that was it. i just take them regularly, eight thirty in the morning, eight thirty at night.
+[patient] no, that was it. the patient just take them regularly, eight thirty in the morning, eight thirty at night.
 [doctor] ye, that's good. i know you said you set an alarm on your phone to make sure that you get them taken at the right time, so that's really good. and how are your blood sugars doing? how is your diet doing?
-[patient] my blood sugar has been running a little high at about one thirty.
+[patient] his / her blood sugar has been running a little high at about one thirty.
 [doctor] is that in the morning, when you are fasting?
 [patient] yes.
 [doctor] okay.
-[patient] and i have been told that sometimes the morning blood sugars are high for some reason, but i do not know. i do not really worry about it as long as it does not get up too extremely high. so
+[patient] and the patient has been told that sometimes the morning blood sugars are high for some reason, but the patient do not know. the patient do not really worry about it as long as it does not get up too extremely high. so
 [doctor] and are you taking your metformin?
 [patient] yes, that's along with the blood pressure medicine, morning and night.
 [doctor] okay, alright, so are you? are you eating late at night or anything that?
@@ -4158,7 +4158,7 @@
 [doctor] okay. so no decreased range of motion, negative varus and valgus test. okay, and so with your x-rays. i reviewed the result of your left knee x-ray, which showed no evidence of fracture or bony abnormality. so lem me tell you a little bit about my plan. so your left knee pain- i think you just have some arthritis in that. i want to prescribe some meloxicam, fifteen milligrams a day. we might do some physical thapy for that, just to strengthen the muscles around that area and prevent any furth problems with that. okay, and so for your second problem, the hyptension. so i want to continue the lisinopril at twenty milligrams a day and ord an echocardiogram just to evaluate that heart murmur. alright, and
 [patient] okay.
 [doctor] for the diabetes mellitus. i want to ord a hemoglobin a1c to see if we need to make any adjustments to your metformin, and i am also going to ord a lipid panel. okay, do you have any questions?
-[patient] no, i do not think so. when will all this take place?
+[patient] no, the patient do not think so. when will all this take place?
 [doctor] we will get you scheduled for the echocardiogram. i will have my nurse come in and we will get that set up okay.</v>
       </c>
       <c r="H14" t="str">
@@ -4258,111 +4258,111 @@
       </c>
       <c r="E15" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] so bevly is a 53 -year-old female with a recent diagnosis of stage three nonsmile cell lung canc who presents for follow-up during neo agit chemothapy she was diagnosed with a four point four centimet left upp lobe nodule biopsy was positive for adenocarcinoma molecular testing is pending at this time alright hello bevly how are you
-[patient] i am good today
+[patient] the patient is good today
 [doctor] you are good today ye you have been going through a lot lately i know you just had your treatment how are your symptoms
-[patient] my symptoms are pretty good today i just kind of have a minimal cough and a sore throat
+[patient] his / her symptoms are pretty good today the patient just kind of have a minimal cough and a sore throat
 [doctor] okay
-[patient] but that's all i am feeling today
+[patient] but that's all the patient is feeling today
 [doctor] okay and how about fatigue have you been feeling more tired
 [patient] yes a little bit
 [doctor] okay and how about any nausea or vomiting
 [patient] no not as of today
 [doctor] okay and i know you we mentioning a cough before how is it as far as walking are you having any shortness of breath
-[patient] i have not noticed any shortness of breath it just kind of seems to be a linging kind of light dry cough
+[patient] the patient has not noticed any shortness of breath it just kind of seems to be a linging kind of light dry cough
 [doctor] cough okay is it any mucus with it or is it a dry cough
 [patient] more dry
 [doctor] a dry cough okay and tell me more about this sore throat
 [patient] this kind of seems to be psistent comes and goes it will be worse sometimes and then oths it feels bett trying to drink lots of fluids
 [doctor] okay
-[patient] to see if it can it  the dry coughing if it is part of that or what i can do
+[patient] to see if it can it  the dry coughing if it is part of that or what the patient can do
 [doctor] okay and when you mention drinking and eating is do you feel  anything is getting stuck the
-[patient] no i do not feel  anything is getting stuck right now and i have not been i have been eating but not as much as i normally would
+[patient] no the patient do not feel  anything is getting stuck right now and the patient has not been the patient has been eating but not as much as the patient normally would
 [doctor] okay alright and how are you doing as far as  just emotionally and mentally how are you doing i am just talking a little bit about your support systems
-[patient] the nursing staff and the office has been vy good to help  with anything that i need as far as support so just since we are just getting started so far on the journey i do feel  i have support and mentally  still feel strong
+[patient] the nursing staff and the office has been vy good to help  with anything that the patient need as far as support so just since we are just getting started so far on the journey the patient do feel  the patient has support and mentally  still feel strong
 [doctor] okay and how about with family or friends have you been able to turn to anyone
-[patient] i do have good family membs that have been supportive and they have come to my treatment with me
+[patient] the patient do have good family membs that have been supportive and they have come to his / her treatment with the patient
 [doctor] okay excellent and so right now you are on a combination of two diffent chemothapies the cisplestan as the eupside and you had your last treatment just a few days ago but you are saying right now you have been able to tolate the nausea and the fatigue
-[patient] yes i have not had any nausea but  just slight fatigue it does not seem to be ovwhelming
+[patient] yes the patient has not had any nausea but  just slight fatigue it does not seem to be ovwhelming
 [doctor] okay so we are going to go ead if it is okay with you and start your physical exam reviewing your vitals so vitals look good especially your oxygen especially with the chemothapy you have been getting and the cough so your oxygen looks good so i am happy with that so now i am just examining your neck especially with your sore throat and i do not appreciate any cvical lymphadenopathy and also no supraclavicular adenopathy listening to your heart you have a nice regular rate and rhythm with no murmurs that i appreciate now on your lung exam when you are taking some deep breaths i do notice some crackles in your lungs bilatally and what that means is the is the is some faint sounds that i am hearing which could represent some fluid the so on looking at your skin exam on your chest you do have some ythema on the antior side of the chest on the left side and this could be related to the radiation so on your low extremities i appreciate no edema and evything else looks good and thank you i know you did a chest x-ray before coming in so on your results for the chest x-ray it does look  you have some mild radiation pneonitis which basically means some inflammation of the lungs most ly due to the radiation so what does this all mean so for your assessment and plan so for the first diagnosis the first problem of the lung canc so what we are going to do is we are going to continue with the current regimen of your chemothapy of the cisplacin and the etoside and we are going to continue with your current dose of radiation at forty five grade and when that's complete we will repeat some imaging and hopefully  the tor will shrink down enough that we can remove it surgically okay for problem nb two so the radiation pneonitis so that's what causing that cough as some of the shortness of breath i know you are not expiencing it much now so what i am going to do for that is actually going to prescribe you a low dose of prednisone and so that's an will help with the inflammation i am going to give you forty milligrams daily for five days and so hopefully that will help reduce the inflammation and so that you can continue with the radiation okay how does that sound so far
 [patient] that sounds great thank you
 [doctor] okay and then lastly for the painful swallowing that you are having so the inflammation you are having it not only in your lungs but it also in your esophagus as  so what i am going to do is prescribe you are taking the prednisone i am also going to give you a lidocaine swish and swallow and you can do that four times a day and so that will be able to help you so you can eat immediately aft taking it and it can also help so that you can continue to take food and fluids prevent dehydration and any furth weight loss
 [patient] great
 [doctor] okay any questions for me
-[patient] i do not believe so at this time
+[patient] the patient do not believe so at this time
 [doctor] okay alright so i'll see you at your next visit
 [patient] great thank you
 [doctor] you are welcome and so now just</v>
       </c>
       <c r="F15" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] so bevly is a 53 -year-old female with a recent diagnosis of stage three nonsmile cell lung canc who presents for follow-up during neo agit chemothapy. she was diagnosed with a four point four centimet left upp lobe nodule. biopsy was positive for adenocarcinoma. molecular testing is pending at this time. alright, hello, bevly, how are you?
-[patient] i am good today.
+[patient] the patient is good today.
 [doctor] you are good today. ye, you have been going through a lot lately. i know you just had your treatment. how are your symptoms?
-[patient] my symptoms are pretty good today. i just kind of have a minimal cough and a sore throat.
+[patient] his / her symptoms are pretty good today. the patient just kind of have a minimal cough and a sore throat.
 [doctor] okay.
-[patient] but that's all i am feeling today.
+[patient] but that's all the patient is feeling today.
 [doctor] okay, and how about fatigue? have you been feeling more tired?
 [patient] yes, a little bit.
 [doctor] okay, and how about any nausea or vomiting?
 [patient] no, not as of today.
 [doctor] okay, and i know you. we mentioning a cough before. how is it as far as walking? are you having any shortness of breath?
-[patient] i have not noticed any shortness of breath. it just kind of seems to be a linging kind of light, dry cough.
+[patient] the patient has not noticed any shortness of breath. it just kind of seems to be a linging kind of light, dry cough.
 [doctor] cough, okay. is it any mucus with it or is it a dry cough?
 [patient] more dry.
 [doctor] a dry cough. okay, and tell me more about this sore throat.
 [patient] this kind of seems to be psistent. comes and goes, it will be worse sometimes, and then, oths, it feels bett trying to drink lots of fluids.
 [doctor] okay.
-[patient] to see if it can it the dry coughing, if it is part of that or what i can do.
+[patient] to see if it can it the dry coughing, if it is part of that or what the patient can do.
 [doctor] okay, and when you mention drinking and eating is: do you feel anything is getting stuck? the
-[patient] no, i do not feel anything is getting stuck right now and i have not been. i have been eating, but not as much as i normally would.
+[patient] no, the patient do not feel. anything is getting stuck right now and the patient has not been. the patient has been eating, but not as much as the patient normally would.
 [doctor] okay, alright, and how are you doing as far as just emotionally and mentally? how are you doing? i am just talking a little bit about your support systems.
-[patient] the nursing staff and the office has been vy good to help with anything that i need as far as support. so just since we are just getting started so far on the journey, i do feel i have support and mentally still feel strong.
+[patient] the nursing staff and the office has been vy good to help with anything that the patient need as far as support. so, just since we are just getting started so far on the journey, the patient do feel the patient has support and mentally still feel strong.
 [doctor] okay, and how about with family or friends? have you been able to turn to anyone?
-[patient] i do have good family membs that have been supportive and they have come to my treatment with me.
+[patient] the patient do have good family membs that have been supportive and they have come to his / her treatment with the patient.
 [doctor] okay, excellent. and so right now you are on a combination of two diffent chemothapies, the cisplestan as the eupside, and you had your last treatment just a few days ago, but you are saying right now you have been able to tolate the nausea and the fatigue.
-[patient] yes, i have not had any nausea, but just slight fatigue. it does not seem to be ovwhelming.
+[patient] yes, the patient has not had any nausea, but just slight fatigue. it does not seem to be ovwhelming.
 [doctor] okay. so we are going to go ead, if it is okay with you, and start your physical exam reviewing your vitals. so vitals look good, especially your oxygen, especially with the chemothapy you have been getting and the cough. so your oxygen looks good, so i am happy with that. so now i am just examining your neck, especially with your sore throat, and i do not appreciate any cvical lymphadenopathy and also no supraclavicular adenopathy. listening to your heart, you have a nice regular rate and rhythm with no murmurs. that i appreciate. now, on your lung exam, when you are taking some deep breaths, i do notice some crackles in your lungs bilatally and what that means is the, is the is some faint sounds that i am hearing which could represent some fluid, the, so on. looking at your skin exam, on your chest, you do have some ythema on the antior side of the chest, on the left side, and this could be related to the radiation. so on your low extremities, i appreciate no edema and evything else looks good and thank you. i know you did a chest x-ray before coming in. so on your results for the chest x-ray, it does look you have some mild radiation pneonitis, which basically means some inflammation of the lungs. most ly due to the radiation. so what does this all mean? so for your assessment and plan. so for the first diagnosis, the first problem of the lung canc. so what we are going to do is we are going to continue with the current regimen of your chemothapy of the cisplacin and the etoside and we are going to continue with your current dose of radiation at forty five grade and when that's complete we will repeat some imaging and hopefully the tor will shrink down enough that we can remove it surgically. okay for problem nb two. so the radiation pneonitis. so that's what causing that cough, as some of the shortness of breath. i know you are not expiencing it much now. so what i am going to do for that is actually going to prescribe you a low dose of prednisone, and so that's an will help with the inflammation. i am going to give you forty milligrams daily for five days, and so hopefully that will help reduce the inflammation and so that you can continue with the radiation. okay, how does that sound so far?
 [patient] that sounds great, thank you.
 [doctor] okay. and then, lastly, for the painful swallowing that you are having. so the inflammation. you are having it not only in your lungs, but it also in your esophagus, as so what i am going to do is prescribe- you are taking the prednisone. i am also going to give you a lidocaine swish and swallow and you can do that four times a day, and so that will be able to help you so you can eat immediately, aft taking it, and it can also help so that you can continue to take food and fluids, prevent dehydration and any furth weight loss.
 [patient] great.
 [doctor] okay, any questions for me?
-[patient] i do not believe so at this time.
+[patient] the patient do not believe so at this time.
 [doctor] okay, alright, so i'll see you at your next visit.
 [patient] great, thank you.
 [doctor] you are welcome, and so now just.</v>
       </c>
       <c r="G15" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] so bevly is a 53 -year-old female with a recent diagnosis of stage three nonsmile cell lung canc who presents for follow-up during neo agit chemothapy. she was diagnosed with a four point four centimet left upp lobe nodule. biopsy was positive for adenocarcinoma. molecular testing is pending at this time. alright, hello, bevly, how are you?
-[patient] i am good today.
+[patient] the patient is good today.
 [doctor] you are good today. ye, you have been going through a lot lately. i know you just had your treatment. how are your symptoms?
-[patient] my symptoms are pretty good today. i just kind of have a minimal cough and a sore throat.
+[patient] his / her symptoms are pretty good today. the patient just kind of have a minimal cough and a sore throat.
 [doctor] okay.
-[patient] but that's all i am feeling today.
+[patient] but that's all the patient is feeling today.
 [doctor] okay, and how about fatigue? have you been feeling more tired?
 [patient] yes, a little bit.
 [doctor] okay, and how about any nausea or vomiting?
 [patient] no, not as of today.
 [doctor] okay, and i know you. we mentioning a cough before. how is it as far as walking? are you having any shortness of breath?
-[patient] i have not noticed any shortness of breath. it just kind of seems to be a linging kind of light, dry cough.
+[patient] the patient has not noticed any shortness of breath. it just kind of seems to be a linging kind of light, dry cough.
 [doctor] cough, okay. is it any mucus with it or is it a dry cough?
 [patient] more dry.
 [doctor] a dry cough. okay, and tell me more about this sore throat.
 [patient] this kind of seems to be psistent. comes and goes, it will be worse sometimes, and then, oths, it feels bett trying to drink lots of fluids.
 [doctor] okay.
-[patient] to see if it can it the dry coughing, if it is part of that or what i can do.
+[patient] to see if it can it the dry coughing, if it is part of that or what the patient can do.
 [doctor] okay, and when you mention drinking and eating is: do you feel anything is getting stuck? the
-[patient] no, i do not feel anything is getting stuck right now and i have not been. i have been eating, but not as much as i normally would.
+[patient] no, the patient do not feel. anything is getting stuck right now and the patient has not been. the patient has been eating, but not as much as the patient normally would.
 [doctor] okay, alright, and how are you doing as far as just emotionally and mentally? how are you doing? i am just talking a little bit about your support systems.
-[patient] the nursing staff and the office has been vy good to help with anything that i need as far as support. so just since we are just getting started so far on the journey, i do feel i have support and mentally still feel strong.
+[patient] the nursing staff and the office has been vy good to help with anything that the patient need as far as support. so, just since we are just getting started so far on the journey, the patient do feel the patient has support and mentally still feel strong.
 [doctor] okay, and how about with family or friends? have you been able to turn to anyone?
-[patient] i do have good family membs that have been supportive and they have come to my treatment with me.
+[patient] the patient do have good family membs that have been supportive and they have come to his / her treatment with the patient.
 [doctor] okay, excellent. and so right now you are on a combination of two diffent chemothapies, the cisplestan as the eupside, and you had your last treatment just a few days ago, but you are saying right now you have been able to tolate the nausea and the fatigue.
-[patient] yes, i have not had any nausea, but just slight fatigue. it does not seem to be ovwhelming.
+[patient] yes, the patient has not had any nausea, but just slight fatigue. it does not seem to be ovwhelming.
 [doctor] okay. so we are going to go ead, if it is okay with you, and start your physical exam reviewing your vitals. so vitals look good, especially your oxygen, especially with the chemothapy you have been getting and the cough. so your oxygen looks good, so i am happy with that. so now i am just examining your neck, especially with your sore throat, and i do not appreciate any cvical lymphadenopathy and also no supraclavicular adenopathy. listening to your heart, you have a nice regular rate and rhythm with no murmurs. that i appreciate. now, on your lung exam, when you are taking some deep breaths, i do notice some crackles in your lungs bilatally and what that means is the, is the is some faint sounds that i am hearing which could represent some fluid, the, so on. looking at your skin exam, on your chest, you do have some ythema on the antior side of the chest, on the left side, and this could be related to the radiation. so on your low extremities, i appreciate no edema and evything else looks good and thank you. i know you did a chest x-ray before coming in. so on your results for the chest x-ray, it does look you have some mild radiation pneonitis, which basically means some inflammation of the lungs. most ly due to the radiation. so what does this all mean? so for your assessment and plan. so for the first diagnosis, the first problem of the lung canc. so what we are going to do is we are going to continue with the current regimen of your chemothapy of the cisplacin and the etoside and we are going to continue with your current dose of radiation at forty five grade and when that's complete we will repeat some imaging and hopefully the tor will shrink down enough that we can remove it surgically. okay for problem nb two. so the radiation pneonitis. so that's what causing that cough, as some of the shortness of breath. i know you are not expiencing it much now. so what i am going to do for that is actually going to prescribe you a low dose of prednisone, and so that's an will help with the inflammation. i am going to give you forty milligrams daily for five days, and so hopefully that will help reduce the inflammation and so that you can continue with the radiation. okay, how does that sound so far?
 [patient] that sounds great, thank you.
 [doctor] okay. and then, lastly, for the painful swallowing that you are having. so the inflammation. you are having it not only in your lungs, but it also in your esophagus, as so what i am going to do is prescribe- you are taking the prednisone. i am also going to give you a lidocaine swish and swallow and you can do that four times a day, and so that will be able to help you so you can eat immediately, aft taking it, and it can also help so that you can continue to take food and fluids, prevent dehydration and any furth weight loss.
 [patient] great.
 [doctor] okay, any questions for me?
-[patient] i do not believe so at this time.
+[patient] the patient do not believe so at this time.
 [doctor] okay, alright, so i'll see you at your next visit.
 [patient] great, thank you.
 [doctor] you are welcome, and so now just.</v>
@@ -4466,21 +4466,21 @@
 [doctor] ready
 [patient] hi kyle how are you today
 [doctor] i am doing  i am just anxious about my pcp told me that i had some abnormal lab work and why she wanted me to be seen by you today
-[patient] ye i bet that did make you nvous i see that she refred you for a low immunoglobulin a level is that your undstanding
+[patient] ye the patient bet that did make you nvous the patient see that she refred you for a low immunoglobulin a level is that your undstanding
 [doctor] ye i mean i do not even really undstand what that means but ye that's what she told me
 [patient] ye that's a mouthful
 [doctor] ye
-[patient] it is the one of the antibodies in your body and that really makes that your body makes to fight infections it is a little bit low i am happy to explain it a little bit more to you i just have a few more questions okay so let's start again he
+[patient] it is the one of the antibodies in your body and that really makes that your body makes to fight infections it is a little bit low the patient is happy to explain it a little bit more to you the patient just have a few more questions okay so let's start again he
 [doctor] i'll do this
-[patient] i think i would break that
+[patient] the patient think the patient would break that
 [doctor] ye i just saw that
 [patient] if you can do that
 [doctor] okay
 [patient] ye so we will we will just
 [doctor] okay
-[patient] you can leave it the way it is for now i just i think break that up
+[patient] you can leave it the way it is for now the patient just the patient think break that up
 [doctor] okay alright so ye that sounds fine for me
-[patient] ye i do  why she checked these levels in the first place that you have been having problems getting frequent infections
+[patient] ye the patient do  why she checked these levels in the first place that you have been having problems getting frequent infections
 [doctor] ye i had a recent physical and she did this as part of h my physical i do tend to get infections but i do not know i am so used to it so i do not know if this is more than usual in the winttime i get a lot of colds and they do seem to i always say that my colds kind of ling for a long time but i do not know if it is more than usual
 [patient] okay how about any abdominal infections
 [doctor] diarrhea no
@@ -4490,27 +4490,27 @@
 [doctor] no my family is actually pretty healthy
 [patient] okay and how about do you have any oth medical conditions
 [doctor] ye my pcp just started me on metformin i just got diagnosed with type two diabetes
-[patient] okay ye diabetes your family your family owns that donut shop right i mean down at the end of the street
+[patient] okay ye diabetes your family your family owns that donut shop right the patient mean down at the end of the street
 [doctor] yes and that's probably part of the cause of my diabetes yes
-[patient] ye  i guess you are going to have to watch that
+[patient] ye  the patient guess you are going to have to watch that
 [doctor] i know i know
-[patient] but  evything in modation i mean just  you just need to be careful you can not does not have to go away
+[patient] but  evything in modation the patient mean just  you just need to be careful you can not does not have to go away
 [doctor] right
 [patient] but have you ev needed to receive a blood transfusion or blood products
 [doctor] no i actually tried to give blood but they i did not qualify because i had recently traveled intnationally
 [patient] okay whe did you go
 [doctor] i was in zambia
-[patient] m i heard that's beautiful
+[patient] m the patient heard that's beautiful
 [doctor] it is so beautiful it is so beautiful i had a great time
-[patient] okay  let me let me go ead and do a physical examination he i reviewed your vitals  that the assistants collected when you first came in including your weight and evything looks good the is no fev the is nothing that i am concned about the now on your heart exam you have a nice regular rate and rhythm and i do not appreciate any murmurs that's kind of those extra sounds that i would hear and that all sounds good on lungs lung exam your lungs are clear the's no wheezes rales or rhonchi now on your neck exam i do not appreciate any lymph lymphadenopathy swollen lymph glands and then let me just go ead and i want to press on your belly a little bit is that tend anywhe that i press it does not seem  you making any facial
+[patient] okay  let the patient let the patient go ead and do a physical examination he the patient reviewed your vitals  that the assistants collected when you first came in including your weight and evything looks good the is no fev the is nothing that the patient is concned about the now on your heart exam you have a nice regular rate and rhythm and the patient do not appreciate any murmurs that's kind of those extra sounds that the patient would hear and that all sounds good on lungs lung exam your lungs are clear the's no wheezes rales or rhonchi now on your neck exam the patient do not appreciate any lymph lymphadenopathy swollen lymph glands and then let the patient just go ead and the patient want to press on your belly a little bit is that tend anywhe that the patient press it does not seem  you making any facial
 [doctor] no
-[patient] no okay so your abdominal exam is your belly is soft the is no tendness as i push around the now i did review the results of your recent lab work and it is consistent as your pcp noted with an iga deficiency that's that immunoglobulin a that we talked about so let me tell you a little bit about the assessment and plan so for your first problem the that a iga deficiency is it vy common immunodeficiency your body makes many diffent types of antibodies in one of your z iga is just a little bit low than normal now most of the time people live their entire life without even knowing they have that deficiency and function pfectly normal now some people may find that they get tend to get frequent respiratory tract or sinus or abdominal infections but this does not necessarily seem to be the case for you now it can go along with oth immunodeficiencies but i think the is a low lihood hood in your case but we are going to ord some additional blood work that includes checking those oth antibodies now do you have any questions on what i just told you
+[patient] no okay so your abdominal exam is your belly is soft the is no tendness as the patient push around the now the patient did review the results of your recent lab work and it is consistent as your pcp noted with an iga deficiency that's that immunoglobulin a that we talked about so let the patient tell you a little bit about the assessment and plan so for your first problem the that a iga deficiency is it vy common immunodeficiency your body makes many diffent types of antibodies in one of your z iga is just a little bit low than normal now most of the time people live their entire life without even knowing they have that deficiency and function pfectly normal now some people may find that they get tend to get frequent respiratory tract or sinus or abdominal infections but this does not necessarily seem to be the case for you now it can go along with oth immunodeficiencies but the patient think the is a low lihood hood in your case but we are going to ord some additional blood work that includes checking those oth antibodies now do you have any questions on what the patient just told you
 [doctor] ye so is the anything i need to do or should be watching for or should i be worried
-[patient] no i really do not think you need to be worried now we are going to check these additional studies and that will give us some more guidance but really i think this is just a finding that's common to you and  it is many people have these type of  immunodeficiency what i want you to watch for is those infections that do not stop you have trouble getting it und control or  any changes to your abdominal tract  seve diarrhea
+[patient] no the patient really do not think you need to be worried now we are going to check these additional studies and that will give us some more guidance but really the patient think this is just a finding that's common to you and  it is many people have these type of  immunodeficiency what the patient want you to watch for is those infections that do not stop you have trouble getting it und control or  any changes to your abdominal tract  seve diarrhea
 [doctor] anything  that then  we may want to look at it a little bit furth but for now i do not think the is anything significant we want to do now go ead and get your lab work and
-[patient] bring you in for that now the only oth thing that i would say is if you eat end up needing any blood products between now and when i see you next make sure you tell them that you have that iga deficiency
+[patient] bring you in for that now the only oth thing that the patient would say is if you eat end up needing any blood products between now and when the patient see you next make sure you tell them that you have that iga deficiency
 [doctor] why is that
-[patient]  the is a risk that your body can strongly react to some blood products and they just need to know that so they are prepared so anytime you get blood just make sure you say that you have a history of a an iga deficiency
+[patient] the is a risk that your body can strongly react to some blood products and they just need to know that so they are prepared so anytime you get blood just make sure you say that you have a history of a an iga deficiency
 [doctor] okay thank you
 [patient] you are welcome
 [doctor] okay</v>
@@ -4521,21 +4521,21 @@
 [doctor] ready.
 [patient] hi kyle. how are you today?
 [doctor] i am doing. i am just anxious about my pcp told me that i had some abnormal lab work and why she wanted me to be seen by you today.
-[patient] ye, i bet that did make you nvous. i see that she refred you for a low immunoglobulin a level. is that your undstanding?
+[patient] ye, the patient bet that did make you nvous. the patient see that she refred you for a low immunoglobulin a level. is that your undstanding?
 [doctor] ye, i mean, i do not even really undstand, what that means, but ye, that's what she told me.
 [patient] ye, that's a mouthful.
 [doctor] ye.
-[patient] it is the one of the antibodies in your body and that really makes that your body makes to fight infections. it is a little bit low. i am happy to explain it a little bit more to you. i just have a few more questions, okay, so let's start again. he.
+[patient] it is the one of the antibodies in your body and that really makes that your body makes to fight infections. it is a little bit low. the patient is happy to explain it a little bit more to you. the patient just have a few more questions. okay, so let's start again. he.
 [doctor] i'll do this.
-[patient] i think i would break that.
+[patient] the patient think the patient would break that?
 [doctor] ye, i just saw that.
 [patient] if you can do that.
 [doctor] okay.
 [patient] ye, so we will, we will just.
 [doctor] okay.
-[patient] you can leave it the way it is for now. i just i think, break that up.
+[patient] you can leave it the way it is for now. the patient, just the patient, think, break that up.
 [doctor] okay, alright, so ye, that sounds fine for me.
-[patient] ye, i do why she checked these levels in the first place that you have been having problems getting frequent infections.
+[patient] ye the patient do why she checked these levels in the first place, that you have been having problems getting frequent infections.
 [doctor] ye, i had a recent physical and she did this as part of h my physical. i do tend to get infections, but i do not know. i am so used to it. so i do not know if this is more than usual. in the winttime i get a lot of colds and they do seem to. i always say that my colds kind of ling for a long time, but i do not know if it is more than usual.
 [patient] okay, how about any abdominal infections?
 [doctor] diarrhea no.
@@ -4545,25 +4545,25 @@
 [doctor] no, my family is actually pretty healthy.
 [patient] okay, and how about do you have any oth medical conditions?
 [doctor] ye, my pcp just started me on metformin. i just got diagnosed with type two diabetes.
-[patient] okay, ye, diabetes, your family, your family owns that donut shop, right, i mean down at the end of the street.
+[patient] okay, ye, diabetes. your family, your family owns that donut shop. right, the patient mean down at the end of the street.
 [doctor] yes, and that's probably part of the cause of my diabetes. yes,
-[patient] ye, i guess you are going to have to watch that.
+[patient] ye the patient. guess you are going to have to watch that.
 [doctor] i know, i know.
-[patient] but evything in modation. i mean just, you just need to be careful. you can not, does not have to go away.
+[patient] but evything in modation the patient mean just you just need to be careful, you can not, does not have to go away.
 [doctor] right.
 [patient] but have you ev needed to receive a blood transfusion or blood products?
 [doctor] no, i actually tried to give blood, but they i did not qualify because i had recently traveled intnationally.
 [patient] okay, whe did you go?
 [doctor] i was in zambia.
-[patient] m. i heard that's beautiful.
+[patient] m. the patient heard that's beautiful.
 [doctor] it is so beautiful. it is so beautiful. i had a great time.
-[patient] okay, let me. let me go ead and do a physical examination. he, i reviewed your vitals that the assistants collected when you first came in, including your weight, and evything looks good. the is no fev. the is nothing that i am concned about. the now on your heart exam, you have a nice regular rate and rhythm and i do not appreciate any murmurs. that's kind of those extra sounds that i would hear and that all sounds good. on lungs, lung exam, your lungs are clear. the's no wheezes, rales or rhonchi. now on your neck exam, i do not appreciate any lymph lymphadenopathy, swollen lymph glands. and then let me just go ead and i want to press on your belly a little bit. is that tend? anywhe that i press? it does not seem you making any facial.
+[patient] okay, let the patient. let the patient go ead and do a physical examination. he, the patient, reviewed your vitals that the assistants collected when you first came in, including your weight, and evything looks good. the is no fev. the is nothing that the patient is concned about. the now on your heart exam, you have a nice regular rate and rhythm and the patient do not appreciate any murmurs. that's kind of those extra sounds that the patient would hear and that all sounds good. on lungs, lung exam, your lungs are clear. the's no wheezes, rales or rhonchi. now on your neck exam, the patient do not appreciate any lymph lymphadenopathy, swollen lymph glands, and then let the patient just go ead and the patient want to press on your belly a little bit. is that tend anywhe that the patient press? it does not seem you making any facial.
 [doctor] no.
-[patient] no, okay. so your abdominal exam is: your belly is soft. the is no tendness as i push around the now i did review the results of your recent lab work and it is consistent as your pcp noted with an iga deficiency, that's that immunoglobulin a that we talked about. so let me tell you a little bit about the assessment and plan. so for your first problem, the that a iga deficiency- is it vy common immunodeficiency. your body makes many diffent types of antibodies. in one of your z iga is just a little bit low than normal. now, most of the time people live their entire life without even knowing they have that deficiency and function pfectly normal. now some people may find that they get tend to get frequent respiratory tract or sinus or abdominal infections, but this does not necessarily seem to be the case for you now. it can go along with oth immunodeficiencies, but i think the is a low lihood hood in your case. but we are going to ord some additional blood work. that includes checking those oth antibodies. now do you have any questions on what i just told you?
+[patient] no, okay. so your abdominal exam is: your belly is soft. the is no tendness as the patient push around the. now the patient did review the results of your recent lab work and it is consistent as your pcp noted with an iga deficiency. that's that immunoglobulin a that we talked about. so let the patient tell you a little bit about the assessment and plan. so for your first problem, the that a iga deficiency, is it vy common immunodeficiency? your body makes many diffent types of antibodies. in one of your z iga is just a little bit low than normal. now most of the time people live their entire life without even knowing they have that deficiency and function pfectly normal. now some people may find that they get tend to get frequent respiratory tract or sinus or abdominal infections, but this does not necessarily seem to be the case for you now. it can go along with oth immunodeficiencies, but the patient think the is a low lihood hood in your case. but we are going to ord some additional blood work. that includes checking those oth antibodies. now do you have any questions on what the patient just told you?
 [doctor] ye. so is the anything i need to do or should be watching for, or should i be worried?
-[patient] no, i really do not think you need to be worried now. we are going to check these additional studies and that will give us some more guidance, but really i think this is just a finding that's common to you and it is many people have these type of immunodeficiency. what i want you to watch for is those infections that do not stop. you have trouble getting it und control or any changes to your abdominal tract- seve diarrhea.
+[patient] no, the patient really do not think you need to be worried. now we are going to check these additional studies and that will give us some more guidance. but really the patient think this is just a finding that's common to you and it is. many people have these type of immunodeficiency. what the patient want you to watch for is those infections that do not stop- you have trouble getting it und control- or any changes to your abdominal tract: seve, diarrhea.
 [doctor] anything that then we may want to look at it a little bit furth, but for now i do not think the is anything significant we want to do now. go ead and get your lab work and
-[patient] bring you in for that. now the only oth thing that i would say is, if you eat, end up needing any blood products between now and when i see you next, make sure you tell them that you have that iga deficiency.
+[patient] bring you in for that. now the only oth thing that the patient would say is, if you eat, end up needing any blood products between now and when the patient see you next, make sure you tell them that you have that iga deficiency.
 [doctor] why is that?
 [patient] the is a risk that your body can strongly react to some blood products and they just need to know that so they are prepared. so anytime you get blood, just make sure you say that you have a history of a, an iga deficiency.
 [doctor] okay, thank you.
@@ -4576,21 +4576,21 @@
 [patient] ready.
 [doctor] hi kyle. how are you today?
 [patient] i am doing. i am just anxious about my pcp told me that i had some abnormal lab work and why she wanted me to be seen by you today.
-[doctor] ye, i bet that did make you nvous. i see that she refred you for a low immunoglobulin a level. is that your undstanding?
+[doctor] ye, the patient bet that did make you nvous. the patient see that she refred you for a low immunoglobulin a level. is that your undstanding?
 [patient] ye, i mean, i do not even really undstand, what that means, but ye, that's what she told me.
 [doctor] ye, that's a mouthful.
 [patient] ye.
-[doctor] it is the one of the antibodies in your body and that really makes that your body makes to fight infections. it is a little bit low. i am happy to explain it a little bit more to you. i just have a few more questions, okay, so let's start again. he.
+[doctor] it is the one of the antibodies in your body and that really makes that your body makes to fight infections. it is a little bit low. the patient is happy to explain it a little bit more to you. the patient just have a few more questions. okay, so let's start again. he.
 [patient] i'll do this.
-[doctor] i think i would break that.
+[doctor] the patient think the patient would break that?
 [patient] ye, i just saw that.
 [doctor] if you can do that.
 [patient] okay.
 [doctor] ye, so we will, we will just.
 [patient] okay.
-[doctor] you can leave it the way it is for now. i just i think, break that up.
+[doctor] you can leave it the way it is for now. the patient, just the patient, think, break that up.
 [patient] okay, alright, so ye, that sounds fine for me.
-[doctor] ye, i do why she checked these levels in the first place that you have been having problems getting frequent infections.
+[doctor] ye the patient do why she checked these levels in the first place, that you have been having problems getting frequent infections.
 [patient] ye, i had a recent physical and she did this as part of h my physical. i do tend to get infections, but i do not know. i am so used to it. so i do not know if this is more than usual. in the winttime i get a lot of colds and they do seem to. i always say that my colds kind of ling for a long time, but i do not know if it is more than usual.
 [doctor] okay, how about any abdominal infections?
 [patient] diarrhea no.
@@ -4600,25 +4600,25 @@
 [patient] no, my family is actually pretty healthy.
 [doctor] okay, and how about do you have any oth medical conditions?
 [patient] ye, my pcp just started me on metformin. i just got diagnosed with type two diabetes.
-[doctor] okay, ye, diabetes, your family, your family owns that donut shop, right, i mean down at the end of the street.
+[doctor] okay, ye, diabetes. your family, your family owns that donut shop. right, the patient mean down at the end of the street.
 [patient] yes, and that's probably part of the cause of my diabetes. yes,
-[doctor] ye, i guess you are going to have to watch that.
+[doctor] ye the patient. guess you are going to have to watch that.
 [patient] i know, i know.
-[doctor] but evything in modation. i mean just, you just need to be careful. you can not, does not have to go away.
+[doctor] but evything in modation the patient mean just you just need to be careful, you can not, does not have to go away.
 [patient] right.
 [doctor] but have you ev needed to receive a blood transfusion or blood products?
 [patient] no, i actually tried to give blood, but they i did not qualify because i had recently traveled intnationally.
 [doctor] okay, whe did you go?
 [patient] i was in zambia.
-[doctor] m. i heard that's beautiful.
+[doctor] m. the patient heard that's beautiful.
 [patient] it is so beautiful. it is so beautiful. i had a great time.
-[doctor] okay, let me. let me go ead and do a physical examination. he, i reviewed your vitals that the assistants collected when you first came in, including your weight, and evything looks good. the is no fev. the is nothing that i am concned about. the now on your heart exam, you have a nice regular rate and rhythm and i do not appreciate any murmurs. that's kind of those extra sounds that i would hear and that all sounds good. on lungs, lung exam, your lungs are clear. the's no wheezes, rales or rhonchi. now on your neck exam, i do not appreciate any lymph lymphadenopathy, swollen lymph glands. and then let me just go ead and i want to press on your belly a little bit. is that tend? anywhe that i press? it does not seem you making any facial.
+[doctor] okay, let the patient. let the patient go ead and do a physical examination. he, the patient, reviewed your vitals that the assistants collected when you first came in, including your weight, and evything looks good. the is no fev. the is nothing that the patient is concned about. the now on your heart exam, you have a nice regular rate and rhythm and the patient do not appreciate any murmurs. that's kind of those extra sounds that the patient would hear and that all sounds good. on lungs, lung exam, your lungs are clear. the's no wheezes, rales or rhonchi. now on your neck exam, the patient do not appreciate any lymph lymphadenopathy, swollen lymph glands, and then let the patient just go ead and the patient want to press on your belly a little bit. is that tend anywhe that the patient press? it does not seem you making any facial.
 [patient] no.
-[doctor] no, okay. so your abdominal exam is: your belly is soft. the is no tendness as i push around the now i did review the results of your recent lab work and it is consistent as your pcp noted with an iga deficiency, that's that immunoglobulin a that we talked about. so let me tell you a little bit about the assessment and plan. so for your first problem, the that a iga deficiency- is it vy common immunodeficiency. your body makes many diffent types of antibodies. in one of your z iga is just a little bit low than normal. now, most of the time people live their entire life without even knowing they have that deficiency and function pfectly normal. now some people may find that they get tend to get frequent respiratory tract or sinus or abdominal infections, but this does not necessarily seem to be the case for you now. it can go along with oth immunodeficiencies, but i think the is a low lihood hood in your case. but we are going to ord some additional blood work. that includes checking those oth antibodies. now do you have any questions on what i just told you?
+[doctor] no, okay. so your abdominal exam is: your belly is soft. the is no tendness as the patient push around the. now the patient did review the results of your recent lab work and it is consistent as your pcp noted with an iga deficiency. that's that immunoglobulin a that we talked about. so let the patient tell you a little bit about the assessment and plan. so for your first problem, the that a iga deficiency, is it vy common immunodeficiency? your body makes many diffent types of antibodies. in one of your z iga is just a little bit low than normal. now most of the time people live their entire life without even knowing they have that deficiency and function pfectly normal. now some people may find that they get tend to get frequent respiratory tract or sinus or abdominal infections, but this does not necessarily seem to be the case for you now. it can go along with oth immunodeficiencies, but the patient think the is a low lihood hood in your case. but we are going to ord some additional blood work. that includes checking those oth antibodies. now do you have any questions on what the patient just told you?
 [patient] ye. so is the anything i need to do or should be watching for, or should i be worried?
-[doctor] no, i really do not think you need to be worried now. we are going to check these additional studies and that will give us some more guidance, but really i think this is just a finding that's common to you and it is many people have these type of immunodeficiency. what i want you to watch for is those infections that do not stop. you have trouble getting it und control or any changes to your abdominal tract- seve diarrhea.
+[doctor] no, the patient really do not think you need to be worried. now we are going to check these additional studies and that will give us some more guidance. but really the patient think this is just a finding that's common to you and it is. many people have these type of immunodeficiency. what the patient want you to watch for is those infections that do not stop- you have trouble getting it und control- or any changes to your abdominal tract: seve, diarrhea.
 [patient] anything that then we may want to look at it a little bit furth, but for now i do not think the is anything significant we want to do now. go ead and get your lab work and
-[doctor] bring you in for that. now the only oth thing that i would say is, if you eat, end up needing any blood products between now and when i see you next, make sure you tell them that you have that iga deficiency.
+[doctor] bring you in for that. now the only oth thing that the patient would say is, if you eat, end up needing any blood products between now and when the patient see you next, make sure you tell them that you have that iga deficiency.
 [patient] why is that?
 [doctor] the is a risk that your body can strongly react to some blood products and they just need to know that so they are prepared. so anytime you get blood, just make sure you say that you have a history of a, an iga deficiency.
 [patient] okay, thank you.
@@ -4703,37 +4703,37 @@
       </c>
       <c r="E17" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey lawrence how're you doing
-[patient] i am doing alright aside from this elbow pain
+[patient] the patient is doing alright aside from this elbow pain
 [doctor] so it looks  he that you came in to see us today for an evaluation of that right elbow pain can you tell me can you can you tell me  first of all what do you think has been causing that pain
-[patient] so i really during this pandemic i really got into camics and doing potty so i have been doing a lot of potty and ov the past week i then started to develop this elbow pain
+[patient] so the patient really during this pandemic the patient really got into camics and doing potty so the patient has been doing a lot of potty and ov the past week the patient then started to develop this elbow pain
 [doctor] okay and then so tell me a little bit more about that elbow pain whe does it hurt exactly
-[patient]  it hurts a lot in the inside of my elbow
+[patient] it hurts a lot in the inside of his / her elbow
 [doctor] okay so the inside of your right elbow okay
 [patient] ye
 [doctor] and then does the pain radiate down your arm or up into your should or anything  that
-[patient] it does not go into my should it is it stays mostly at my elbow but it can go down a bit into my forearm
+[patient] it does not go into his / her should it is it stays mostly at his / her elbow but it can go down a bit into his / her forearm
 [doctor] okay and then do you rememb any traa did you hit your arm or elbow or any on anything
-[patient] no nothing i really was trying to think if the is anything else and i can not think of anything
+[patient] no nothing the patient really was trying to think if the is anything else and the patient can not think of anything
 [doctor] okay and you have nev injured that right elbow before
 [patient] no
 [doctor] alright so now let's talk a little bit about your pain and how bad it how bad is that pain on a scale from zo to ten being the worst pain you have ev felt in your life
-[patient] i would say probably a six
+[patient] the patient would say probably a six
 [doctor] okay and does that pain keep you up at night
 [patient] it does
 [doctor] okay and when you have that kind of pain does it keep you from doing oth type of activities
-[patient] ye i mean i still try to  work through with using my arm but ye it is it is it is difficult for me sometimes to lift and do things because of that pain
+[patient] ye the patient mean the patient still try to  work through with using his / her arm but ye it is it is it is difficult for the patient sometimes to lift and do things because of that pain
 [doctor] okay and then and how long has this pain been going on
 [patient] about four days now
 [doctor] alright and anything you have done to help relieve or alleviate that pain any anything that's giving you relief
-[patient] i have tried ibuprofen that helps a little but not much
+[patient] the patient has tried ibuprofen that helps a little but not much
 [doctor] okay so if it is okay with you i would  to do a quick physical exam your vitals look good and i am going to do a focused exam on that right elbow i am going to go ead and press he do you do you have any pain when i press he
-[patient] yes i do
+[patient] yes the patient do
 [doctor] okay so you are positive for pain to palpation you do note that modate tendness of the medial epicondyle now i am going to have you turn your wrist as if you are turning a door knob do you have any pain when you do that
 [patient] not really
 [doctor] okay now turn your wrist in so do you have any pain when you do that
 [patient] ye that hurts
 [doctor] okay so you do have pain you we positive for pain when you pronate that forearm okay i am going to go ead and have you rest your arm on the table he palm side up now i want you to raise your hand by bending at the wrist and i am going to put some resistance against it do you have any pain when i press against your flexed wrist
-[patient] yes i do
+[patient] yes the patient do
 [doctor] alright so you are positive for pain with resistance against flexion of that left wrist so i let's go ead and review the x-ray that we did of your elbow the good news is i do not see any fracture or bony abnormality of that right elbow which is good so let's talk a little bit about my assessment and plan for you so for the problem with elbow pain i do believe that this is consistent with medial epicondylitis which is caused by the ovuse and potential damage of those tendons that bend
 [doctor] that bend the wrist towards the palm now i want you to rest it i am going to ord a sling and i want you to wear the sling while you are awake now we are also going to have you apply ice to the elbow for twenty minutes three times a day and i want you to take ibuprofen that's going to be six hundred milligrams q.6 h. with food and i want you to take that for a full week now you are not going to  this part but i want you to hold off for the next couple of weeks on doing any type of potty work okay alright now what i want to do is i want to see you again in a week and i want to see how you are doing okay
 [patient] alrighty
@@ -4743,37 +4743,37 @@
       </c>
       <c r="F17" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, lawrence, how're you doing?
-[patient] i am doing alright, aside from this elbow pain.
+[patient] the patient is doing alright, aside from this elbow pain.
 [doctor] so it looks, he, that you came in to see us today for an evaluation of that right elbow pain. can you tell me, can you? can you tell me? first of all, what do you think has been causing that pain?
-[patient] so i really, during this pandemic i really got into camics and doing potty. so i have been doing a lot of potty and ov. the past week i then started to develop this elbow pain.
+[patient] so the patient really. during this pandemic the patient really got into camics and doing potty, so the patient has been doing a lot of potty and ov. the past week the patient then started to develop this elbow pain.
 [doctor] okay, and then so tell me a little bit more about that elbow pain. whe does it hurt exactly?
-[patient] it hurts a lot in the inside of my elbow.
+[patient] it hurts a lot in the inside of his / her elbow.
 [doctor] okay, so the inside of your right elbow okay.
 [patient] ye.
 [doctor] and then does the pain radiate down your arm or up into your should or anything that.
-[patient] it does not go into my should, it is. it stays mostly at my elbow, but it can go down a bit into my forearm.
+[patient] it does not go into his / her. should it is, it stays mostly at his / her elbow, but it can go down a bit into his / her forearm.
 [doctor] okay, and then do you rememb any traa? did you hit your arm or elbow or any on anything?
-[patient] no, nothing. i really was trying to think, if the is anything else, and i can not think of anything.
+[patient] no, nothing. the patient really was trying to think, if the is anything else and the patient can not think of anything.
 [doctor] okay, and you have nev injured that right elbow before.
 [patient] no.
 [doctor] alright, so now let's talk a little bit about your pain and how bad it. how bad is that pain, on a scale from zo to ten, being the worst pain you have ev felt in your life?
-[patient] i would say probably a six.
+[patient] the patient would say probably a six.
 [doctor] okay, and does that pain keep you up at night?
 [patient] it does.
 [doctor] okay, and when you have that kind of pain, does it keep you from doing oth type of activities?
-[patient] ye, i mean, i still try to work through with using my arm. but ye, it is, it is. it is difficult for me sometimes to lift and do things because of that pain.
+[patient] ye, the patient mean the patient still try to work through with using his / her arm. but ye, it is, it is. it is difficult for the patient sometimes to lift and do things because of that pain.
 [doctor] okay, and then? and how long has this pain been going on?
 [patient] about four days now.
 [doctor] alright, and anything you have done to help relieve or alleviate that pain, any anything that's giving you relief.
-[patient] i have tried ibuprofen. that helps a little, but not much.
+[patient] the patient has tried ibuprofen. that helps a little, but not much.
 [doctor] okay. so, if it is okay with you, i would to do a quick physical exam. your vitals look good and i am going to do a focused exam on that right elbow. i am going to go ead and press he. do you? do you have any pain when i press he?
-[patient] yes, i do.
+[patient] yes, the patient do.
 [doctor] okay, so you are positive for pain to palpation. you do note that modate tendness of the medial epicondyle. now i am going to have you turn your wrist as if you are turning a door knob. do you have any pain when you do that?
 [patient] not really.
 [doctor] okay, now turn your wrist in, so do you have any pain when you do that?
 [patient] ye, that hurts.
 [doctor] okay, so you do have pain. you we positive for pain when you pronate that forearm. okay, i am going to go ead and have you rest your arm on the table, he palm side up. now i want you to raise your hand by bending at the wrist and i am going to put some resistance against it. do you have any pain when i press against your flexed wrist?
-[patient] yes, i do.
+[patient] yes, the patient do.
 [doctor] alright, so you are positive for pain, with resistance against flexion of that left wrist. so i let's go ead and review the x-ray that we did of your elbow. the good news is i do not see any fracture or bony abnormality of that right elbow, which is good. so let's talk a little bit about my assessment and plan for you. so, for the problem with elbow pain, i do believe that this is consistent with medial epicondylitis, which is caused by the ovuse and potential damage of those tendons that bend.
 [doctor] that. bend the wrist towards the palm. now i want you to rest it. i am going to ord a sling and i want you to wear the sling while you are awake. now we are also going to have you apply ice to the elbow for twenty minutes, three times a day, and i want you to take ibuprofen- that's going to be six hundred milligrams q.6 h- with food, and i want you to take that for a full week. now you are not going to this part, but i want you to hold off for the next couple of weeks on doing any type of potty work. okay, alright, now what i want to do is i want to see you again in a week and i want to see how you are doing. okay.
 [patient] alrighty.
@@ -4783,37 +4783,37 @@
       </c>
       <c r="G17" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, lawrence, how're you doing?
-[patient] i am doing alright, aside from this elbow pain.
+[patient] the patient is doing alright, aside from this elbow pain.
 [doctor] so it looks, he, that you came in to see us today for an evaluation of that right elbow pain. can you tell me, can you? can you tell me? first of all, what do you think has been causing that pain?
-[patient] so i really, during this pandemic i really got into camics and doing potty. so i have been doing a lot of potty and ov. the past week i then started to develop this elbow pain.
+[patient] so the patient really. during this pandemic the patient really got into camics and doing potty, so the patient has been doing a lot of potty and ov. the past week the patient then started to develop this elbow pain.
 [doctor] okay, and then so tell me a little bit more about that elbow pain. whe does it hurt exactly?
-[patient] it hurts a lot in the inside of my elbow.
+[patient] it hurts a lot in the inside of his / her elbow.
 [doctor] okay, so the inside of your right elbow okay.
 [patient] ye.
 [doctor] and then does the pain radiate down your arm or up into your should or anything that.
-[patient] it does not go into my should, it is. it stays mostly at my elbow, but it can go down a bit into my forearm.
+[patient] it does not go into his / her. should it is, it stays mostly at his / her elbow, but it can go down a bit into his / her forearm.
 [doctor] okay, and then do you rememb any traa? did you hit your arm or elbow or any on anything?
-[patient] no, nothing. i really was trying to think, if the is anything else, and i can not think of anything.
+[patient] no, nothing. the patient really was trying to think, if the is anything else and the patient can not think of anything.
 [doctor] okay, and you have nev injured that right elbow before.
 [patient] no.
 [doctor] alright, so now let's talk a little bit about your pain and how bad it. how bad is that pain, on a scale from zo to ten, being the worst pain you have ev felt in your life?
-[patient] i would say probably a six.
+[patient] the patient would say probably a six.
 [doctor] okay, and does that pain keep you up at night?
 [patient] it does.
 [doctor] okay, and when you have that kind of pain, does it keep you from doing oth type of activities?
-[patient] ye, i mean, i still try to work through with using my arm. but ye, it is, it is. it is difficult for me sometimes to lift and do things because of that pain.
+[patient] ye, the patient mean the patient still try to work through with using his / her arm. but ye, it is, it is. it is difficult for the patient sometimes to lift and do things because of that pain.
 [doctor] okay, and then? and how long has this pain been going on?
 [patient] about four days now.
 [doctor] alright, and anything you have done to help relieve or alleviate that pain, any anything that's giving you relief.
-[patient] i have tried ibuprofen. that helps a little, but not much.
+[patient] the patient has tried ibuprofen. that helps a little, but not much.
 [doctor] okay. so, if it is okay with you, i would to do a quick physical exam. your vitals look good and i am going to do a focused exam on that right elbow. i am going to go ead and press he. do you? do you have any pain when i press he?
-[patient] yes, i do.
+[patient] yes, the patient do.
 [doctor] okay, so you are positive for pain to palpation. you do note that modate tendness of the medial epicondyle. now i am going to have you turn your wrist as if you are turning a door knob. do you have any pain when you do that?
 [patient] not really.
 [doctor] okay, now turn your wrist in, so do you have any pain when you do that?
 [patient] ye, that hurts.
 [doctor] okay, so you do have pain. you we positive for pain when you pronate that forearm. okay, i am going to go ead and have you rest your arm on the table, he palm side up. now i want you to raise your hand by bending at the wrist and i am going to put some resistance against it. do you have any pain when i press against your flexed wrist?
-[patient] yes, i do.
+[patient] yes, the patient do.
 [doctor] alright, so you are positive for pain, with resistance against flexion of that left wrist. so i let's go ead and review the x-ray that we did of your elbow. the good news is i do not see any fracture or bony abnormality of that right elbow, which is good. so let's talk a little bit about my assessment and plan for you. so, for the problem with elbow pain, i do believe that this is consistent with medial epicondylitis, which is caused by the ovuse and potential damage of those tendons that bend.
 [doctor] that. bend the wrist towards the palm. now i want you to rest it. i am going to ord a sling and i want you to wear the sling while you are awake. now we are also going to have you apply ice to the elbow for twenty minutes, three times a day, and i want you to take ibuprofen- that's going to be six hundred milligrams q.6 h- with food, and i want you to take that for a full week. now you are not going to this part, but i want you to hold off for the next couple of weeks on doing any type of potty work. okay, alright, now what i want to do is i want to see you again in a week and i want to see how you are doing. okay.
 [patient] alrighty.
@@ -4918,127 +4918,127 @@
       </c>
       <c r="E18" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] alright david so you we just in the emgency department hopefully you can hear me okay through the zoom meeting what happened
-[patient]  it seems that i was outside and i fell down i was walking a bit and i did have a pain in my chest but i did not think anything of it and i just kept on going and then all of a sudden i am he
+[patient] it seems that the patient was outside and the patient fell down the patient was walking a bit and the patient did have a pain in his / her chest but the patient did not think anything of it and the patient just kept on going and then all of a sudden the patient is he
 [doctor] m my gosh so it looks  you went into the  and looks  they said that your ankles we sing a little bit too and did you have some shortness of breath
-[patient] i did but i did not think anything of it
+[patient] the patient did but the patient did not think anything of it
 [doctor] sure ye okay ye i know we have been talking through your hyptension looks  your blood pressure was two hundred ov ninety have you been taking those meds that we have you on
-[patient] i have but i miss them evy year and then so i think today i took one
+[patient] the patient has but the patient miss them evy year and then so the patient think today the patient took one
 [doctor] okay alright ye i have you on bex cozaar and norvasc does that sound right
-[patient] i guess so that sounds about right
+[patient] the patient guess so that sounds about right
 [doctor] alright okay ye you need to make sure that you are you are taking those consistently that's really important and i know that we talked a little bit about watching your diet how have you been doing with that
-[patient] i have just been eating anything honestly i try to watch it he and the but to tell you the truth i'd looks i was eating
+[patient] the patient has just been eating anything honestly the patient try to watch it he and the but to tell you the truth the patient would looks the patient was eating
 [doctor] ye i know it is hard around the holidays and evything but it is really important that we watch that diet what kind of things are you eating is it is it salty foods or pizza chicken wing kinda stuff or what are you standing or
-[patient] little bit of evything he and the i do lot of chips
+[patient] little bit of evything he and the the patient do lot of chips
 [doctor] sure
-[patient] they are pretty good i guess they are salty even though the light salt ones but
+[patient] they are pretty good the patient guess they are salty even though the light salt ones but
 [doctor] mm-
-[patient] kinda whatev i can get my hands on really
+[patient] kinda whatev the patient can get his / her hands on really
 [doctor] okay alright how are you feeling right now
-[patient] i am doing a little okay i guess i am just out of breath a little bit but it is nothing i can not handle
+[patient] the patient is doing a little okay the patient guess the patient is just out of breath a little bit but it is nothing the patient can not handle
 [doctor] sure ye okay so you are taking your meds mostly we talked about getting you a blood pressure cuff at home did you end up getting one of those
-[patient] no i have not got one yet i know i needed to get one
+[patient] no the patient has not got one yet the patient know the patient needed to get one
 [doctor] ye that's that will be good if you can take your blood pressures at home and definitely track those what about any problems with shortness of breath lately
-[patient] just  i said when i was walking outside it helped a little bit but again i just walked it off
+[patient] just  the patient said when the patient was walking outside it helped a little bit but again the patient just walked it off
 [doctor] sure any problems sleeping
-[patient] no i sleep  a rock
+[patient] no the patient sleep  a rock
 [doctor] good to hear have you had any chest pain
-[patient] slightly he or the but i thought it was just heartburn
+[patient] slightly he or the but the patient thought it was just heartburn
 [doctor] sure okay alright let me do a quick physical exam your blood pressure is pretty good in the office today it looks  it is one twenty eight ov seventy two your oth vital signs look good on your neck exam the is no jugular venous distention on your heart exam just going to take a listen he i do appreciate a two out of six systolic ejection murmur but i heard that before and that is stable your lungs you want to take a deep breath for me lungs are clear bilatally now i know we talked about you stopping smoking a couple of years ago i have he have you kept up with that
-[patient] i have been pretty good on it vy once evy week maybe just one
+[patient] the patient has been pretty good on it vy once evy week maybe just one
 [doctor] okay alright good to hear alright and your low extremities show a trace edema so megan david i am looking at your results of your echocardiogram that you got when you we in the  and it does show presved ejection fraction of fifty five pcent and normal diastolic filling and mild to modate mild to modate mitral regurgitation so let me tell you about what that means for the chf that you we in the hospital with sounds   based on your diet this is ly caused by your dietary indiscretion and uncontrolled hyptension that we have been monitoring so what i want you to do is continue your bex two milligrams once daily definitely stay on top of that make sure that you get those meds in evy time i am going to write you a consult to nutrition since it sounds  maybe we can give you some advice on watching your diet definitely watching the salty foods that you have been eating does that sound okay
 [patient] that sounds good docent
 [doctor] awesome weigh yourself daily do you have a scale at home
-[patient] no but i can get one
+[patient] no but the patient can get one
 [doctor] okay good get a scale weigh yourself daily call me if you gain three pounds in two days for the hyptension that we have been treating i want you to continue the cozaar one hundred milligrams daily continue the norvasc five milligrams once daily so i'll be written down in your discharge smary and i am going to ord a test i am going to ord a renal arty ultrasound just to make sure that we are not missing anything the does that sound good
-[patient] that sounds good to me
+[patient] that sounds good to the patient
 [doctor] great okay david do you have any oth questions
-[patient] no oth questions at this time just i guess i just need to make sure to take my medication on time that's about it
+[patient] no oth questions at this time just the patient guess the patient just need to make sure to take his / her medication on time that's about it
 [doctor] ye definitely take your medication on time and see that nutritionist and hopefully we can get your get your diet on track as 
-[patient] i will do my best
+[patient] the patient will do his / her best
 [doctor] alright thanks hope you feel bett
 [patient] thank you</v>
       </c>
       <c r="F18" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] alright, david, so you, we just in the emgency department- hopefully you can hear me, okay, through the zoom meeting what happened.
-[patient] it seems that i was outside and i fell down. i was walking a bit and i did have a pain in my chest, but i did not think anything of it and i just kept on going. and then, all of a sudden, i am- he.
+[patient] it seems that the patient was outside and the patient fell down. the patient was walking a bit and the patient did have a pain in his / her chest, but the patient did not think anything of it and the patient just kept on going. and then, all of a sudden, the patient is he.
 [doctor] m my gosh, so it looks. you went into the and looks. they said that your ankles. we sing a little bit too, and did you have some shortness of breath?
-[patient] i did, but i did not think anything of it.
+[patient] the patient did, but the patient did not think anything of it.
 [doctor] sure, ye, okay, ye, i know we have been talking through your hyptension looks. your blood pressure was two hundred ov ninety. have you been taking those meds that we have you on?
-[patient] i have, but i miss them evy year and then. so i think today i took one.
+[patient] the patient has, but the patient miss them evy year. and then so the patient think, today the patient took one.
 [doctor] okay, alright, ye, i have you on bex, cozaar and norvasc. does that sound right?
-[patient] i guess, so that sounds about right.
+[patient] the patient guess, so that sounds about right.
 [doctor] alright, okay, ye, you need to make sure that you are. you are taking those consistently. that's really important, and i know that we talked a little bit about watching your diet. how have you been doing with that?
-[patient] i have just been eating anything. honestly, i try to watch it. he and the, but to tell you the truth, i'd looks, i was eating.
+[patient] the patient has just been eating anything. honestly, the patient try to watch it, he and the. but to tell you the truth, the patient would looks. the patient was eating.
 [doctor] ye, i know it is hard around the holidays and evything, but it is really important that we watch that diet. what kind of things are you eating? is it? is it salty foods or pizza, chicken wing kinda stuff, or what are you standing or?
-[patient] little bit of evything. he and the i do lot of chips.
+[patient] little bit of evything. he and the, the patient, do lot of chips.
 [doctor] sure.
-[patient] they are pretty good. i guess they are salty, even though the light salt ones. but
+[patient] they are pretty good. the patient guess they are salty, even though the light salt ones. but
 [doctor] mm-.
-[patient] kinda whatev i can get my hands on really,
+[patient] kinda whatev the patient can get his / her hands on. really.
 [doctor] okay, alright, how are you feeling right now?
-[patient] i am doing a little. okay, i guess i am just out of breath a little bit, but it is nothing i can not handle.
+[patient] the patient is doing a little. okay, the patient, guess the patient is just out of breath a little bit, but it is nothing the patient can not handle.
 [doctor] sure ye. okay, so you are taking your meds. mostly we talked about getting you a blood pressure cuff at home. did you end up getting one of those?
-[patient] no, i have not got one yet. i know i needed to get one.
+[patient] no, the patient has not got one yet. the patient know the patient needed to get one.
 [doctor] ye, that's. that will be good if you can take your blood pressures at home and definitely track those. what about any problems with shortness of breath lately?
-[patient] just i said when i was walking outside. it helped a little bit, but again i just walked it off.
+[patient] just the patient said. when the patient was walking outside it helped a little bit, but again the patient just walked it off.
 [doctor] sure any problems sleeping.
-[patient] no, i sleep a rock.
+[patient] no, the patient sleep a rock.
 [doctor] good to hear. have you had any chest pain?
-[patient] slightly he or the, but i thought it was just heartburn.
+[patient] slightly, he or the, but the patient thought it was just heartburn.
 [doctor] sure. okay, alright, let me do a quick physical exam. your blood pressure is pretty good. in the office today it looks it is one twenty eight ov seventy two. your oth vital signs look good. on your neck exam, the is no jugular venous distention. on your heart exam, just going to take a listen, he, i do appreciate a two out of six systolic ejection murmur, but i heard that before and that is stable. your lungs: you want to take a deep breath. for me, lungs are clear bilatally now. i know we talked about you stopping smoking a couple of years ago. i have. he. have you kept up with that?
-[patient] i have been pretty good on it. vy once evy week, maybe just one.
+[patient] the patient has been pretty good on it. vy once evy week, maybe just one.
 [doctor] okay, alright, good to hear alright. and your low extremities show a trace edema. so, megan david, i am looking at your results of your echocardiogram that you got when you we in the and it does show presved ejection fraction of fifty five pcent and normal diastolic filling and mild to modate- mild to modate mitral regurgitation. so let me tell you about what that means for the chf that you we in the hospital with sounds based on your diet. this is ly caused by your dietary indiscretion and uncontrolled hyptension that we have been monitoring. so what i want you to do is continue your bex, two milligrams once daily. definitely stay on top of that. make sure that you get those meds. in evy time i am going to write you a consult to nutrition, since it sounds. maybe we can give you some advice on watching your diet, definitely watching the salty foods that you have been eating. does that sound okay?
 [patient] that sounds good, docent.
 [doctor] awesome. weigh yourself daily. do you have a scale at home?
-[patient] no, but i can get one.
+[patient] no, but the patient can get one.
 [doctor] okay, good, get a scale, weigh yourself daily. call me if you gain three pounds in two days. for the hyptension that we have been treating, i want you to continue the cozaar one hundred milligrams daily, continue the norvasc five milligrams once daily. so i'll be written down in your discharge, smary, and i am going to ord a test. i am going to ord a renal arty ultrasound just to make sure that we are not missing anything. the does that sound good?
-[patient] that sounds good to me.
+[patient] that sounds good to the patient.
 [doctor] great. okay, david, do you have any oth questions?
-[patient] no oth questions at this time. just, i guess i just need to make sure to take my medication on time. that's about it.
+[patient] no oth questions at this time. just the patient guess. the patient just need to make sure to take his / her medication on time. that's about it.
 [doctor] ye definitely take your medication on time and see that nutritionist and hopefully we can get your, get your diet on track as
-[patient] i will do my best.
+[patient] the patient will do his / her best.
 [doctor] alright, thanks, hope you feel bett.
 [patient] thank you.</v>
       </c>
       <c r="G18" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] alright, david, so you, we just in the emgency department- hopefully you can hear me, okay, through the zoom meeting what happened.
-[patient] it seems that i was outside and i fell down. i was walking a bit and i did have a pain in my chest, but i did not think anything of it and i just kept on going. and then, all of a sudden, i am- he.
+[patient] it seems that the patient was outside and the patient fell down. the patient was walking a bit and the patient did have a pain in his / her chest, but the patient did not think anything of it and the patient just kept on going. and then, all of a sudden, the patient is he.
 [doctor] m my gosh, so it looks. you went into the and looks. they said that your ankles. we sing a little bit too, and did you have some shortness of breath?
-[patient] i did, but i did not think anything of it.
+[patient] the patient did, but the patient did not think anything of it.
 [doctor] sure, ye, okay, ye, i know we have been talking through your hyptension looks. your blood pressure was two hundred ov ninety. have you been taking those meds that we have you on?
-[patient] i have, but i miss them evy year and then. so i think today i took one.
+[patient] the patient has, but the patient miss them evy year. and then so the patient think, today the patient took one.
 [doctor] okay, alright, ye, i have you on bex, cozaar and norvasc. does that sound right?
-[patient] i guess, so that sounds about right.
+[patient] the patient guess, so that sounds about right.
 [doctor] alright, okay, ye, you need to make sure that you are. you are taking those consistently. that's really important, and i know that we talked a little bit about watching your diet. how have you been doing with that?
-[patient] i have just been eating anything. honestly, i try to watch it. he and the, but to tell you the truth, i'd looks, i was eating.
+[patient] the patient has just been eating anything. honestly, the patient try to watch it, he and the. but to tell you the truth, the patient would looks. the patient was eating.
 [doctor] ye, i know it is hard around the holidays and evything, but it is really important that we watch that diet. what kind of things are you eating? is it? is it salty foods or pizza, chicken wing kinda stuff, or what are you standing or?
-[patient] little bit of evything. he and the i do lot of chips.
+[patient] little bit of evything. he and the, the patient, do lot of chips.
 [doctor] sure.
-[patient] they are pretty good. i guess they are salty, even though the light salt ones. but
+[patient] they are pretty good. the patient guess they are salty, even though the light salt ones. but
 [doctor] mm-.
-[patient] kinda whatev i can get my hands on really,
+[patient] kinda whatev the patient can get his / her hands on. really.
 [doctor] okay, alright, how are you feeling right now?
-[patient] i am doing a little. okay, i guess i am just out of breath a little bit, but it is nothing i can not handle.
+[patient] the patient is doing a little. okay, the patient, guess the patient is just out of breath a little bit, but it is nothing the patient can not handle.
 [doctor] sure ye. okay, so you are taking your meds. mostly we talked about getting you a blood pressure cuff at home. did you end up getting one of those?
-[patient] no, i have not got one yet. i know i needed to get one.
+[patient] no, the patient has not got one yet. the patient know the patient needed to get one.
 [doctor] ye, that's. that will be good if you can take your blood pressures at home and definitely track those. what about any problems with shortness of breath lately?
-[patient] just i said when i was walking outside. it helped a little bit, but again i just walked it off.
+[patient] just the patient said. when the patient was walking outside it helped a little bit, but again the patient just walked it off.
 [doctor] sure any problems sleeping.
-[patient] no, i sleep a rock.
+[patient] no, the patient sleep a rock.
 [doctor] good to hear. have you had any chest pain?
-[patient] slightly he or the, but i thought it was just heartburn.
+[patient] slightly, he or the, but the patient thought it was just heartburn.
 [doctor] sure. okay, alright, let me do a quick physical exam. your blood pressure is pretty good. in the office today it looks it is one twenty eight ov seventy two. your oth vital signs look good. on your neck exam, the is no jugular venous distention. on your heart exam, just going to take a listen, he, i do appreciate a two out of six systolic ejection murmur, but i heard that before and that is stable. your lungs: you want to take a deep breath. for me, lungs are clear bilatally now. i know we talked about you stopping smoking a couple of years ago. i have. he. have you kept up with that?
-[patient] i have been pretty good on it. vy once evy week, maybe just one.
+[patient] the patient has been pretty good on it. vy once evy week, maybe just one.
 [doctor] okay, alright, good to hear alright. and your low extremities show a trace edema. so, megan david, i am looking at your results of your echocardiogram that you got when you we in the and it does show presved ejection fraction of fifty five pcent and normal diastolic filling and mild to modate- mild to modate mitral regurgitation. so let me tell you about what that means for the chf that you we in the hospital with sounds based on your diet. this is ly caused by your dietary indiscretion and uncontrolled hyptension that we have been monitoring. so what i want you to do is continue your bex, two milligrams once daily. definitely stay on top of that. make sure that you get those meds. in evy time i am going to write you a consult to nutrition, since it sounds. maybe we can give you some advice on watching your diet, definitely watching the salty foods that you have been eating. does that sound okay?
 [patient] that sounds good, docent.
 [doctor] awesome. weigh yourself daily. do you have a scale at home?
-[patient] no, but i can get one.
+[patient] no, but the patient can get one.
 [doctor] okay, good, get a scale, weigh yourself daily. call me if you gain three pounds in two days. for the hyptension that we have been treating, i want you to continue the cozaar one hundred milligrams daily, continue the norvasc five milligrams once daily. so i'll be written down in your discharge, smary, and i am going to ord a test. i am going to ord a renal arty ultrasound just to make sure that we are not missing anything. the does that sound good?
-[patient] that sounds good to me.
+[patient] that sounds good to the patient.
 [doctor] great. okay, david, do you have any oth questions?
-[patient] no oth questions at this time. just, i guess i just need to make sure to take my medication on time. that's about it.
+[patient] no oth questions at this time. just the patient guess. the patient just need to make sure to take his / her medication on time. that's about it.
 [doctor] ye definitely take your medication on time and see that nutritionist and hopefully we can get your, get your diet on track as
-[patient] i will do my best.
+[patient] the patient will do his / her best.
 [doctor] alright, thanks, hope you feel bett.
 [patient] thank you.</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="E19" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi russell how are you what's been going on
-[patient]  i have been having this sharp pain on the right side of my abdomen below my ribs for the last seval days
+[patient] the patient has been having this sharp pain on the right side of his / her abdomen below his / her ribs for the last seval days
 [doctor] i saw my doctor and they orded a cat scan and said i had a kidney stone and sent me to see a urologist okay  does the pain move or go anywhe or does it stay right in that same spot ye it feels  it goes to my low abdomen in into my groin okay and is the pain constant or does it come and go it comes and goes when it comes it is it is pretty it is pretty bad i feel  i can not find a comfortable position okay and do you notice any pain when you urinate or when you pee
 [patient] ye it kinda burns a little bit
 [doctor] okay do you notice any blood i do not think the is any  frank blood but the urine looks a little dark sometimes okay and what have you taken for the pain i have taken some tylenol but it has not really helped okay and do you have any nausea vomiting any fev chills i feel nauseated but i am not vomiting okay is anyone in your in your family had kidney stones yes my fath had them and have you had kidney stones before ye so i have i have had them but i have been able to pass them but this is taking a lot long okay  i am just going to go ead and do a physical examination i am going to be calling out some of my exam findings and i am going to explain what those mean when i am done okay
@@ -5097,7 +5097,7 @@
       </c>
       <c r="F19" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi russell, how are you? what's been going on?
-[patient] i have been having this sharp pain on the right side of my abdomen, below my ribs, for the last seval days.
+[patient] the patient has been having this sharp pain on the right side of his / her abdomen, below his / her ribs, for the last seval days.
 [doctor] i saw my doctor and they orded a cat scan and said i had a kidney stone and sent me to see a urologist. okay, does the pain move or go anywhe, or does it stay right in that same spot? ye, it feels it goes to my low abdomen, in into my groin, okay, and is the pain constant, or does it come and go? it comes and goes. when it comes, it is. it is pretty, it is pretty bad. i feel i can not find a comfortable position. okay, and do you notice any pain when you urinate or when you pee?
 [patient] ye, it kinda burns a little bit.
 [doctor] okay, do you notice any blood? i do not think the is any frank blood, but the urine looks a little dark sometimes. okay, and what have you taken for the pain? i have taken some tylenol, but it has not really helped. okay, and do you have any nausea? vomiting, any fev chills? i feel nauseated but i am not vomiting, okay, is anyone in your in your family had kidney stones? yes, my fath had them. and have you had kidney stones before? ye, so i have. i have had them, but i have been able to pass them. but this is taking a lot long. okay, i am just going to go ead and do a physical examination. i am going to be calling out some of my exam findings and i am going to explain what those mean when i am done. okay,
@@ -5106,7 +5106,7 @@
       </c>
       <c r="G19" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi russell, how are you? what's been going on?
-[patient] i have been having this sharp pain on the right side of my abdomen, below my ribs, for the last seval days.
+[patient] the patient has been having this sharp pain on the right side of his / her abdomen, below his / her ribs, for the last seval days.
 [doctor] i saw my doctor and they orded a cat scan and said i had a kidney stone and sent me to see a urologist. okay, does the pain move or go anywhe, or does it stay right in that same spot? ye, it feels it goes to my low abdomen, in into my groin, okay, and is the pain constant, or does it come and go? it comes and goes. when it comes, it is. it is pretty, it is pretty bad. i feel i can not find a comfortable position. okay, and do you notice any pain when you urinate or when you pee?
 [patient] ye, it kinda burns a little bit.
 [doctor] okay, do you notice any blood? i do not think the is any frank blood, but the urine looks a little dark sometimes. okay, and what have you taken for the pain? i have taken some tylenol, but it has not really helped. okay, and do you have any nausea? vomiting, any fev chills? i feel nauseated but i am not vomiting, okay, is anyone in your in your family had kidney stones? yes, my fath had them. and have you had kidney stones before? ye, so i have. i have had them, but i have been able to pass them. but this is taking a lot long. okay, i am just going to go ead and do a physical examination. i am going to be calling out some of my exam findings and i am going to explain what those mean when i am done. okay,
@@ -5183,69 +5183,69 @@
       </c>
       <c r="E20" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey nicholas nice to see you today your pcp looks  he sent you ov for a nonhealing foot ulc on your right foot can you tell me about how long you have had that
-[patient] ye i have had the boot for about six weeks i first noticed it when i put on a pair of shoes that we little bit too tight i felt some burning and some stinging and looked down and saw a blist i did not think too much of it because it was on the pad of the bottom of my foot around my heel and i just had been walking on the front part of my foot i started to notice a foul smell and my wife mentioned something to me the oth day and i noticed my dog was also smelling my socks a lot and so we looked and saw that the blist had become unroofed or the top part of the skin of the blist became undone and then undneath it was just this really thick soft mushy skin that had a bad smell with some yellow drainage and so and barbara called the primary care doctor who then got me in to see you he started me on some antibiotics about six days ago and i nev had any nausea or vomiting but my wife checked my tempature it was about ninety nine point seven and then at one point i had to put on an extra blanket in bed because i had some chills and when i started the antibiotics it started to feel pretty good but we have now noticed that it has turned black around the outside of the wound and i am getting some cramping in my calf muscle as  and so the was a red streak also that was coming up the front part of my ankle along the inside portion of my calf muscle and it is sup hot and so they wanted me to take a have you look at it
+[patient] ye the patient has had the boot for about six weeks the patient first noticed it when the patient put on a pair of shoes that we little bit too tight the patient felt some burning and some stinging and looked down and saw a blist the patient did not think too much of it because it was on the pad of the bottom of his / her foot around his / her heel and the patient just had been walking on the front part of his / her foot the patient started to notice a foul smell and his / her wife mentioned something to the patient the oth day and the patient noticed his / her dog was also smelling his / her socks a lot and so we looked and saw that the blist had become unroofed or the top part of the skin of the blist became undone and then undneath it was just this really thick soft mushy skin that had a bad smell with some yellow drainage and so and barbara called the primary care doctor who then got the patient in to see you he started the patient on some antibiotics about six days ago and the patient nev had any nausea or vomiting but his / her wife checked his / her tempature it was about ninety nine point seven and then at one point the patient had to put on an extra blanket in bed because the patient had some chills and when the patient started the antibiotics it started to feel pretty good but we have now noticed that it has turned black around the outside of the wound and the patient is getting some cramping in his / her calf muscle as  and so the was a red streak also that was coming up the front part of his / her ankle along the inside portion of his / her calf muscle and it is sup hot and so they wanted the patient to take a have you look at it
 [doctor] okay thank you for sharing that history with me and did you complete that course of antibiotics
-[patient] i think he called in ten days' worth and i am on day six or seven right now i know i have got about two or three days left
+[patient] the patient think he called in ten days' worth and the patient is on day six or seven right now the patient know the patient has got about two or three days left
 [doctor] okay and you mentioned that it had some stinging and it was a bit uncomfortable are you expiencing any pain right now
-[patient] ye it was it was stinging initially  i had just done something small but at this point it is it is really  throbbing it is almost  the is a fire pok in the bottom of my foot now and then the inside of my calf muscle is really hard and i have noticed that evy time that i push that i feel it all the way up to my knee behind my kneecap and then noticed that i have been coughing a lot the last two days and then i have noticed that i have had  difficult time catching my breath when i am walking around the house and so it is almost  two diffent things going on at this point
+[patient] ye it was it was stinging initially   the patient had just done something small but at this point it is it is really  throbbing it is almost  the is a fire pok in the bottom of his / her foot now and then the inside of his / her calf muscle is really hard and the patient has noticed that evy time that the patient push that the patient feel it all the way up to his / her knee behind his / her kneecap and then noticed that the patient has been coughing a lot the last two days and then the patient has noticed that the patient has had  difficult time catching his / her breath when the patient is walking around the house and so it is almost  two diffent things going on at this point
 [doctor] okay so now i see he in your record that you have some that you are diabetic and have some diabetic neuropathy as  how's your blood sugars been running i am i am assing kind of all ov the place ov the last i am going to say probably three or four weeks can you tell me about that
-[patient] ye my a1c is six point seven it is pretty  controlled
+[patient] ye his / her a1c is six point seven it is pretty  controlled
 [doctor] okay
-[patient] i used to be on an insulin pp and i had an a1c that at one point was  thirteen but we worked with an endocrinologist to get it down to whe it is at now i have been six point seven for probably two years now and i rarely have a blood sugar that goes ov two hundred i check two or three times a day if i feel weird i'll check it again but i noticed my sugars have probably been trending in the three to four hundreds the last two weeks and then i had one spike at one point at  five or six hundred that got our attention and i think that's also what made my wife call the primary care doc
+[patient] the patient used to be on an insulin pp and the patient had an a1c that at one point was  thirteen but we worked with an endocrinologist to get it down to whe it is at now the patient has been six point seven for probably two years now and the patient rarely have a blood sugar that goes ov two hundred the patient check two or three times a day if the patient feel weird the patient'll check it again but the patient noticed his / her sugars have probably been trending in the three to four hundreds the last two weeks and then the patient had one spike at one point at  five or six hundred that got our attention and the patient think that's also what made his / her wife call the primary care doc
 [doctor] okay now i know this was caused by a new pair of shoes you had mentioned before to your pcp and he relayed this to me that you really  to go on hikes you and your wife have been hiking have you gone to the new trails that we just opened up he behind the park
-[patient] ye we actually hiked to charlie's bunion about a week before this i have had a new pair of diabetic shoes and insts i get those evy year i changed the insts evy three or four months i mean i have been in cruise control as far as that goes for some time i did get a new pair of shoes the prosthetist told me to check my feet evy day for the first week or two which we did i did go hiking about the third or fourth day and i think that might be what caused it as i just went too far when we hiking but ye the trails are the trails are gorgeous they are open it is time to be outside and i am sorta stuck with this right now
+[patient] ye we actually hiked to charlie's bunion about a week before this the patient has had a new pair of diabetic shoes and insts the patient get those evy year the patient changed the insts evy three or four months the patient mean the patient has been in cruise control as far as that goes for some time the patient did get a new pair of shoes the prosthetist told the patient to check his / her feet evy day for the first week or two which we did the patient did go hiking about the third or fourth day and the patient think that might be what caused it as the patient just went too far when we hiking but ye the trails are the trails are gorgeous they are open it is time to be outside and the patient is sorta stuck with this right now
 [doctor] absolutely ye my wife and i  to go back the and hike those trails as  so i am going to do a quick physical exam for your vital signs i do recognize a slight fev howev your vitals themselves look good now on your foot exam i do recognize the necrotic wound on your heel as you mentioned it is present it is approximately two by two centimets i do recognize the sloughing of the of the tissue as what looks  cellulitis around the area as ythemia so now unfortunately i do also smell the odor you are correct it is it does it is odds but i do not appreciate any bony exposure now on vascular exam i do have bilatal palpable pulses femorally and popliteal pulses are present howev i do not recognize a palpable pulse dorsalis pedis or postior tibial howev i did use the doppl and they are present via doppl now i am going to press on the actual affected area of the wound do you have any pain the
-[patient] i do not feel that right the
+[patient] the patient do not feel that right the
 [doctor] okay i am going to review the results of your right foot x-ray that we did when you came in today the good news is i do not see any evidence of osteomyelitis meaning that the is no infection of the bone so let's talk a little bit about my assessment and plan for this nonhealing diabetic foot ulc i am going to ord a test to check blood supply for this wound also i am going to do a debridement today in the office we may have to look at we are going to do a culture and we may have to look at diffent antibiotic thapy i am concned about the redness that's moving up your leg as this the sing and pain that you have in your calf so we are going to monitor this vy closely i want to see you again in seven days and then as far as your diabetes is concned i do want you to follow up with your endocrinologist and make sure that we do continue to keep your hemoglobin a1c below seven and we are going to need to closely monitor your blood sugars since we are going to be doing some medication thapy with antibiotics and potentially some oth medications any oth questions comments or concns before i have the nurse come in we are going to prep you for that procedure
-[patient] no not really so you are going to continue the antibiotics that i am on and possibly extend or call in a new antibiotic depending on the culture
+[patient] no not really so you are going to continue the antibiotics that the patient is on and possibly extend or call in a new antibiotic depending on the culture
 [doctor] correct
-[patient] if i heard
+[patient] if the patient heard
 [doctor] yep that's correct so what we are going to do is you said you are six days in do a ten or twelve day course so we are going to go ead and continue your antibiotics thapy that your pcp put you on i do want to get the culture back and then we will make the detmination as far as additional or changing that antibiotic thapy
 [patient] okay sounds good
 [doctor] alright</v>
       </c>
       <c r="F20" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, nicholas, nice to see you today. your pcp looks he sent you ov for a nonhealing foot ulc on your right foot. can you tell me about how long you have had that?
-[patient] ye, i have had the boot for about six weeks. i first noticed it when i put on a pair of shoes that we little bit too tight. i felt some burning and some stinging and looked down and saw a blist. i did not think too much of it because it was on the pad of the bottom of my foot, around my heel, and i just had been walking on the front part of my foot. i started to notice a foul smell and my wife mentioned something to me the oth day and i noticed my dog was also smelling my socks a lot, and so we looked and saw that the blist had become unroofed, or the top part of the skin of the blist became undone, and then undneath it was just this really thick, soft, mushy skin that had a bad smell, with some yellow drainage. and so and barbara called the primary care doctor, who then got me in to see you. he started me on some antibiotics about six days ago and i nev had any nausea or vomiting, but my wife checked my tempature- it was about ninety nine point seven, and then at one point i had to put on an extra blanket in bed because i had some chills, and when i started the antibiotics, it started to feel pretty good, but we have now noticed that it has turned black around the outside of the wound and i am getting some cramping in my calf muscle as and so the was a red streak also that was coming up the front part of my ankle, along the inside portion of my calf muscle, and it is sup hot, and so they wanted me to take a. have you look at it.
+[patient] ye, the patient has had the boot for about six weeks. the patient first noticed it when the patient put on a pair of shoes that we little bit too tight. the patient felt some burning and some stinging and looked down and saw a blist. the patient did not think too much of it because it was on the pad of the bottom of his / her foot, around his / her heel, and the patient just had been walking on the front part of his / her foot. the patient started to notice a foul smell and his / her wife mentioned something to the patient the oth day and the patient noticed his / her dog was also smelling his / her socks a lot, and so we looked and saw that the blist had become unroofed or the top part of the skin of the blist became undone, and then undneath it was just this really thick, soft, mushy skin that had a bad smell, with some yellow drainage. and so and barbara called the primary care doctor who then got the patient in to see you. he started the patient on some antibiotics about six days ago and the patient nev had any nausea or vomiting, but his / her wife checked his / her tempature. it was about ninety nine, point seven, and then at one point the patient had to put on an extra blanket in bed because the patient had some chills, and when the patient started the antibiotics it started to feel pretty good. but we have now noticed that it has turned black around the outside of the wound and the patient is getting some cramping in his / her calf muscle as and so the was a red streak also that was coming up the front part of his / her ankle, along the inside portion of his / her calf muscle, and it is sup hot, and so they wanted the patient to take a. have you look at it.
 [doctor] okay, thank you for sharing that history with me, and did you complete that course of antibiotics?
-[patient] i think he called in ten days' worth and i am on day six or seven right now. i know i have got about two or three days left.
+[patient] the patient think he called in ten days' worth and the patient is on day six or seven right now. the patient know the patient has got about two or three days left.
 [doctor] okay, and you mentioned that it had some stinging and it was a bit uncomfortable. are you expiencing any pain right now?
-[patient] ye, it was. it was stinging. initially i had just done something small, but at this point it is. it is really throbbing, it is almost the is a fire pok in the bottom of my foot now, and then the inside of my calf muscle is really hard and i have noticed that evy time that i push, that i feel it all the way up to my knee behind my kneecap and then noticed that i have been coughing a lot the last two days, and then i have noticed that i have had difficult time catching my breath when i am walking around the house, and so it is almost two diffent things going on at this point.
+[patient] ye, it was. it was stinging. initially the patient had just done something small, but at this point it is. it is really throbbing. it is almost the is a fire pok in the bottom of his / her foot now, and then the inside of his / her calf muscle is really hard and the patient has noticed that evy time that the patient push, that the patient feel it all the way up to his / her knee behind his / her kneecap and then noticed that the patient has been coughing a lot the last two days. and then the patient has noticed that the patient has had difficult time catching his / her breath when the patient is walking around the house, and so it is almost two diffent things going on at this point.
 [doctor] okay. so now i see he in your record that you have some, that you are diabetic and have some diabetic neuropathy. as how's your blood sugars been running? i am, i am assing kind of all ov the place, ov the last. i am going to say probably three or four weeks. can you tell me about that?
-[patient] ye, my a1c is six point seven. it is pretty controlled.
+[patient] ye, his / her a1c is six point seven. it is pretty controlled.
 [doctor] okay.
-[patient] i used to be on an insulin pp and i had an a1c that at one point was thirteen but we worked with an endocrinologist to get it down to whe it is at now. i have been six point seven for probably two years now and i rarely have a blood sugar that goes ov two hundred. i check two or three times a day. if i feel weird i'll check it again. but i noticed my sugars have probably been trending in the three to four hundreds the last two weeks and then i had one spike at one point at five or six hundred. that got our attention and i think that's also what made my wife call the primary care doc.
+[patient] the patient used to be on an insulin pp and the patient had an a1c that at one point was thirteen but we worked with an endocrinologist to get it down to whe it is at now. the patient has been six point seven for probably two years now and the patient rarely have a blood sugar that goes ov two hundred. the patient check two or three times a day. if the patient feel weird, the patient'll check it again. but the patient noticed his / her sugars have probably been trending in the three to four hundreds the last two weeks and then the patient had one spike at one point at five or six hundred. that got our attention and the patient think that's also what made his / her wife call the primary care doc.
 [doctor] okay, now i know this was caused by a new pair of shoes you had mentioned before to your pcp and he relayed this to me that you really to go on hikes. you and your wife have been hiking. have you gone to the new trails that we just opened up? he behind the park.
-[patient] ye, we actually hiked to charlie's bunion about a week before this. i have had a new pair of diabetic shoes and insts. i get those evy year. i changed the insts evy three or four months. i mean, i have been in cruise control, as far as that goes, for some time. i did get a new pair of shoes. the prosthetist told me to check my feet evy day for the first week or two, which we did. i did go hiking about the third or fourth day and i think that might be what caused it, as i just went too far when we hiking. but ye, the trails are. the trails are gorgeous, they are open, it is time to be outside and i am sorta stuck with this right now.
+[patient] ye, we actually hiked to charlie's bunion about a week before this. the patient has had a new pair of diabetic shoes and insts. the patient get those evy year. the patient changed the insts evy three or four months. the patient mean the patient has been in cruise control, as far as that goes, for some time. the patient did get a new pair of shoes. the prosthetist told the patient to check his / her feet evy day for the first week or two, which we did. the patient did go hiking about the third or fourth day and the patient think that might be what caused it, as the patient just went too far when we hiking. but ye, the trails are. the trails are gorgeous, they are open, it is time to be outside and the patient is sorta stuck with this right now.
 [doctor] absolutely ye, my wife and i, to go back the and hike those trails as. so i am going to do a quick physical exam for your vital signs. i do recognize a slight fev, howev. your vitals themselves look good now. on your foot exam, i do recognize the necrotic wound on your heel as you mentioned. it is present. it is approximately two by two centimets. i do recognize the sloughing of the of the tissue as what looks: cellulitis around the area, as ythemia. so now, unfortunately, i do also smell the odor. you are correct, it is, it does. it is odds, but i do not appreciate any bony exposure. now, on vascular exam, i do have bilatal palpable pulses femorally and popliteal pulses are present, howev. i do not recognize a palpable pulse dorsalis pedis or postior tibial, howev. i did use the doppl and they are present via doppl. now i am going to press on the actual affected area of the wound. do you have any pain? the
-[patient] i do not feel that right. the.
+[patient] the patient do not feel that right. the
 [doctor] okay, i am going to review the results of your right foot x-ray that we did when you came in today. the good news is i do not see any evidence of osteomyelitis, meaning that the is no infection of the bone. so let's talk a little bit about my assessment and plan for this nonhealing diabetic foot ulc. i am going to ord a test to check blood supply for this wound. also, i am going to do a debridement today in the office. we may have to look at, we are going to do a culture and we may have to look at diffent antibiotic thapy. i am concned about the redness that's moving up your leg as this the sing and pain that you have in your calf, so we are going to monitor this vy closely. i want to see you again in seven days and then, as far as your diabetes is concned, i do want you to follow up with your endocrinologist and make sure that we do continue to keep your hemoglobin a1c below seven and we are going to need to closely monitor your blood sugars, since we are going to be doing some medication thapy with antibiotics and potentially some oth medications. any oth questions, comments or concns. before i have the nurse come in, we are going to prep you for that procedure.
-[patient] no, not really. so you are going to continue the antibiotics that i am on and possibly extend or call in a new antibiotic, depending on the culture.
+[patient] no, not really. so you are going to continue the antibiotics that the patient is on and possibly extend or call in a new antibiotic, depending on the culture.
 [doctor] correct.
-[patient] if i heard.
+[patient] if the patient heard.
 [doctor] yep, that's correct. so what we are going to do is- you said you are six days in- do a ten or twelve day course. so we are going to go ead and continue your antibiotics thapy that your pcp put you on. i do want to get the culture back and then we will make the detmination as far as additional or changing that antibiotic thapy.
 [patient] okay, sounds good.
 [doctor] alright.</v>
       </c>
       <c r="G20" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hey, nicholas, nice to see you today. your pcp looks he sent you ov for a nonhealing foot ulc on your right foot. can you tell me about how long you have had that?
-[patient] ye, i have had the boot for about six weeks. i first noticed it when i put on a pair of shoes that we little bit too tight. i felt some burning and some stinging and looked down and saw a blist. i did not think too much of it because it was on the pad of the bottom of my foot, around my heel, and i just had been walking on the front part of my foot. i started to notice a foul smell and my wife mentioned something to me the oth day and i noticed my dog was also smelling my socks a lot, and so we looked and saw that the blist had become unroofed, or the top part of the skin of the blist became undone, and then undneath it was just this really thick, soft, mushy skin that had a bad smell, with some yellow drainage. and so and barbara called the primary care doctor, who then got me in to see you. he started me on some antibiotics about six days ago and i nev had any nausea or vomiting, but my wife checked my tempature- it was about ninety nine point seven, and then at one point i had to put on an extra blanket in bed because i had some chills, and when i started the antibiotics, it started to feel pretty good, but we have now noticed that it has turned black around the outside of the wound and i am getting some cramping in my calf muscle as and so the was a red streak also that was coming up the front part of my ankle, along the inside portion of my calf muscle, and it is sup hot, and so they wanted me to take a. have you look at it.
+[patient] ye, the patient has had the boot for about six weeks. the patient first noticed it when the patient put on a pair of shoes that we little bit too tight. the patient felt some burning and some stinging and looked down and saw a blist. the patient did not think too much of it because it was on the pad of the bottom of his / her foot, around his / her heel, and the patient just had been walking on the front part of his / her foot. the patient started to notice a foul smell and his / her wife mentioned something to the patient the oth day and the patient noticed his / her dog was also smelling his / her socks a lot, and so we looked and saw that the blist had become unroofed or the top part of the skin of the blist became undone, and then undneath it was just this really thick, soft, mushy skin that had a bad smell, with some yellow drainage. and so and barbara called the primary care doctor who then got the patient in to see you. he started the patient on some antibiotics about six days ago and the patient nev had any nausea or vomiting, but his / her wife checked his / her tempature. it was about ninety nine, point seven, and then at one point the patient had to put on an extra blanket in bed because the patient had some chills, and when the patient started the antibiotics it started to feel pretty good. but we have now noticed that it has turned black around the outside of the wound and the patient is getting some cramping in his / her calf muscle as and so the was a red streak also that was coming up the front part of his / her ankle, along the inside portion of his / her calf muscle, and it is sup hot, and so they wanted the patient to take a. have you look at it.
 [doctor] okay, thank you for sharing that history with me, and did you complete that course of antibiotics?
-[patient] i think he called in ten days' worth and i am on day six or seven right now. i know i have got about two or three days left.
+[patient] the patient think he called in ten days' worth and the patient is on day six or seven right now. the patient know the patient has got about two or three days left.
 [doctor] okay, and you mentioned that it had some stinging and it was a bit uncomfortable. are you expiencing any pain right now?
-[patient] ye, it was. it was stinging. initially i had just done something small, but at this point it is. it is really throbbing, it is almost the is a fire pok in the bottom of my foot now, and then the inside of my calf muscle is really hard and i have noticed that evy time that i push, that i feel it all the way up to my knee behind my kneecap and then noticed that i have been coughing a lot the last two days, and then i have noticed that i have had difficult time catching my breath when i am walking around the house, and so it is almost two diffent things going on at this point.
+[patient] ye, it was. it was stinging. initially the patient had just done something small, but at this point it is. it is really throbbing. it is almost the is a fire pok in the bottom of his / her foot now, and then the inside of his / her calf muscle is really hard and the patient has noticed that evy time that the patient push, that the patient feel it all the way up to his / her knee behind his / her kneecap and then noticed that the patient has been coughing a lot the last two days. and then the patient has noticed that the patient has had difficult time catching his / her breath when the patient is walking around the house, and so it is almost two diffent things going on at this point.
 [doctor] okay. so now i see he in your record that you have some, that you are diabetic and have some diabetic neuropathy. as how's your blood sugars been running? i am, i am assing kind of all ov the place, ov the last. i am going to say probably three or four weeks. can you tell me about that?
-[patient] ye, my a1c is six point seven. it is pretty controlled.
+[patient] ye, his / her a1c is six point seven. it is pretty controlled.
 [doctor] okay.
-[patient] i used to be on an insulin pp and i had an a1c that at one point was thirteen but we worked with an endocrinologist to get it down to whe it is at now. i have been six point seven for probably two years now and i rarely have a blood sugar that goes ov two hundred. i check two or three times a day. if i feel weird i'll check it again. but i noticed my sugars have probably been trending in the three to four hundreds the last two weeks and then i had one spike at one point at five or six hundred. that got our attention and i think that's also what made my wife call the primary care doc.
+[patient] the patient used to be on an insulin pp and the patient had an a1c that at one point was thirteen but we worked with an endocrinologist to get it down to whe it is at now. the patient has been six point seven for probably two years now and the patient rarely have a blood sugar that goes ov two hundred. the patient check two or three times a day. if the patient feel weird, the patient'll check it again. but the patient noticed his / her sugars have probably been trending in the three to four hundreds the last two weeks and then the patient had one spike at one point at five or six hundred. that got our attention and the patient think that's also what made his / her wife call the primary care doc.
 [doctor] okay, now i know this was caused by a new pair of shoes you had mentioned before to your pcp and he relayed this to me that you really to go on hikes. you and your wife have been hiking. have you gone to the new trails that we just opened up? he behind the park.
-[patient] ye, we actually hiked to charlie's bunion about a week before this. i have had a new pair of diabetic shoes and insts. i get those evy year. i changed the insts evy three or four months. i mean, i have been in cruise control, as far as that goes, for some time. i did get a new pair of shoes. the prosthetist told me to check my feet evy day for the first week or two, which we did. i did go hiking about the third or fourth day and i think that might be what caused it, as i just went too far when we hiking. but ye, the trails are. the trails are gorgeous, they are open, it is time to be outside and i am sorta stuck with this right now.
+[patient] ye, we actually hiked to charlie's bunion about a week before this. the patient has had a new pair of diabetic shoes and insts. the patient get those evy year. the patient changed the insts evy three or four months. the patient mean the patient has been in cruise control, as far as that goes, for some time. the patient did get a new pair of shoes. the prosthetist told the patient to check his / her feet evy day for the first week or two, which we did. the patient did go hiking about the third or fourth day and the patient think that might be what caused it, as the patient just went too far when we hiking. but ye, the trails are. the trails are gorgeous, they are open, it is time to be outside and the patient is sorta stuck with this right now.
 [doctor] absolutely ye, my wife and i, to go back the and hike those trails as. so i am going to do a quick physical exam for your vital signs. i do recognize a slight fev, howev. your vitals themselves look good now. on your foot exam, i do recognize the necrotic wound on your heel as you mentioned. it is present. it is approximately two by two centimets. i do recognize the sloughing of the of the tissue as what looks: cellulitis around the area, as ythemia. so now, unfortunately, i do also smell the odor. you are correct, it is, it does. it is odds, but i do not appreciate any bony exposure. now, on vascular exam, i do have bilatal palpable pulses femorally and popliteal pulses are present, howev. i do not recognize a palpable pulse dorsalis pedis or postior tibial, howev. i did use the doppl and they are present via doppl. now i am going to press on the actual affected area of the wound. do you have any pain? the
-[patient] i do not feel that right. the.
+[patient] the patient do not feel that right. the
 [doctor] okay, i am going to review the results of your right foot x-ray that we did when you came in today. the good news is i do not see any evidence of osteomyelitis, meaning that the is no infection of the bone. so let's talk a little bit about my assessment and plan for this nonhealing diabetic foot ulc. i am going to ord a test to check blood supply for this wound. also, i am going to do a debridement today in the office. we may have to look at, we are going to do a culture and we may have to look at diffent antibiotic thapy. i am concned about the redness that's moving up your leg as this the sing and pain that you have in your calf, so we are going to monitor this vy closely. i want to see you again in seven days and then, as far as your diabetes is concned, i do want you to follow up with your endocrinologist and make sure that we do continue to keep your hemoglobin a1c below seven and we are going to need to closely monitor your blood sugars, since we are going to be doing some medication thapy with antibiotics and potentially some oth medications. any oth questions, comments or concns. before i have the nurse come in, we are going to prep you for that procedure.
-[patient] no, not really. so you are going to continue the antibiotics that i am on and possibly extend or call in a new antibiotic, depending on the culture.
+[patient] no, not really. so you are going to continue the antibiotics that the patient is on and possibly extend or call in a new antibiotic, depending on the culture.
 [doctor] correct.
-[patient] if i heard.
+[patient] if the patient heard.
 [doctor] yep, that's correct. so what we are going to do is- you said you are six days in- do a ten or twelve day course. so we are going to go ead and continue your antibiotics thapy that your pcp put you on. i do want to get the culture back and then we will make the detmination as far as additional or changing that antibiotic thapy.
 [patient] okay, sounds good.
 [doctor] alright.</v>
@@ -5395,23 +5395,23 @@
       </c>
       <c r="E21" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi richard how are you the medical assistant told me that you have a tick bite is that what happened
-[patient] i really do not know whe i got it but i had i do get out in the woods and i do spend a lot of time out in the yard but ye i have got a tick bite around my knee and it is been it is been ov a week and just it just burns and just quite annoying
+[patient] the patient really do not know whe the patient got it but the patient had the patient do get out in the woods and the patient do spend a lot of time out in the yard but ye the patient has got a tick bite around his / her knee and it is been it is been ov a week and just it just burns and just quite annoying
 [doctor] okay and have you had any fev or chills
-[patient] i have not at this point it just feels warm on that spot
+[patient] the patient has not at this point it just feels warm on that spot
 [doctor] okay alright and have you noticed any oth joint pain  in your elbows or shoulds or anything  that since this started
-[patient] nothing oth than my typical arthritic pain
+[patient] nothing oth than his / her typical arthritic pain
 [doctor] okay alright now you say that you  to go outside and you are working in the yard now i heard that you we a hunt when was the last time you went hunting has hunting season started yet i do not even know
-[patient]  i did go hunting not long ago couple of weeks ago
+[patient] the patient did go hunting not long ago couple of weeks ago
 [doctor] okay did you did you
-[patient] windle season is open  it is actually on a on a got the right word for it but it is whe they train dogs and things  that
+[patient] windle season is open  it is actually on a on a got the right word for it but it is whe they train dogs and things   that
 [doctor] okay
 [patient] type thing
 [doctor] okay did you i did we you able to shoot anything did you bring anything home
-[patient]  actually i ye i shut seval i had some grandchildren with me so i let them have what they wanted
+[patient] actually the patient ye the patient shut seval the patient had some grandchildren with the patient so the patient let them have what they wanted
 [doctor] nice  i did hear i do not know much about hunting but i did hear a hunting software joke the oth day do you want to hear it
 [patient] sure
 [doctor] so what software do hunts use for designing and hunting their pray
-[patient] man i have no idea
+[patient] man the patient has no idea
 [doctor] the adobee illustrator get it
 [patient] do not be
 [doctor] anyway i die grass let's just get back to our visit he so about your line or about your tick bite so do you notice that it is hard for you to move your knee at all
@@ -5419,15 +5419,15 @@
 [doctor] no and do you have any problems walking
 [patient] no
 [doctor] no okay and have you ev had a tick bite before
-[patient] i have when i was young i used to get a lot of them because i spent a lot of time out of the woods nev get into anesthesia takes you can get seval bites out of that but this was just one
+[patient] the patient has when the patient was young the patient used to get a lot of them because the patient spent a lot of time out of the woods nev get into anesthesia takes you can get seval bites out of that but this was just one
 [doctor] okay alright and have you ev been diagnosed with what we call lyme disease before
-[patient] i have not
+[patient] the patient has not
 [doctor] you have not
-[patient] i would not know so i would not know what symptoms are
+[patient] the patient would not know so the patient would not know what symptoms are
 [doctor] okay
-[patient] what you just asked me i guess maybe
+[patient] what you just asked the patient the patient guess maybe
 [doctor] ye so some of those symptoms  any flu  symptoms have you had  any body aches or chills or anything  that
-[patient] no just really just kind of a headache just genally do not feel 
+[patient] no just really just kind of a headache just genally do not feel
 [doctor] genally do not feel  okay and has that been since the tick bite
 [patient] it has
 [doctor] it has okay alright and any oth symptoms  a cough or shortness of breath or dizziness or anything  that
@@ -5435,21 +5435,21 @@
 [doctor] okay now since you are he let me just ask you a little bit about your high blood pressure did you buy the blood pressure cuff i asked you to have you been checking your blood pressure at home
 [patient] piodically yes
 [doctor] okay and do you think that they are running okay
-[patient] ye blood pressure seems to be doing okay the lisinopril works 
+[patient] ye blood pressure seems to be doing okay the lisinopril works
 [doctor] good i was just going to ask you if you we taking your lisinopril so that's good okay and any side effects from the lisinopril since we started it i think we started it about a year ago two years ago
-[patient] no side effects that i am aware of
+[patient] no side effects that the patient is aware of
 [doctor] no side effects okay and then in tms of your diabetes are you watching your sugar intake
-[patient] ye i usually watch it the form of high what i am eating but
+[patient] ye the patient usually watch it the form of high what the patient is eating but
 [doctor] i am a big pie fan as  i know what's your favorite type of pie
-[patient]   it is favorite boy i just  pie  apples chry chocolate  bicon
+[patient] it is favorite boy the patient just  pie  apples chry chocolate  bicon
 [doctor] ye
-[patient] i try to try to avoid the bicon because i think it is just all sugar but i do  it
+[patient] the patient try to try to avoid the bicon because the patient think it is just all sugar but the patient do  it
 [doctor] okay
 [patient] less
 [doctor] i  it too alright are you taking the metformin twice a day
 [patient] not evyday but most of the time
 [doctor] okay alright and are you checking your blood sugars pretty regularly
-[patient] i try to
+[patient] the patient try to
 [doctor] okay and do you do  on avage how they are running are they running below  one fifty or
 [patient] ye it is definitely running below that
 [doctor] okay your blood sugars are running below
@@ -5459,44 +5459,44 @@
 [doctor] good your blood sugars are running in the one twenties that's really good okay alright  i want to just go ead and do a quick physical exam okay so i am looking he at your vital signs and your vital signs look really good i do think you are doing a good job with taking your lisinopril your blood pressure's about one twenty two ov seventy right now which is right whe we want it your heart rate is nice and slow at sixty seven again which is right whe we want it and i do not appreciate any fev today you have a normal tempature at ninety eight point four which is really good so i am just going to be going ead and calling out some physical exam findings and i am going to let  what that means when i am done okay so on your heart exam your heart is in a nice regular rate and rhythm i do not appreciate any murmur rub or gallop on your lung exam your lungs are nice and clear to auscultation bilatally on your right knee exam i do appreciate some ythema and edema as an area of fluctuance ov your right patella now does it hurt when i press
 [patient] it is a little bit sore
 [doctor] okay the is pain to palpation of the right antior knee and i am just going to bend your knee up and down does that hurt at all
-[patient] no it is just more of the typical grinding that i would feel
+[patient] no it is just more of the typical grinding that the patient would feel
 [doctor] okay the is full range of motion of the right knee and on skin examination the is evidence of a bull's-eye rash ov the right knee okay so what does that mean richard so that means that  you do have some area of some inflammation ov the ov the right knee whe you whe you have that tick bite and you do have what we call that bull's eye rash which is what we get concned about with lyme disease so let's just talk a little bit about  my assessment and my plan for you okay so for this first problem of your of your tick bite my concn is that you might have lyme disease based on the presentation of your right knee so i am going to go ead and start you on doxycycline one hundred milligrams twice a day
-[patient] we are going to continue that for about three weeks i am also going to go ead and send a lyme tit as a westn blot to see if you do in fact have lyme disease and we will have to go ead and just see how you do with this we  i'd  to avoid intravenous antibiotics which i think we can avoid but i wanted to see how you do so
+[patient] we are going to continue that for about three weeks the patient is also going to go ead and send a lyme tit as a westn blot to see if you do in fact have lyme disease and we will have to go ead and just see how you do with this we  the patient would  to avoid intravenous antibiotics which the patient think we can avoid but the patient wanted to see how you do so
 [doctor] do you have any questions about that
-[patient] ye i did not know what those last two things or just
+[patient] ye the patient did not know what those last two things or just
 [doctor] ye so we are going to start you on some antibiotics to help you with this
-[patient]  possible lyme disease and i am going to just ord some blood tests just to see exactly what's going on and then  sometimes people need intravenous antibiotics because lyme disease can cause problems on oth organs  your heart that type of thing
+[patient] possible lyme disease and the patient is going to just ord some blood tests just to see exactly what's going on and then  sometimes people need intravenous antibiotics because lyme disease can cause problems on oth organs  your heart that type of thing
 [doctor] if not treated appropriately and sometimes we need to give antibiotics through the iv which i'd  to avoid i think that we got this early enough that we can just treat you with some oral antibiotics okay for your second problem of your hyptension  i think you are doing a really good job let's go ead and continue you on the lisinopril twenty milligrams once a day and i want to just go ead and ord a lipid panel just to make sure that evything is okay with your cholestol how does that sound
 [patient] that's fine
 [doctor] great and then for your third problem of your diabetes i want to just go ead and ord a hemoglobin a1c and continue you on the metformin one thousand milligrams twice a day it sounds  you are doing a good job since your blood sugars are running in the one twenties i do not think we need to make any adjustments but we will see what the hemoglobin a1c shows that gives us a an idea of what your blood sugars are doing on a long-tm basis how does that sound
-[patient] okay at what point time do you start kinda checking kidney function i have been told that metformin can possibly cause some kidney issues
+[patient] okay at what point time do you start kinda checking kidney function the patient has been told that metformin can possibly cause some kidney issues
 [doctor] so it can  your kidney function we have  i think you have been really lucky it is been normal i checked it about two months ago and it looks pretty good it looks pretty normal but since we are doing blood work on you i can go ead and ord a basic metabolic panel just to make sure that your kidney function is stable
 [patient] okay that'd be good
 [doctor] okay anything else
-[patient] not that i can think of at this time as soon as i leave
+[patient] not that the patient can think of at this time as soon as the patient leave
 [doctor]   whe to find me okay
 [patient] alright
 [doctor] take care bye</v>
       </c>
       <c r="F21" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi, richard, how are you? the medical assistant told me that you have a tick bite. is that what happened?
-[patient] i really do not know whe i got it, but i had. i do get out in the woods and i do spend a lot of time out in the yard, but ye, i have got a tick bite around my knee and it is been. it is been ov a week and just it just burns and just quite annoying.
+[patient] the patient. really do not know whe the patient got it, but the patient had. the patient do get out in the woods and the patient do spend a lot of time out in the yard. but ye, the patient has got a tick bite around his / her knee and it is been. it is been ov a week and just it just burns and just quite annoying.
 [doctor] okay, and have you had any fev or chills?
-[patient] i have not at this point. it just feels warm on that spot.
+[patient] the patient has not at this point. it just feels warm on that spot.
 [doctor] okay, alright, and have you noticed any oth joint pain in your elbows or shoulds or anything that since this started?
-[patient] nothing oth than my typical arthritic pain.
+[patient] nothing oth than his / her typical arthritic pain.
 [doctor] okay, alright. now you say that you to go outside and you are working in the yard. now i heard that you we a hunt. when was the last time you went hunting? has hunting season started yet? i do not even know.
-[patient] i did go hunting not long ago, couple of weeks ago.
+[patient] the patient did go hunting not long ago, couple of weeks ago.
 [doctor] okay, did you, did you.
 [patient] windle season is open. it is actually on a on a got the right word for it, but it is whe they train dogs and things that.
 [doctor] okay.
 [patient] type thing.
 [doctor] okay, did you, i, did we you able to shoot anything? did you bring anything home?
-[patient] actually i ye, i shut seval. i had some grandchildren with me, so i let them have what they wanted.
+[patient] actually the patient. ye, the patient shut seval. the patient had some grandchildren with the patient, so the patient let them have what they wanted.
 [doctor] nice i did hear. i do not know much about hunting, but i did hear a hunting software joke the oth day. do you want to hear it?
 [patient] sure.
 [doctor] so what software do hunts use for designing and hunting their pray?
-[patient] man, i have no idea.
+[patient] man. the patient has no idea.
 [doctor] the adobee illustrator: get it.
 [patient] do not be.
 [doctor] anyway, i die grass. let's just get back to our visit. he so about your line or about your tick bite? so do you notice that it is hard for you to move your knee at all?
@@ -5504,13 +5504,13 @@
 [doctor] no, and do you have any problems walking?
 [patient] no.
 [doctor] no, okay, and have you ev had a tick bite before?
-[patient] i have. when i was young i used to get a lot of them because i spent a lot of time out of the woods. nev get into anesthesia takes. you can get seval bites out of that, but this was just one.
+[patient] the patient has. when the patient was young, the patient used to get a lot of them because the patient spent a lot of time out of the woods. nev get into anesthesia takes. you can get seval bites out of that, but this was just one.
 [doctor] okay, alright, and have you ev been diagnosed with what we call lyme disease before?
-[patient] i have not.
+[patient] the patient has not.
 [doctor] you have not.
-[patient] i would not know, so i would not know what symptoms are.
+[patient] the patient would not know. so the patient would not know what symptoms are.
 [doctor] okay.
-[patient] what you just asked me. i guess maybe.
+[patient] what you just asked the patient, the patient guess maybe.
 [doctor] ye. so some of those symptoms, any flu symptoms? have you had any body aches or chills or anything that?
 [patient] no, just really just kind of a headache. just genally do not feel.
 [doctor] genally do not feel okay, and has that been since the tick bite.
@@ -5522,19 +5522,19 @@
 [doctor] okay, and do you think that they are running okay?
 [patient] ye blood pressure seems to be doing okay. the lisinopril works.
 [doctor] good, i was just going to ask you if you we taking your lisinopril, so that's good. okay, and any side effects from the lisinopril since we started it? i think we started it about a year ago, two years ago.
-[patient] no side effects that i am aware of.
+[patient] no side effects that the patient is aware of.
 [doctor] no side effects? okay, and then in tms of your diabetes, are you watching your sugar intake?
-[patient] ye, i usually watch it- the form of high what i am eating. but
+[patient] ye, the patient usually watch it- the form of high what the patient is eating. but
 [doctor] i am a big pie fan, as i know what's your favorite type of pie.
-[patient] it is favorite boy. i just pie apples, chry, chocolate bicon.
+[patient] it is favorite boy, the patient, just pie apples, chry, chocolate bicon.
 [doctor] ye.
-[patient] i try to try to avoid the bicon because i think it is just all sugar, but i do it.
+[patient] the patient try to try to avoid the bicon because the patient think it is just all sugar. but the patient do it.
 [doctor] okay.
 [patient] less.
 [doctor] i it too. alright, are you taking the metformin twice a day?
 [patient] not evyday, but most of the time.
 [doctor] okay, alright, and are you checking your blood sugars pretty regularly?
-[patient] i try to.
+[patient] the patient try to.
 [doctor] okay, and do you do on avage how they are running? are they running below one fifty or?
 [patient] ye, it is definitely running below that.
 [doctor] okay, your blood sugars are running below.
@@ -5544,44 +5544,44 @@
 [doctor] good. your blood sugars are running in the one twenties. that's really good. okay, alright, i want to just go ead and do a quick physical exam, okay, so i am looking he at your vital signs and your vital signs look really good. i do think you are doing a good job with taking your lisinopril. your blood pressure's about one twenty two ov seventy right now, which is right whe we want it. your heart rate is nice and slow, at sixty seven again, which is right whe we want it, and i do not appreciate any fev. today you have a normal tempature at ninety eight point four, which is really good. so i am just going to be going ead and calling out some physical exam findings and i am going to let what that means when i am done. okay, so on your heart exam, your heart is in a nice, regular rate and rhythm. i do not appreciate any murmur, rub or gallop. on your lung exam, your lungs are nice and clear to auscultation bilatally. on your right knee exam, i do appreciate some ythema and edema as an area of fluctuance. ov, your right patella now does it hurt when i press?
 [patient] it is a little bit sore.
 [doctor] okay, the is pain to palpation of the right antior knee and i am just going to bend your knee up and down. does that hurt at all?
-[patient] no, it is just more of the typical grinding that i would feel.
+[patient] no, it is just more of the typical grinding that the patient would feel.
 [doctor] okay, the is full range of motion of the right knee and on skin examination, the is evidence of a bull's-eye rash- ov the right knee. okay, so what does that mean, richard? so that means that you do have some area of some inflammation: ov the ov the right knee, whe you, whe you have that tick bite and you do have what we call that bull's eye rash, which is what we get concned about with lyme disease. so let's just talk a little bit about my assessment and my plan for you. okay, so for this first problem of your, of your tick bite, my concn is that you might have lyme disease based on the presentation of your right knee. so i am going to go ead and start you on doxycycline, one hundred milligrams twice a day.
-[patient] we are going to continue that for about three weeks. i am also going to go ead and send a lyme tit as a westn blot to see if you do in fact have lyme disease, and we will have to go ead and just see how you do with this. we i'd to avoid intravenous antibiotics, which i think we can avoid, but i wanted to see how you do so.
+[patient] we are going to continue that for about three weeks. the patient is also going to go ead and send a lyme tit as a westn blot to see if you do in fact have lyme disease, and we will have to go ead and just see how you do with this. we- the patient- would to avoid intravenous antibiotics which the patient think we can avoid. but the patient wanted to see how you do so.
 [doctor] do you have any questions about that?
-[patient] ye, i did not know what those last two things, or just.
+[patient] ye. the patient did not know what those last two things or just.
 [doctor] ye. so we are going to start you on some antibiotics to help you with this.
-[patient] possible lyme disease and i am going to just ord some blood tests just to see exactly what's going on. and then sometimes people need intravenous antibiotics because lyme disease can cause problems on oth organs, your heart, that type of thing.
+[patient] possible lyme disease and the patient is going to just ord some blood tests just to see exactly what's going on. and then sometimes people need intravenous antibiotics because lyme disease can cause problems on oth organs, your heart, that type of thing.
 [doctor] if not treated appropriately, and sometimes we need to give antibiotics through the iv, which i'd to avoid. i think that we got this early enough that we can just treat you with some oral antibiotics. okay, for your second problem of your hyptension, i think you are doing a really good job. let's go ead and continue you on the lisinopril twenty milligrams once a day, and i want to just go ead and ord a lipid panel just to make sure that evything is okay with your cholestol. how does that sound?
 [patient] that's fine.
 [doctor] great. and then for your third problem of your diabetes, i want to just go ead and ord a hemoglobin a1c and continue you on the metformin, one thousand milligrams twice a day. it sounds you are doing a good job, since your blood sugars are running in the one twenties. i do not think we need to make any adjustments. but we will see what the hemoglobin a1c shows. that gives us a an idea of what your blood sugars are doing on a long-tm basis. how does that sound?
-[patient] okay, at what point time do you start kinda checking kidney function? i have been told that metformin can possibly cause some kidney issues.
+[patient] okay, at what point time do you start kinda checking kidney function? the patient has been told that metformin can possibly cause some kidney issues.
 [doctor] so it can your kidney function. we have. i think you have been really lucky. it is been normal. i checked it about two months ago and it looks pretty good. it looks pretty normal. but since we are doing blood work on you, i can go ead and ord a basic metabolic panel just to make sure that your kidney function is stable.
 [patient] okay, that'd be good.
 [doctor] okay, anything else.
-[patient] not that i can think of at this time, as soon as i leave.
+[patient] not that the patient can think of at this time. as soon as the patient leave,
 [doctor] whe to find me okay.
 [patient] alright.
 [doctor] take care bye.</v>
       </c>
       <c r="G21" t="str" xml:space="preserve">
         <v xml:space="preserve">[doctor] hi, richard, how are you? the medical assistant told me that you have a tick bite. is that what happened?
-[patient] i really do not know whe i got it, but i had. i do get out in the woods and i do spend a lot of time out in the yard, but ye, i have got a tick bite around my knee and it is been. it is been ov a week and just it just burns and just quite annoying.
+[patient] the patient. really do not know whe the patient got it, but the patient had. the patient do get out in the woods and the patient do spend a lot of time out in the yard. but ye, the patient has got a tick bite around his / her knee and it is been. it is been ov a week and just it just burns and just quite annoying.
 [doctor] okay, and have you had any fev or chills?
-[patient] i have not at this point. it just feels warm on that spot.
+[patient] the patient has not at this point. it just feels warm on that spot.
 [doctor] okay, alright, and have you noticed any oth joint pain in your elbows or shoulds or anything that since this started?
-[patient] nothing oth than my typical arthritic pain.
+[patient] nothing oth than his / her typical arthritic pain.
 [doctor] okay, alright. now you say that you to go outside and you are working in the yard. now i heard that you we a hunt. when was the last time you went hunting? has hunting season started yet? i do not even know.
-[patient] i did go hunting not long ago, couple of weeks ago.
+[patient] the patient did go hunting not long ago, couple of weeks ago.
 [doctor] okay, did you, did you.
 [patient] windle season is open. it is actually on a on a got the right word for it, but it is whe they train dogs and things that.
 [doctor] okay.
 [patient] type thing.
 [doctor] okay, did you, i, did we you able to shoot anything? did you bring anything home?
-[patient] actually i ye, i shut seval. i had some grandchildren with me, so i let them have what they wanted.
+[patient] actually the patient. ye, the patient shut seval. the patient had some grandchildren with the patient, so the patient let them have what they wanted.
 [doctor] nice i did hear. i do not know much about hunting, but i did hear a hunting software joke the oth day. do you want to hear it?
 [patient] sure.
 [doctor] so what software do hunts use for designing and hunting their pray?
-[patient] man, i have no idea.
+[patient] man. the patient has no idea.
 [doctor] the adobee illustrator: get it.
 [patient] do not be.
 [doctor] anyway, i die grass. let's just get back to our visit. he so about your line or about your tick bite? so do you notice that it is hard for you to move your knee at all?
@@ -5589,13 +5589,13 @@
 [doctor] no, and do you have any problems walking?
 [patient] no.
 [doctor] no, okay, and have you ev had a tick bite before?
-[patient] i have. when i was young i used to get a lot of them because i spent a lot of time out of the woods. nev get into anesthesia takes. you can get seval bites out of that, but this was just one.
+[patient] the patient has. when the patient was young, the patient used to get a lot of them because the patient spent a lot of time out of the woods. nev get into anesthesia takes. you can get seval bites out of that, but this was just one.
 [doctor] okay, alright, and have you ev been diagnosed with what we call lyme disease before?
-[patient] i have not.
+[patient] the patient has not.
 [doctor] you have not.
-[patient] i would not know, so i would not know what symptoms are.
+[patient] the patient would not know. so the patient would not know what symptoms are.
 [doctor] okay.
-[patient] what you just asked me. i guess maybe.
+[patient] what you just asked the patient, the patient guess maybe.
 [doctor] ye. so some of those symptoms, any flu symptoms? have you had any body aches or chills or anything that?
 [patient] no, just really just kind of a headache. just genally do not feel.
 [doctor] genally do not feel okay, and has that been since the tick bite.
@@ -5607,19 +5607,19 @@
 [doctor] okay, and do you think that they are running okay?
 [patient] ye blood pressure seems to be doing okay. the lisinopril works.
 [doctor] good, i was just going to ask you if you we taking your lisinopril, so that's good. okay, and any side effects from the lisinopril since we started it? i think we started it about a year ago, two years ago.
-[patient] no side effects that i am aware of.
+[patient] no side effects that the patient is aware of.
 [doctor] no side effects? okay, and then in tms of your diabetes, are you watching your sugar intake?
-[patient] ye, i usually watch it- the form of high what i am eating. but
+[patient] ye, the patient usually watch it- the form of high what the patient is eating. but
 [doctor] i am a big pie fan, as i know what's your favorite type of pie.
-[patient] it is favorite boy. i just pie apples, chry, chocolate bicon.
+[patient] it is favorite boy, the patient, just pie apples, chry, chocolate bicon.
 [doctor] ye.
-[patient] i try to try to avoid the bicon because i think it is just all sugar, but i do it.
+[patient] the patient try to try to avoid the bicon because the patient think it is just all sugar. but the patient do it.
 [doctor] okay.
 [patient] less.
 [doctor] i it too. alright, are you taking the metformin twice a day?
 [patient] not evyday, but most of the time.
 [doctor] okay, alright, and are you checking your blood sugars pretty regularly?
-[patient] i try to.
+[patient] the patient try to.
 [doctor] okay, and do you do on avage how they are running? are they running below one fifty or?
 [patient] ye, it is definitely running below that.
 [doctor] okay, your blood sugars are running below.
@@ -5629,21 +5629,21 @@
 [doctor] good. your blood sugars are running in the one twenties. that's really good. okay, alright, i want to just go ead and do a quick physical exam, okay, so i am looking he at your vital signs and your vital signs look really good. i do think you are doing a good job with taking your lisinopril. your blood pressure's about one twenty two ov seventy right now, which is right whe we want it. your heart rate is nice and slow, at sixty seven again, which is right whe we want it, and i do not appreciate any fev. today you have a normal tempature at ninety eight point four, which is really good. so i am just going to be going ead and calling out some physical exam findings and i am going to let what that means when i am done. okay, so on your heart exam, your heart is in a nice, regular rate and rhythm. i do not appreciate any murmur, rub or gallop. on your lung exam, your lungs are nice and clear to auscultation bilatally. on your right knee exam, i do appreciate some ythema and edema as an area of fluctuance. ov, your right patella now does it hurt when i press?
 [patient] it is a little bit sore.
 [doctor] okay, the is pain to palpation of the right antior knee and i am just going to bend your knee up and down. does that hurt at all?
-[patient] no, it is just more of the typical grinding that i would feel.
+[patient] no, it is just more of the typical grinding that the patient would feel.
 [doctor] okay, the is full range of motion of the right knee and on skin examination, the is evidence of a bull's-eye rash- ov the right knee. okay, so what does that mean, richard? so that means that you do have some area of some inflammation: ov the ov the right knee, whe you, whe you have that tick bite and you do have what we call that bull's eye rash, which is what we get concned about with lyme disease. so let's just talk a little bit about my assessment and my plan for you. okay, so for this first problem of your, of your tick bite, my concn is that you might have lyme disease based on the presentation of your right knee. so i am going to go ead and start you on doxycycline, one hundred milligrams twice a day.
-[patient] we are going to continue that for about three weeks. i am also going to go ead and send a lyme tit as a westn blot to see if you do in fact have lyme disease, and we will have to go ead and just see how you do with this. we i'd to avoid intravenous antibiotics, which i think we can avoid, but i wanted to see how you do so.
+[patient] we are going to continue that for about three weeks. the patient is also going to go ead and send a lyme tit as a westn blot to see if you do in fact have lyme disease, and we will have to go ead and just see how you do with this. we- the patient- would to avoid intravenous antibiotics which the patient think we can avoid. but the patient wanted to see how you do so.
 [doctor] do you have any questions about that?
-[patient] ye, i did not know what those last two things, or just.
+[patient] ye. the patient did not know what those last two things or just.
 [doctor] ye. so we are going to start you on some antibiotics to help you with this.
-[patient] possible lyme disease and i am going to just ord some blood tests just to see exactly what's going on. and then sometimes people need intravenous antibiotics because lyme disease can cause problems on oth organs, your heart, that type of thing.
+[patient] possible lyme disease and the patient is going to just ord some blood tests just to see exactly what's going on. and then sometimes people need intravenous antibiotics because lyme disease can cause problems on oth organs, your heart, that type of thing.
 [doctor] if not treated appropriately, and sometimes we need to give antibiotics through the iv, which i'd to avoid. i think that we got this early enough that we can just treat you with some oral antibiotics. okay, for your second problem of your hyptension, i think you are doing a really good job. let's go ead and continue you on the lisinopril twenty milligrams once a day, and i want to just go ead and ord a lipid panel just to make sure that evything is okay with your cholestol. how does that sound?
 [patient] that's fine.
 [doctor] great. and then for your third problem of your diabetes, i want to just go ead and ord a hemoglobin a1c and continue you on the metformin, one thousand milligrams twice a day. it sounds you are doing a good job, since your blood sugars are running in the one twenties. i do not think we need to make any adjustments. but we will see what the hemoglobin a1c shows. that gives us a an idea of what your blood sugars are doing on a long-tm basis. how does that sound?
-[patient] okay, at what point time do you start kinda checking kidney function? i have been told that metformin can possibly cause some kidney issues.
+[patient] okay, at what point time do you start kinda checking kidney function? the patient has been told that metformin can possibly cause some kidney issues.
 [doctor] so it can your kidney function. we have. i think you have been really lucky. it is been normal. i checked it about two months ago and it looks pretty good. it looks pretty normal. but since we are doing blood work on you, i can go ead and ord a basic metabolic panel just to make sure that your kidney function is stable.
 [patient] okay, that'd be good.
 [doctor] okay, anything else.
-[patient] not that i can think of at this time, as soon as i leave.
+[patient] not that the patient can think of at this time. as soon as the patient leave,
 [doctor] whe to find me okay.
 [patient] alright.
 [doctor] take care bye.</v>
